--- a/gameData/shared/BuildingLevelUp.xlsx
+++ b/gameData/shared/BuildingLevelUp.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="0" windowWidth="36140" windowHeight="15540" tabRatio="883" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="5060" yWindow="21600" windowWidth="26860" windowHeight="15980" tabRatio="883" firstSheet="8" activeTab="23"/>
   </bookViews>
   <sheets>
-    <sheet name="keep" sheetId="17" r:id="rId1"/>
-    <sheet name="watchTower" sheetId="45" r:id="rId2"/>
-    <sheet name="dragonEyrie" sheetId="46" r:id="rId3"/>
-    <sheet name="wall" sheetId="18" r:id="rId4"/>
-    <sheet name="warehouse" sheetId="19" r:id="rId5"/>
-    <sheet name="tower" sheetId="20" r:id="rId6"/>
+    <sheet name="wall" sheetId="18" r:id="rId1"/>
+    <sheet name="tower" sheetId="20" r:id="rId2"/>
+    <sheet name="keep" sheetId="17" r:id="rId3"/>
+    <sheet name="watchTower" sheetId="45" r:id="rId4"/>
+    <sheet name="dragonEyrie" sheetId="46" r:id="rId5"/>
+    <sheet name="warehouse" sheetId="19" r:id="rId6"/>
     <sheet name="barracks" sheetId="32" r:id="rId7"/>
     <sheet name="armyCamp" sheetId="33" r:id="rId8"/>
     <sheet name="blackSmith" sheetId="34" r:id="rId9"/>
     <sheet name="materialDepot" sheetId="35" r:id="rId10"/>
     <sheet name="toolShop" sheetId="36" r:id="rId11"/>
     <sheet name="lumbermill" sheetId="27" r:id="rId12"/>
-    <sheet name="stonemason" sheetId="28" r:id="rId13"/>
+    <sheet name="stoneMason" sheetId="28" r:id="rId13"/>
     <sheet name="foundry" sheetId="29" r:id="rId14"/>
     <sheet name="mill" sheetId="30" r:id="rId15"/>
     <sheet name="townHall" sheetId="31" r:id="rId16"/>
@@ -37,11 +37,11 @@
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="8">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="13">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="17">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="21">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="11">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="14">#REF!</definedName>
@@ -49,24 +49,24 @@
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="22">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="12">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="10">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="15">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="18">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="20">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="23">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="16">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="8">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="13">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="17">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="21">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="11">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="14">#REF!</definedName>
@@ -74,24 +74,24 @@
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="22">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="12">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="10">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="15">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="18">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="20">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="23">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="16">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="8">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="13">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="17">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="21">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="11">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="14">#REF!</definedName>
@@ -99,24 +99,24 @@
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="22">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="12">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="10">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="15">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="18">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="20">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="23">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="16">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="8">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="13">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="17">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="21">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="11">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="14">#REF!</definedName>
@@ -124,13 +124,13 @@
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="22">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="12">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="10">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="15">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="18">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="20">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="23">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
   </definedNames>
@@ -1228,7 +1228,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1261,8 +1261,8 @@
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>11</v>
+      <c r="I1" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>9</v>
@@ -1305,13 +1305,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1000</v>
+        <v>860</v>
       </c>
       <c r="C3" s="1">
-        <v>1000</v>
+        <v>860</v>
       </c>
       <c r="D3" s="1">
-        <v>1000</v>
+        <v>860</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -1337,13 +1337,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2000</v>
+        <v>1720</v>
       </c>
       <c r="C4" s="1">
-        <v>2000</v>
+        <v>1720</v>
       </c>
       <c r="D4" s="1">
-        <v>2000</v>
+        <v>1720</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -1358,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>6000</v>
+        <v>5160</v>
       </c>
       <c r="C5" s="1">
-        <v>6000</v>
+        <v>5160</v>
       </c>
       <c r="D5" s="1">
-        <v>6000</v>
+        <v>5160</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>300</v>
+        <v>258</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -1401,13 +1401,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>12000</v>
+        <v>10320</v>
       </c>
       <c r="C6" s="1">
-        <v>12000</v>
+        <v>10320</v>
       </c>
       <c r="D6" s="1">
-        <v>12000</v>
+        <v>10320</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>480</v>
+        <v>413</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -1433,13 +1433,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>36000</v>
+        <v>30960</v>
       </c>
       <c r="C7" s="1">
-        <v>36000</v>
+        <v>30960</v>
       </c>
       <c r="D7" s="1">
-        <v>36000</v>
+        <v>30960</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>900</v>
+        <v>774</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -1465,13 +1465,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>72000</v>
+        <v>61920</v>
       </c>
       <c r="C8" s="1">
-        <v>72000</v>
+        <v>61920</v>
       </c>
       <c r="D8" s="1">
-        <v>72000</v>
+        <v>61920</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -1486,7 +1486,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="1">
-        <v>1800</v>
+        <v>1548</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>108000</v>
+        <v>92880</v>
       </c>
       <c r="C9" s="1">
-        <v>108000</v>
+        <v>92880</v>
       </c>
       <c r="D9" s="1">
-        <v>108000</v>
+        <v>92880</v>
       </c>
       <c r="E9" s="1">
         <v>10</v>
@@ -1518,7 +1518,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="1">
-        <v>2700</v>
+        <v>2322</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>144000</v>
+        <v>123840</v>
       </c>
       <c r="C10" s="1">
-        <v>144000</v>
+        <v>123840</v>
       </c>
       <c r="D10" s="1">
-        <v>144000</v>
+        <v>123840</v>
       </c>
       <c r="E10" s="1">
         <v>40</v>
@@ -1550,7 +1550,7 @@
         <v>40</v>
       </c>
       <c r="I10" s="1">
-        <v>3600</v>
+        <v>3096</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -1561,13 +1561,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>180000</v>
+        <v>154800</v>
       </c>
       <c r="C11" s="1">
-        <v>180000</v>
+        <v>154800</v>
       </c>
       <c r="D11" s="1">
-        <v>180000</v>
+        <v>154800</v>
       </c>
       <c r="E11" s="1">
         <v>120</v>
@@ -1582,7 +1582,7 @@
         <v>120</v>
       </c>
       <c r="I11" s="1">
-        <v>5400</v>
+        <v>4644</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -1593,13 +1593,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>216000</v>
+        <v>185760</v>
       </c>
       <c r="C12" s="1">
-        <v>216000</v>
+        <v>185760</v>
       </c>
       <c r="D12" s="1">
-        <v>216000</v>
+        <v>185760</v>
       </c>
       <c r="E12" s="1">
         <v>360</v>
@@ -1614,7 +1614,7 @@
         <v>360</v>
       </c>
       <c r="I12" s="1">
-        <v>7200</v>
+        <v>6192</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -1625,13 +1625,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>252000</v>
+        <v>216720</v>
       </c>
       <c r="C13" s="1">
-        <v>252000</v>
+        <v>216720</v>
       </c>
       <c r="D13" s="1">
-        <v>252000</v>
+        <v>216720</v>
       </c>
       <c r="E13" s="1">
         <v>600</v>
@@ -1646,7 +1646,7 @@
         <v>600</v>
       </c>
       <c r="I13" s="1">
-        <v>14400</v>
+        <v>12384</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>288000</v>
+        <v>247680</v>
       </c>
       <c r="C14" s="1">
-        <v>288000</v>
+        <v>247680</v>
       </c>
       <c r="D14" s="1">
-        <v>288000</v>
+        <v>247680</v>
       </c>
       <c r="E14" s="1">
         <v>1200</v>
@@ -1678,7 +1678,7 @@
         <v>1200</v>
       </c>
       <c r="I14" s="1">
-        <v>21600</v>
+        <v>18576</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -1689,13 +1689,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>324000</v>
+        <v>278640</v>
       </c>
       <c r="C15" s="1">
-        <v>324000</v>
+        <v>278640</v>
       </c>
       <c r="D15" s="1">
-        <v>324000</v>
+        <v>278640</v>
       </c>
       <c r="E15" s="1">
         <v>1800</v>
@@ -1710,7 +1710,7 @@
         <v>1800</v>
       </c>
       <c r="I15" s="1">
-        <v>28800</v>
+        <v>24768</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -1721,13 +1721,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>360000</v>
+        <v>309600</v>
       </c>
       <c r="C16" s="1">
-        <v>360000</v>
+        <v>309600</v>
       </c>
       <c r="D16" s="1">
-        <v>360000</v>
+        <v>309600</v>
       </c>
       <c r="E16" s="1">
         <v>2400</v>
@@ -1742,7 +1742,7 @@
         <v>2400</v>
       </c>
       <c r="I16" s="1">
-        <v>43200</v>
+        <v>37152</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -1753,13 +1753,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>480000</v>
+        <v>412800</v>
       </c>
       <c r="C17" s="1">
-        <v>480000</v>
+        <v>412800</v>
       </c>
       <c r="D17" s="1">
-        <v>480000</v>
+        <v>412800</v>
       </c>
       <c r="E17" s="1">
         <v>3000</v>
@@ -1774,7 +1774,7 @@
         <v>3000</v>
       </c>
       <c r="I17" s="1">
-        <v>57600</v>
+        <v>49536</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -1785,13 +1785,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>600000</v>
+        <v>516000</v>
       </c>
       <c r="C18" s="1">
-        <v>600000</v>
+        <v>516000</v>
       </c>
       <c r="D18" s="1">
-        <v>600000</v>
+        <v>516000</v>
       </c>
       <c r="E18" s="1">
         <v>3600</v>
@@ -1806,7 +1806,7 @@
         <v>3600</v>
       </c>
       <c r="I18" s="1">
-        <v>72000</v>
+        <v>61920</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -1817,13 +1817,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>720000</v>
+        <v>619200</v>
       </c>
       <c r="C19" s="1">
-        <v>720000</v>
+        <v>619200</v>
       </c>
       <c r="D19" s="1">
-        <v>720000</v>
+        <v>619200</v>
       </c>
       <c r="E19" s="1">
         <v>4200</v>
@@ -1838,7 +1838,7 @@
         <v>4200</v>
       </c>
       <c r="I19" s="1">
-        <v>86400</v>
+        <v>74304</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -1849,13 +1849,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>840000</v>
+        <v>722400</v>
       </c>
       <c r="C20" s="1">
-        <v>840000</v>
+        <v>722400</v>
       </c>
       <c r="D20" s="1">
-        <v>840000</v>
+        <v>722400</v>
       </c>
       <c r="E20" s="1">
         <v>4800</v>
@@ -1870,7 +1870,7 @@
         <v>4800</v>
       </c>
       <c r="I20" s="1">
-        <v>115200</v>
+        <v>99072</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -1881,13 +1881,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>960000</v>
+        <v>825600</v>
       </c>
       <c r="C21" s="1">
-        <v>960000</v>
+        <v>825600</v>
       </c>
       <c r="D21" s="1">
-        <v>960000</v>
+        <v>825600</v>
       </c>
       <c r="E21" s="1">
         <v>5400</v>
@@ -1902,7 +1902,7 @@
         <v>5400</v>
       </c>
       <c r="I21" s="1">
-        <v>144000</v>
+        <v>123840</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -1913,13 +1913,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>1800000</v>
+        <v>1548000</v>
       </c>
       <c r="C22" s="1">
-        <v>1800000</v>
+        <v>1548000</v>
       </c>
       <c r="D22" s="1">
-        <v>1800000</v>
+        <v>1548000</v>
       </c>
       <c r="E22" s="1">
         <v>6000</v>
@@ -1934,7 +1934,7 @@
         <v>6000</v>
       </c>
       <c r="I22" s="1">
-        <v>172800</v>
+        <v>148608</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -1945,13 +1945,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>3600000</v>
+        <v>3096000</v>
       </c>
       <c r="C23" s="1">
-        <v>3600000</v>
+        <v>3096000</v>
       </c>
       <c r="D23" s="1">
-        <v>3600000</v>
+        <v>3096000</v>
       </c>
       <c r="E23" s="1">
         <v>6600</v>
@@ -1966,7 +1966,7 @@
         <v>6600</v>
       </c>
       <c r="I23" s="1">
-        <v>201600</v>
+        <v>173376</v>
       </c>
       <c r="J23" s="1">
         <v>0</v>
@@ -1977,13 +1977,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>6400000</v>
+        <v>5504000</v>
       </c>
       <c r="C24" s="1">
-        <v>6400000</v>
+        <v>5504000</v>
       </c>
       <c r="D24" s="1">
-        <v>6400000</v>
+        <v>5504000</v>
       </c>
       <c r="E24" s="1">
         <v>7200</v>
@@ -1998,7 +1998,7 @@
         <v>7200</v>
       </c>
       <c r="I24" s="1">
-        <v>230400</v>
+        <v>198144</v>
       </c>
       <c r="J24" s="1">
         <v>0</v>
@@ -7135,7 +7135,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7212,13 +7212,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="C3" s="1">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="D3" s="1">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -7233,7 +7233,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -7244,13 +7244,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2000</v>
+        <v>680</v>
       </c>
       <c r="C4" s="1">
-        <v>2000</v>
+        <v>680</v>
       </c>
       <c r="D4" s="1">
-        <v>2000</v>
+        <v>680</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -7265,7 +7265,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>180</v>
+        <v>61</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -7276,13 +7276,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>6000</v>
+        <v>2040.0000000000002</v>
       </c>
       <c r="C5" s="1">
-        <v>6000</v>
+        <v>2040.0000000000002</v>
       </c>
       <c r="D5" s="1">
-        <v>6000</v>
+        <v>2040.0000000000002</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -7297,7 +7297,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>300</v>
+        <v>102</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -7308,13 +7308,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>12000</v>
+        <v>4080.0000000000005</v>
       </c>
       <c r="C6" s="1">
-        <v>12000</v>
+        <v>4080.0000000000005</v>
       </c>
       <c r="D6" s="1">
-        <v>12000</v>
+        <v>4080.0000000000005</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -7329,7 +7329,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>480</v>
+        <v>163</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -7340,13 +7340,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>36000</v>
+        <v>12240</v>
       </c>
       <c r="C7" s="1">
-        <v>36000</v>
+        <v>12240</v>
       </c>
       <c r="D7" s="1">
-        <v>36000</v>
+        <v>12240</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -7361,7 +7361,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>900</v>
+        <v>306</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -7372,13 +7372,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>72000</v>
+        <v>24480</v>
       </c>
       <c r="C8" s="1">
-        <v>72000</v>
+        <v>24480</v>
       </c>
       <c r="D8" s="1">
-        <v>72000</v>
+        <v>24480</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -7393,7 +7393,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="1">
-        <v>1800</v>
+        <v>612</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -7404,13 +7404,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>108000</v>
+        <v>36720</v>
       </c>
       <c r="C9" s="1">
-        <v>108000</v>
+        <v>36720</v>
       </c>
       <c r="D9" s="1">
-        <v>108000</v>
+        <v>36720</v>
       </c>
       <c r="E9" s="1">
         <v>10</v>
@@ -7425,7 +7425,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="1">
-        <v>2700</v>
+        <v>918</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -7436,13 +7436,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>144000</v>
+        <v>48960</v>
       </c>
       <c r="C10" s="1">
-        <v>144000</v>
+        <v>48960</v>
       </c>
       <c r="D10" s="1">
-        <v>144000</v>
+        <v>48960</v>
       </c>
       <c r="E10" s="1">
         <v>40</v>
@@ -7457,7 +7457,7 @@
         <v>40</v>
       </c>
       <c r="I10" s="1">
-        <v>3600</v>
+        <v>1224</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -7468,13 +7468,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>180000</v>
+        <v>61200.000000000007</v>
       </c>
       <c r="C11" s="1">
-        <v>180000</v>
+        <v>61200.000000000007</v>
       </c>
       <c r="D11" s="1">
-        <v>180000</v>
+        <v>61200.000000000007</v>
       </c>
       <c r="E11" s="1">
         <v>120</v>
@@ -7489,7 +7489,7 @@
         <v>120</v>
       </c>
       <c r="I11" s="1">
-        <v>5400</v>
+        <v>1836</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -7500,13 +7500,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>216000</v>
+        <v>73440</v>
       </c>
       <c r="C12" s="1">
-        <v>216000</v>
+        <v>73440</v>
       </c>
       <c r="D12" s="1">
-        <v>216000</v>
+        <v>73440</v>
       </c>
       <c r="E12" s="1">
         <v>360</v>
@@ -7521,7 +7521,7 @@
         <v>360</v>
       </c>
       <c r="I12" s="1">
-        <v>7200</v>
+        <v>2448</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -7532,13 +7532,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>252000</v>
+        <v>85680</v>
       </c>
       <c r="C13" s="1">
-        <v>252000</v>
+        <v>85680</v>
       </c>
       <c r="D13" s="1">
-        <v>252000</v>
+        <v>85680</v>
       </c>
       <c r="E13" s="1">
         <v>600</v>
@@ -7553,7 +7553,7 @@
         <v>600</v>
       </c>
       <c r="I13" s="1">
-        <v>14400</v>
+        <v>4896</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -7564,13 +7564,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>288000</v>
+        <v>97920</v>
       </c>
       <c r="C14" s="1">
-        <v>288000</v>
+        <v>97920</v>
       </c>
       <c r="D14" s="1">
-        <v>288000</v>
+        <v>97920</v>
       </c>
       <c r="E14" s="1">
         <v>1200</v>
@@ -7585,7 +7585,7 @@
         <v>1200</v>
       </c>
       <c r="I14" s="1">
-        <v>21600</v>
+        <v>7344</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -7596,13 +7596,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>324000</v>
+        <v>110160.00000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>324000</v>
+        <v>110160.00000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>324000</v>
+        <v>110160.00000000001</v>
       </c>
       <c r="E15" s="1">
         <v>1800</v>
@@ -7617,7 +7617,7 @@
         <v>1800</v>
       </c>
       <c r="I15" s="1">
-        <v>28800</v>
+        <v>9792</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -7628,13 +7628,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>360000</v>
+        <v>122400.00000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>360000</v>
+        <v>122400.00000000001</v>
       </c>
       <c r="D16" s="1">
-        <v>360000</v>
+        <v>122400.00000000001</v>
       </c>
       <c r="E16" s="1">
         <v>2400</v>
@@ -7649,7 +7649,7 @@
         <v>2400</v>
       </c>
       <c r="I16" s="1">
-        <v>43200</v>
+        <v>14688</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -7660,13 +7660,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>480000</v>
+        <v>163200</v>
       </c>
       <c r="C17" s="1">
-        <v>480000</v>
+        <v>163200</v>
       </c>
       <c r="D17" s="1">
-        <v>480000</v>
+        <v>163200</v>
       </c>
       <c r="E17" s="1">
         <v>3000</v>
@@ -7681,7 +7681,7 @@
         <v>3000</v>
       </c>
       <c r="I17" s="1">
-        <v>57600</v>
+        <v>19584</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -7692,13 +7692,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>600000</v>
+        <v>204000.00000000003</v>
       </c>
       <c r="C18" s="1">
-        <v>600000</v>
+        <v>204000.00000000003</v>
       </c>
       <c r="D18" s="1">
-        <v>600000</v>
+        <v>204000.00000000003</v>
       </c>
       <c r="E18" s="1">
         <v>3600</v>
@@ -7713,7 +7713,7 @@
         <v>3600</v>
       </c>
       <c r="I18" s="1">
-        <v>72000</v>
+        <v>24480</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -7724,13 +7724,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>720000</v>
+        <v>244800.00000000003</v>
       </c>
       <c r="C19" s="1">
-        <v>720000</v>
+        <v>244800.00000000003</v>
       </c>
       <c r="D19" s="1">
-        <v>720000</v>
+        <v>244800.00000000003</v>
       </c>
       <c r="E19" s="1">
         <v>4200</v>
@@ -7745,7 +7745,7 @@
         <v>4200</v>
       </c>
       <c r="I19" s="1">
-        <v>86400</v>
+        <v>29376</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -7756,13 +7756,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>840000</v>
+        <v>285600</v>
       </c>
       <c r="C20" s="1">
-        <v>840000</v>
+        <v>285600</v>
       </c>
       <c r="D20" s="1">
-        <v>840000</v>
+        <v>285600</v>
       </c>
       <c r="E20" s="1">
         <v>4800</v>
@@ -7777,7 +7777,7 @@
         <v>4800</v>
       </c>
       <c r="I20" s="1">
-        <v>115200</v>
+        <v>39168</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -7788,13 +7788,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>960000</v>
+        <v>326400</v>
       </c>
       <c r="C21" s="1">
-        <v>960000</v>
+        <v>326400</v>
       </c>
       <c r="D21" s="1">
-        <v>960000</v>
+        <v>326400</v>
       </c>
       <c r="E21" s="1">
         <v>5400</v>
@@ -7809,7 +7809,7 @@
         <v>5400</v>
       </c>
       <c r="I21" s="1">
-        <v>144000</v>
+        <v>48960</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -7820,13 +7820,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>1800000</v>
+        <v>612000</v>
       </c>
       <c r="C22" s="1">
-        <v>1800000</v>
+        <v>612000</v>
       </c>
       <c r="D22" s="1">
-        <v>1800000</v>
+        <v>612000</v>
       </c>
       <c r="E22" s="1">
         <v>6000</v>
@@ -7841,7 +7841,7 @@
         <v>6000</v>
       </c>
       <c r="I22" s="1">
-        <v>172800</v>
+        <v>58752</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -9499,8 +9499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -9906,10 +9906,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -9942,8 +9942,8 @@
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>10</v>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>9</v>
@@ -10007,7 +10007,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -10618,6 +10618,70 @@
         <v>172800</v>
       </c>
       <c r="J22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="20" customHeight="1">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3600000</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3600000</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3600000</v>
+      </c>
+      <c r="E23" s="1">
+        <v>6600</v>
+      </c>
+      <c r="F23" s="1">
+        <v>6600</v>
+      </c>
+      <c r="G23" s="1">
+        <v>6600</v>
+      </c>
+      <c r="H23" s="1">
+        <v>6600</v>
+      </c>
+      <c r="I23" s="1">
+        <v>201600</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="20" customHeight="1">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>6400000</v>
+      </c>
+      <c r="C24" s="1">
+        <v>6400000</v>
+      </c>
+      <c r="D24" s="1">
+        <v>6400000</v>
+      </c>
+      <c r="E24" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F24" s="1">
+        <v>7200</v>
+      </c>
+      <c r="G24" s="1">
+        <v>7200</v>
+      </c>
+      <c r="H24" s="1">
+        <v>7200</v>
+      </c>
+      <c r="I24" s="1">
+        <v>230400</v>
+      </c>
+      <c r="J24" s="1">
         <v>0</v>
       </c>
     </row>
@@ -10635,10 +10699,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -10715,13 +10779,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>860</v>
+        <v>1000</v>
       </c>
       <c r="C3" s="1">
-        <v>860</v>
+        <v>1000</v>
       </c>
       <c r="D3" s="1">
-        <v>860</v>
+        <v>1000</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -10736,7 +10800,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -10747,13 +10811,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>1720</v>
+        <v>2000</v>
       </c>
       <c r="C4" s="1">
-        <v>1720</v>
+        <v>2000</v>
       </c>
       <c r="D4" s="1">
-        <v>1720</v>
+        <v>2000</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -10768,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -10779,13 +10843,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>5160</v>
+        <v>6000</v>
       </c>
       <c r="C5" s="1">
-        <v>5160</v>
+        <v>6000</v>
       </c>
       <c r="D5" s="1">
-        <v>5160</v>
+        <v>6000</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -10800,7 +10864,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>258</v>
+        <v>300</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -10811,13 +10875,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>10320</v>
+        <v>12000</v>
       </c>
       <c r="C6" s="1">
-        <v>10320</v>
+        <v>12000</v>
       </c>
       <c r="D6" s="1">
-        <v>10320</v>
+        <v>12000</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -10832,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>413</v>
+        <v>480</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -10843,13 +10907,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>30960</v>
+        <v>36000</v>
       </c>
       <c r="C7" s="1">
-        <v>30960</v>
+        <v>36000</v>
       </c>
       <c r="D7" s="1">
-        <v>30960</v>
+        <v>36000</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -10864,7 +10928,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>774</v>
+        <v>900</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -10875,13 +10939,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>61920</v>
+        <v>72000</v>
       </c>
       <c r="C8" s="1">
-        <v>61920</v>
+        <v>72000</v>
       </c>
       <c r="D8" s="1">
-        <v>61920</v>
+        <v>72000</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -10896,7 +10960,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="1">
-        <v>1548</v>
+        <v>1800</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -10907,13 +10971,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>92880</v>
+        <v>108000</v>
       </c>
       <c r="C9" s="1">
-        <v>92880</v>
+        <v>108000</v>
       </c>
       <c r="D9" s="1">
-        <v>92880</v>
+        <v>108000</v>
       </c>
       <c r="E9" s="1">
         <v>10</v>
@@ -10928,7 +10992,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="1">
-        <v>2322</v>
+        <v>2700</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -10939,13 +11003,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>123840</v>
+        <v>144000</v>
       </c>
       <c r="C10" s="1">
-        <v>123840</v>
+        <v>144000</v>
       </c>
       <c r="D10" s="1">
-        <v>123840</v>
+        <v>144000</v>
       </c>
       <c r="E10" s="1">
         <v>40</v>
@@ -10960,7 +11024,7 @@
         <v>40</v>
       </c>
       <c r="I10" s="1">
-        <v>3096</v>
+        <v>3600</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -10971,13 +11035,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>154800</v>
+        <v>180000</v>
       </c>
       <c r="C11" s="1">
-        <v>154800</v>
+        <v>180000</v>
       </c>
       <c r="D11" s="1">
-        <v>154800</v>
+        <v>180000</v>
       </c>
       <c r="E11" s="1">
         <v>120</v>
@@ -10992,7 +11056,7 @@
         <v>120</v>
       </c>
       <c r="I11" s="1">
-        <v>4644</v>
+        <v>5400</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -11003,13 +11067,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>185760</v>
+        <v>216000</v>
       </c>
       <c r="C12" s="1">
-        <v>185760</v>
+        <v>216000</v>
       </c>
       <c r="D12" s="1">
-        <v>185760</v>
+        <v>216000</v>
       </c>
       <c r="E12" s="1">
         <v>360</v>
@@ -11024,7 +11088,7 @@
         <v>360</v>
       </c>
       <c r="I12" s="1">
-        <v>6192</v>
+        <v>7200</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -11035,13 +11099,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>216720</v>
+        <v>252000</v>
       </c>
       <c r="C13" s="1">
-        <v>216720</v>
+        <v>252000</v>
       </c>
       <c r="D13" s="1">
-        <v>216720</v>
+        <v>252000</v>
       </c>
       <c r="E13" s="1">
         <v>600</v>
@@ -11056,7 +11120,7 @@
         <v>600</v>
       </c>
       <c r="I13" s="1">
-        <v>12384</v>
+        <v>14400</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -11067,13 +11131,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>247680</v>
+        <v>288000</v>
       </c>
       <c r="C14" s="1">
-        <v>247680</v>
+        <v>288000</v>
       </c>
       <c r="D14" s="1">
-        <v>247680</v>
+        <v>288000</v>
       </c>
       <c r="E14" s="1">
         <v>1200</v>
@@ -11088,7 +11152,7 @@
         <v>1200</v>
       </c>
       <c r="I14" s="1">
-        <v>18576</v>
+        <v>21600</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -11099,13 +11163,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>278640</v>
+        <v>324000</v>
       </c>
       <c r="C15" s="1">
-        <v>278640</v>
+        <v>324000</v>
       </c>
       <c r="D15" s="1">
-        <v>278640</v>
+        <v>324000</v>
       </c>
       <c r="E15" s="1">
         <v>1800</v>
@@ -11120,7 +11184,7 @@
         <v>1800</v>
       </c>
       <c r="I15" s="1">
-        <v>24768</v>
+        <v>28800</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -11131,13 +11195,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>309600</v>
+        <v>360000</v>
       </c>
       <c r="C16" s="1">
-        <v>309600</v>
+        <v>360000</v>
       </c>
       <c r="D16" s="1">
-        <v>309600</v>
+        <v>360000</v>
       </c>
       <c r="E16" s="1">
         <v>2400</v>
@@ -11152,7 +11216,7 @@
         <v>2400</v>
       </c>
       <c r="I16" s="1">
-        <v>37152</v>
+        <v>43200</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -11163,13 +11227,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>412800</v>
+        <v>480000</v>
       </c>
       <c r="C17" s="1">
-        <v>412800</v>
+        <v>480000</v>
       </c>
       <c r="D17" s="1">
-        <v>412800</v>
+        <v>480000</v>
       </c>
       <c r="E17" s="1">
         <v>3000</v>
@@ -11184,7 +11248,7 @@
         <v>3000</v>
       </c>
       <c r="I17" s="1">
-        <v>49536</v>
+        <v>57600</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -11195,13 +11259,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>516000</v>
+        <v>600000</v>
       </c>
       <c r="C18" s="1">
-        <v>516000</v>
+        <v>600000</v>
       </c>
       <c r="D18" s="1">
-        <v>516000</v>
+        <v>600000</v>
       </c>
       <c r="E18" s="1">
         <v>3600</v>
@@ -11216,7 +11280,7 @@
         <v>3600</v>
       </c>
       <c r="I18" s="1">
-        <v>61920</v>
+        <v>72000</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -11227,13 +11291,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>619200</v>
+        <v>720000</v>
       </c>
       <c r="C19" s="1">
-        <v>619200</v>
+        <v>720000</v>
       </c>
       <c r="D19" s="1">
-        <v>619200</v>
+        <v>720000</v>
       </c>
       <c r="E19" s="1">
         <v>4200</v>
@@ -11248,7 +11312,7 @@
         <v>4200</v>
       </c>
       <c r="I19" s="1">
-        <v>74304</v>
+        <v>86400</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -11259,13 +11323,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>722400</v>
+        <v>840000</v>
       </c>
       <c r="C20" s="1">
-        <v>722400</v>
+        <v>840000</v>
       </c>
       <c r="D20" s="1">
-        <v>722400</v>
+        <v>840000</v>
       </c>
       <c r="E20" s="1">
         <v>4800</v>
@@ -11280,7 +11344,7 @@
         <v>4800</v>
       </c>
       <c r="I20" s="1">
-        <v>99072</v>
+        <v>115200</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -11291,13 +11355,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>825600</v>
+        <v>960000</v>
       </c>
       <c r="C21" s="1">
-        <v>825600</v>
+        <v>960000</v>
       </c>
       <c r="D21" s="1">
-        <v>825600</v>
+        <v>960000</v>
       </c>
       <c r="E21" s="1">
         <v>5400</v>
@@ -11312,7 +11376,7 @@
         <v>5400</v>
       </c>
       <c r="I21" s="1">
-        <v>123840</v>
+        <v>144000</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -11323,13 +11387,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>1548000</v>
+        <v>1800000</v>
       </c>
       <c r="C22" s="1">
-        <v>1548000</v>
+        <v>1800000</v>
       </c>
       <c r="D22" s="1">
-        <v>1548000</v>
+        <v>1800000</v>
       </c>
       <c r="E22" s="1">
         <v>6000</v>
@@ -11344,73 +11408,9 @@
         <v>6000</v>
       </c>
       <c r="I22" s="1">
-        <v>148608</v>
+        <v>172800</v>
       </c>
       <c r="J22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="20" customHeight="1">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1">
-        <v>3096000</v>
-      </c>
-      <c r="C23" s="1">
-        <v>3096000</v>
-      </c>
-      <c r="D23" s="1">
-        <v>3096000</v>
-      </c>
-      <c r="E23" s="1">
-        <v>6600</v>
-      </c>
-      <c r="F23" s="1">
-        <v>6600</v>
-      </c>
-      <c r="G23" s="1">
-        <v>6600</v>
-      </c>
-      <c r="H23" s="1">
-        <v>6600</v>
-      </c>
-      <c r="I23" s="1">
-        <v>173376</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="20" customHeight="1">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" s="1">
-        <v>5504000</v>
-      </c>
-      <c r="C24" s="1">
-        <v>5504000</v>
-      </c>
-      <c r="D24" s="1">
-        <v>5504000</v>
-      </c>
-      <c r="E24" s="1">
-        <v>7200</v>
-      </c>
-      <c r="F24" s="1">
-        <v>7200</v>
-      </c>
-      <c r="G24" s="1">
-        <v>7200</v>
-      </c>
-      <c r="H24" s="1">
-        <v>7200</v>
-      </c>
-      <c r="I24" s="1">
-        <v>198144</v>
-      </c>
-      <c r="J24" s="1">
         <v>0</v>
       </c>
     </row>
@@ -11431,7 +11431,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -11508,13 +11508,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="C3" s="1">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="D3" s="1">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -11529,7 +11529,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -11540,13 +11540,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="C4" s="1">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="D4" s="1">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -11561,7 +11561,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -11572,13 +11572,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>3600</v>
+        <v>6000</v>
       </c>
       <c r="C5" s="1">
-        <v>3600</v>
+        <v>6000</v>
       </c>
       <c r="D5" s="1">
-        <v>3600</v>
+        <v>6000</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -11593,7 +11593,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -11604,13 +11604,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>7200</v>
+        <v>12000</v>
       </c>
       <c r="C6" s="1">
-        <v>7200</v>
+        <v>12000</v>
       </c>
       <c r="D6" s="1">
-        <v>7200</v>
+        <v>12000</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -11625,7 +11625,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>288</v>
+        <v>480</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -11636,13 +11636,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>21600</v>
+        <v>36000</v>
       </c>
       <c r="C7" s="1">
-        <v>21600</v>
+        <v>36000</v>
       </c>
       <c r="D7" s="1">
-        <v>21600</v>
+        <v>36000</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -11657,7 +11657,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>540</v>
+        <v>900</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -11668,13 +11668,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="C8" s="1">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="D8" s="1">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -11689,7 +11689,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="1">
-        <v>1080</v>
+        <v>1800</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -11700,13 +11700,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>64800</v>
+        <v>108000</v>
       </c>
       <c r="C9" s="1">
-        <v>64800</v>
+        <v>108000</v>
       </c>
       <c r="D9" s="1">
-        <v>64800</v>
+        <v>108000</v>
       </c>
       <c r="E9" s="1">
         <v>10</v>
@@ -11721,7 +11721,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="1">
-        <v>1620</v>
+        <v>2700</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -11732,13 +11732,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>86400</v>
+        <v>144000</v>
       </c>
       <c r="C10" s="1">
-        <v>86400</v>
+        <v>144000</v>
       </c>
       <c r="D10" s="1">
-        <v>86400</v>
+        <v>144000</v>
       </c>
       <c r="E10" s="1">
         <v>40</v>
@@ -11753,7 +11753,7 @@
         <v>40</v>
       </c>
       <c r="I10" s="1">
-        <v>2160</v>
+        <v>3600</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -11764,13 +11764,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>108000</v>
+        <v>180000</v>
       </c>
       <c r="C11" s="1">
-        <v>108000</v>
+        <v>180000</v>
       </c>
       <c r="D11" s="1">
-        <v>108000</v>
+        <v>180000</v>
       </c>
       <c r="E11" s="1">
         <v>120</v>
@@ -11785,7 +11785,7 @@
         <v>120</v>
       </c>
       <c r="I11" s="1">
-        <v>3240</v>
+        <v>5400</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -11796,13 +11796,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>129600</v>
+        <v>216000</v>
       </c>
       <c r="C12" s="1">
-        <v>129600</v>
+        <v>216000</v>
       </c>
       <c r="D12" s="1">
-        <v>129600</v>
+        <v>216000</v>
       </c>
       <c r="E12" s="1">
         <v>360</v>
@@ -11817,7 +11817,7 @@
         <v>360</v>
       </c>
       <c r="I12" s="1">
-        <v>4320</v>
+        <v>7200</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -11828,13 +11828,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>151200</v>
+        <v>252000</v>
       </c>
       <c r="C13" s="1">
-        <v>151200</v>
+        <v>252000</v>
       </c>
       <c r="D13" s="1">
-        <v>151200</v>
+        <v>252000</v>
       </c>
       <c r="E13" s="1">
         <v>600</v>
@@ -11849,7 +11849,7 @@
         <v>600</v>
       </c>
       <c r="I13" s="1">
-        <v>8640</v>
+        <v>14400</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -11860,13 +11860,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>172800</v>
+        <v>288000</v>
       </c>
       <c r="C14" s="1">
-        <v>172800</v>
+        <v>288000</v>
       </c>
       <c r="D14" s="1">
-        <v>172800</v>
+        <v>288000</v>
       </c>
       <c r="E14" s="1">
         <v>1200</v>
@@ -11881,7 +11881,7 @@
         <v>1200</v>
       </c>
       <c r="I14" s="1">
-        <v>12960</v>
+        <v>21600</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -11892,13 +11892,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>194400</v>
+        <v>324000</v>
       </c>
       <c r="C15" s="1">
-        <v>194400</v>
+        <v>324000</v>
       </c>
       <c r="D15" s="1">
-        <v>194400</v>
+        <v>324000</v>
       </c>
       <c r="E15" s="1">
         <v>1800</v>
@@ -11913,7 +11913,7 @@
         <v>1800</v>
       </c>
       <c r="I15" s="1">
-        <v>17280</v>
+        <v>28800</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -11924,13 +11924,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>216000</v>
+        <v>360000</v>
       </c>
       <c r="C16" s="1">
-        <v>216000</v>
+        <v>360000</v>
       </c>
       <c r="D16" s="1">
-        <v>216000</v>
+        <v>360000</v>
       </c>
       <c r="E16" s="1">
         <v>2400</v>
@@ -11945,7 +11945,7 @@
         <v>2400</v>
       </c>
       <c r="I16" s="1">
-        <v>25920</v>
+        <v>43200</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -11956,13 +11956,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>288000</v>
+        <v>480000</v>
       </c>
       <c r="C17" s="1">
-        <v>288000</v>
+        <v>480000</v>
       </c>
       <c r="D17" s="1">
-        <v>288000</v>
+        <v>480000</v>
       </c>
       <c r="E17" s="1">
         <v>3000</v>
@@ -11977,7 +11977,7 @@
         <v>3000</v>
       </c>
       <c r="I17" s="1">
-        <v>34560</v>
+        <v>57600</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -11988,13 +11988,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>360000</v>
+        <v>600000</v>
       </c>
       <c r="C18" s="1">
-        <v>360000</v>
+        <v>600000</v>
       </c>
       <c r="D18" s="1">
-        <v>360000</v>
+        <v>600000</v>
       </c>
       <c r="E18" s="1">
         <v>3600</v>
@@ -12009,7 +12009,7 @@
         <v>3600</v>
       </c>
       <c r="I18" s="1">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -12020,13 +12020,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>432000</v>
+        <v>720000</v>
       </c>
       <c r="C19" s="1">
-        <v>432000</v>
+        <v>720000</v>
       </c>
       <c r="D19" s="1">
-        <v>432000</v>
+        <v>720000</v>
       </c>
       <c r="E19" s="1">
         <v>4200</v>
@@ -12041,7 +12041,7 @@
         <v>4200</v>
       </c>
       <c r="I19" s="1">
-        <v>51840</v>
+        <v>86400</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -12052,13 +12052,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>504000</v>
+        <v>840000</v>
       </c>
       <c r="C20" s="1">
-        <v>504000</v>
+        <v>840000</v>
       </c>
       <c r="D20" s="1">
-        <v>504000</v>
+        <v>840000</v>
       </c>
       <c r="E20" s="1">
         <v>4800</v>
@@ -12073,7 +12073,7 @@
         <v>4800</v>
       </c>
       <c r="I20" s="1">
-        <v>69120</v>
+        <v>115200</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -12084,13 +12084,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>576000</v>
+        <v>960000</v>
       </c>
       <c r="C21" s="1">
-        <v>576000</v>
+        <v>960000</v>
       </c>
       <c r="D21" s="1">
-        <v>576000</v>
+        <v>960000</v>
       </c>
       <c r="E21" s="1">
         <v>5400</v>
@@ -12105,7 +12105,7 @@
         <v>5400</v>
       </c>
       <c r="I21" s="1">
-        <v>86400</v>
+        <v>144000</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -12116,13 +12116,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>1080000</v>
+        <v>1800000</v>
       </c>
       <c r="C22" s="1">
-        <v>1080000</v>
+        <v>1800000</v>
       </c>
       <c r="D22" s="1">
-        <v>1080000</v>
+        <v>1800000</v>
       </c>
       <c r="E22" s="1">
         <v>6000</v>
@@ -12137,7 +12137,7 @@
         <v>6000</v>
       </c>
       <c r="I22" s="1">
-        <v>103680</v>
+        <v>172800</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -12160,7 +12160,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -12237,13 +12237,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>340</v>
+        <v>600</v>
       </c>
       <c r="C3" s="1">
-        <v>340</v>
+        <v>600</v>
       </c>
       <c r="D3" s="1">
-        <v>340</v>
+        <v>600</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -12258,7 +12258,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -12269,13 +12269,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>680</v>
+        <v>1200</v>
       </c>
       <c r="C4" s="1">
-        <v>680</v>
+        <v>1200</v>
       </c>
       <c r="D4" s="1">
-        <v>680</v>
+        <v>1200</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -12290,7 +12290,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -12301,13 +12301,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>2040.0000000000002</v>
+        <v>3600</v>
       </c>
       <c r="C5" s="1">
-        <v>2040.0000000000002</v>
+        <v>3600</v>
       </c>
       <c r="D5" s="1">
-        <v>2040.0000000000002</v>
+        <v>3600</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -12322,7 +12322,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>102</v>
+        <v>180</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -12333,13 +12333,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>4080.0000000000005</v>
+        <v>7200</v>
       </c>
       <c r="C6" s="1">
-        <v>4080.0000000000005</v>
+        <v>7200</v>
       </c>
       <c r="D6" s="1">
-        <v>4080.0000000000005</v>
+        <v>7200</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -12354,7 +12354,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>163</v>
+        <v>288</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -12365,13 +12365,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>12240</v>
+        <v>21600</v>
       </c>
       <c r="C7" s="1">
-        <v>12240</v>
+        <v>21600</v>
       </c>
       <c r="D7" s="1">
-        <v>12240</v>
+        <v>21600</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -12386,7 +12386,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>306</v>
+        <v>540</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -12397,13 +12397,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>24480</v>
+        <v>43200</v>
       </c>
       <c r="C8" s="1">
-        <v>24480</v>
+        <v>43200</v>
       </c>
       <c r="D8" s="1">
-        <v>24480</v>
+        <v>43200</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -12418,7 +12418,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="1">
-        <v>612</v>
+        <v>1080</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -12429,13 +12429,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>36720</v>
+        <v>64800</v>
       </c>
       <c r="C9" s="1">
-        <v>36720</v>
+        <v>64800</v>
       </c>
       <c r="D9" s="1">
-        <v>36720</v>
+        <v>64800</v>
       </c>
       <c r="E9" s="1">
         <v>10</v>
@@ -12450,7 +12450,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="1">
-        <v>918</v>
+        <v>1620</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -12461,13 +12461,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>48960</v>
+        <v>86400</v>
       </c>
       <c r="C10" s="1">
-        <v>48960</v>
+        <v>86400</v>
       </c>
       <c r="D10" s="1">
-        <v>48960</v>
+        <v>86400</v>
       </c>
       <c r="E10" s="1">
         <v>40</v>
@@ -12482,7 +12482,7 @@
         <v>40</v>
       </c>
       <c r="I10" s="1">
-        <v>1224</v>
+        <v>2160</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -12493,13 +12493,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>61200.000000000007</v>
+        <v>108000</v>
       </c>
       <c r="C11" s="1">
-        <v>61200.000000000007</v>
+        <v>108000</v>
       </c>
       <c r="D11" s="1">
-        <v>61200.000000000007</v>
+        <v>108000</v>
       </c>
       <c r="E11" s="1">
         <v>120</v>
@@ -12514,7 +12514,7 @@
         <v>120</v>
       </c>
       <c r="I11" s="1">
-        <v>1836</v>
+        <v>3240</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -12525,13 +12525,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>73440</v>
+        <v>129600</v>
       </c>
       <c r="C12" s="1">
-        <v>73440</v>
+        <v>129600</v>
       </c>
       <c r="D12" s="1">
-        <v>73440</v>
+        <v>129600</v>
       </c>
       <c r="E12" s="1">
         <v>360</v>
@@ -12546,7 +12546,7 @@
         <v>360</v>
       </c>
       <c r="I12" s="1">
-        <v>2448</v>
+        <v>4320</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -12557,13 +12557,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>85680</v>
+        <v>151200</v>
       </c>
       <c r="C13" s="1">
-        <v>85680</v>
+        <v>151200</v>
       </c>
       <c r="D13" s="1">
-        <v>85680</v>
+        <v>151200</v>
       </c>
       <c r="E13" s="1">
         <v>600</v>
@@ -12578,7 +12578,7 @@
         <v>600</v>
       </c>
       <c r="I13" s="1">
-        <v>4896</v>
+        <v>8640</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -12589,13 +12589,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>97920</v>
+        <v>172800</v>
       </c>
       <c r="C14" s="1">
-        <v>97920</v>
+        <v>172800</v>
       </c>
       <c r="D14" s="1">
-        <v>97920</v>
+        <v>172800</v>
       </c>
       <c r="E14" s="1">
         <v>1200</v>
@@ -12610,7 +12610,7 @@
         <v>1200</v>
       </c>
       <c r="I14" s="1">
-        <v>7344</v>
+        <v>12960</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -12621,13 +12621,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>110160.00000000001</v>
+        <v>194400</v>
       </c>
       <c r="C15" s="1">
-        <v>110160.00000000001</v>
+        <v>194400</v>
       </c>
       <c r="D15" s="1">
-        <v>110160.00000000001</v>
+        <v>194400</v>
       </c>
       <c r="E15" s="1">
         <v>1800</v>
@@ -12642,7 +12642,7 @@
         <v>1800</v>
       </c>
       <c r="I15" s="1">
-        <v>9792</v>
+        <v>17280</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -12653,13 +12653,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>122400.00000000001</v>
+        <v>216000</v>
       </c>
       <c r="C16" s="1">
-        <v>122400.00000000001</v>
+        <v>216000</v>
       </c>
       <c r="D16" s="1">
-        <v>122400.00000000001</v>
+        <v>216000</v>
       </c>
       <c r="E16" s="1">
         <v>2400</v>
@@ -12674,7 +12674,7 @@
         <v>2400</v>
       </c>
       <c r="I16" s="1">
-        <v>14688</v>
+        <v>25920</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -12685,13 +12685,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>163200</v>
+        <v>288000</v>
       </c>
       <c r="C17" s="1">
-        <v>163200</v>
+        <v>288000</v>
       </c>
       <c r="D17" s="1">
-        <v>163200</v>
+        <v>288000</v>
       </c>
       <c r="E17" s="1">
         <v>3000</v>
@@ -12706,7 +12706,7 @@
         <v>3000</v>
       </c>
       <c r="I17" s="1">
-        <v>19584</v>
+        <v>34560</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -12717,13 +12717,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>204000.00000000003</v>
+        <v>360000</v>
       </c>
       <c r="C18" s="1">
-        <v>204000.00000000003</v>
+        <v>360000</v>
       </c>
       <c r="D18" s="1">
-        <v>204000.00000000003</v>
+        <v>360000</v>
       </c>
       <c r="E18" s="1">
         <v>3600</v>
@@ -12738,7 +12738,7 @@
         <v>3600</v>
       </c>
       <c r="I18" s="1">
-        <v>24480</v>
+        <v>43200</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -12749,13 +12749,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>244800.00000000003</v>
+        <v>432000</v>
       </c>
       <c r="C19" s="1">
-        <v>244800.00000000003</v>
+        <v>432000</v>
       </c>
       <c r="D19" s="1">
-        <v>244800.00000000003</v>
+        <v>432000</v>
       </c>
       <c r="E19" s="1">
         <v>4200</v>
@@ -12770,7 +12770,7 @@
         <v>4200</v>
       </c>
       <c r="I19" s="1">
-        <v>29376</v>
+        <v>51840</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -12781,13 +12781,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>285600</v>
+        <v>504000</v>
       </c>
       <c r="C20" s="1">
-        <v>285600</v>
+        <v>504000</v>
       </c>
       <c r="D20" s="1">
-        <v>285600</v>
+        <v>504000</v>
       </c>
       <c r="E20" s="1">
         <v>4800</v>
@@ -12802,7 +12802,7 @@
         <v>4800</v>
       </c>
       <c r="I20" s="1">
-        <v>39168</v>
+        <v>69120</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -12813,13 +12813,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>326400</v>
+        <v>576000</v>
       </c>
       <c r="C21" s="1">
-        <v>326400</v>
+        <v>576000</v>
       </c>
       <c r="D21" s="1">
-        <v>326400</v>
+        <v>576000</v>
       </c>
       <c r="E21" s="1">
         <v>5400</v>
@@ -12834,7 +12834,7 @@
         <v>5400</v>
       </c>
       <c r="I21" s="1">
-        <v>48960</v>
+        <v>86400</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -12845,13 +12845,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>612000</v>
+        <v>1080000</v>
       </c>
       <c r="C22" s="1">
-        <v>612000</v>
+        <v>1080000</v>
       </c>
       <c r="D22" s="1">
-        <v>612000</v>
+        <v>1080000</v>
       </c>
       <c r="E22" s="1">
         <v>6000</v>
@@ -12866,7 +12866,7 @@
         <v>6000</v>
       </c>
       <c r="I22" s="1">
-        <v>58752</v>
+        <v>103680</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -12888,7 +12888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>

--- a/gameData/shared/BuildingLevelUp.xlsx
+++ b/gameData/shared/BuildingLevelUp.xlsx
@@ -1,137 +1,127 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5060" yWindow="21600" windowWidth="26860" windowHeight="15980" tabRatio="883" firstSheet="8" activeTab="23"/>
+    <workbookView xWindow="380" yWindow="1300" windowWidth="37960" windowHeight="15820" tabRatio="883" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="wall" sheetId="18" r:id="rId1"/>
     <sheet name="tower" sheetId="20" r:id="rId2"/>
     <sheet name="keep" sheetId="17" r:id="rId3"/>
     <sheet name="watchTower" sheetId="45" r:id="rId4"/>
-    <sheet name="dragonEyrie" sheetId="46" r:id="rId5"/>
-    <sheet name="warehouse" sheetId="19" r:id="rId6"/>
-    <sheet name="barracks" sheetId="32" r:id="rId7"/>
-    <sheet name="armyCamp" sheetId="33" r:id="rId8"/>
-    <sheet name="blackSmith" sheetId="34" r:id="rId9"/>
-    <sheet name="materialDepot" sheetId="35" r:id="rId10"/>
-    <sheet name="toolShop" sheetId="36" r:id="rId11"/>
-    <sheet name="lumbermill" sheetId="27" r:id="rId12"/>
+    <sheet name="warehouse" sheetId="19" r:id="rId5"/>
+    <sheet name="dragonEyrie" sheetId="46" r:id="rId6"/>
+    <sheet name="toolShop" sheetId="36" r:id="rId7"/>
+    <sheet name="materialDepot" sheetId="35" r:id="rId8"/>
+    <sheet name="academy" sheetId="37" r:id="rId9"/>
+    <sheet name="barracks" sheetId="32" r:id="rId10"/>
+    <sheet name="blackSmith" sheetId="34" r:id="rId11"/>
+    <sheet name="foundry" sheetId="29" r:id="rId12"/>
     <sheet name="stoneMason" sheetId="28" r:id="rId13"/>
-    <sheet name="foundry" sheetId="29" r:id="rId14"/>
+    <sheet name="lumbermill" sheetId="27" r:id="rId14"/>
     <sheet name="mill" sheetId="30" r:id="rId15"/>
-    <sheet name="townHall" sheetId="31" r:id="rId16"/>
-    <sheet name="acdemy" sheetId="37" r:id="rId17"/>
-    <sheet name="hospital" sheetId="38" r:id="rId18"/>
-    <sheet name="tradeGuild" sheetId="39" r:id="rId19"/>
-    <sheet name="prison" sheetId="40" r:id="rId20"/>
-    <sheet name="trainingGround" sheetId="41" r:id="rId21"/>
-    <sheet name="hunterhall" sheetId="42" r:id="rId22"/>
-    <sheet name="stable" sheetId="43" r:id="rId23"/>
-    <sheet name="workshop" sheetId="44" r:id="rId24"/>
+    <sheet name="hospital" sheetId="38" r:id="rId16"/>
+    <sheet name="townHall" sheetId="31" r:id="rId17"/>
+    <sheet name="tradeGuild" sheetId="39" r:id="rId18"/>
+    <sheet name="workshop" sheetId="44" r:id="rId19"/>
+    <sheet name="trainingGround" sheetId="41" r:id="rId20"/>
+    <sheet name="hunterhall" sheetId="42" r:id="rId21"/>
+    <sheet name="stable" sheetId="43" r:id="rId22"/>
   </sheets>
   <definedNames>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="9">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="11">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="20">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="13">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="14">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="21">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="16">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="7">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="17">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="19">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="17">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="21">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="11">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="9">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="14">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="19">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="22">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="12">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="10">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="18">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="20">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="23">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="9">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="11">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="20">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="13">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="14">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="21">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="16">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="7">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="17">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="19">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="17">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="21">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="11">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="9">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="14">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="19">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="22">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="12">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="10">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="18">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="20">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="0">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="23">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="9">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="11">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="20">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="13">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="14">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="21">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="16">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="7">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="17">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="19">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="17">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="21">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="11">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="9">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="14">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="19">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="22">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="12">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="10">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="18">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="20">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="0">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="23">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="9">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="11">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="20">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="13">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="14">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="21">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="16">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="7">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="17">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="19">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="17">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="21">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="11">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="9">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="14">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="19">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="22">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="12">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="10">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="18">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="20">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="0">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="23">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -144,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="12">
   <si>
     <t>INT_wood</t>
   </si>
@@ -2098,13 +2088,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>570</v>
+        <v>720</v>
       </c>
       <c r="C3" s="1">
-        <v>570</v>
+        <v>720</v>
       </c>
       <c r="D3" s="1">
-        <v>570</v>
+        <v>720</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -2119,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -2130,13 +2120,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>1140</v>
+        <v>1440</v>
       </c>
       <c r="C4" s="1">
-        <v>1140</v>
+        <v>1440</v>
       </c>
       <c r="D4" s="1">
-        <v>1140</v>
+        <v>1440</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -2151,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -2162,13 +2152,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>3419.9999999999995</v>
+        <v>4320</v>
       </c>
       <c r="C5" s="1">
-        <v>3419.9999999999995</v>
+        <v>4320</v>
       </c>
       <c r="D5" s="1">
-        <v>3419.9999999999995</v>
+        <v>4320</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -2183,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>171</v>
+        <v>216</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -2194,13 +2184,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>6839.9999999999991</v>
+        <v>8640</v>
       </c>
       <c r="C6" s="1">
-        <v>6839.9999999999991</v>
+        <v>8640</v>
       </c>
       <c r="D6" s="1">
-        <v>6839.9999999999991</v>
+        <v>8640</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -2215,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>274</v>
+        <v>346</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -2226,13 +2216,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>20520</v>
+        <v>25920</v>
       </c>
       <c r="C7" s="1">
-        <v>20520</v>
+        <v>25920</v>
       </c>
       <c r="D7" s="1">
-        <v>20520</v>
+        <v>25920</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -2247,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>513</v>
+        <v>648</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -2258,13 +2248,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>41040</v>
+        <v>51840</v>
       </c>
       <c r="C8" s="1">
-        <v>41040</v>
+        <v>51840</v>
       </c>
       <c r="D8" s="1">
-        <v>41040</v>
+        <v>51840</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -2279,7 +2269,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="1">
-        <v>1026</v>
+        <v>1296</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -2290,13 +2280,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>61559.999999999993</v>
+        <v>77760</v>
       </c>
       <c r="C9" s="1">
-        <v>61559.999999999993</v>
+        <v>77760</v>
       </c>
       <c r="D9" s="1">
-        <v>61559.999999999993</v>
+        <v>77760</v>
       </c>
       <c r="E9" s="1">
         <v>10</v>
@@ -2311,7 +2301,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="1">
-        <v>1539</v>
+        <v>1944</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -2322,13 +2312,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>82080</v>
+        <v>103680</v>
       </c>
       <c r="C10" s="1">
-        <v>82080</v>
+        <v>103680</v>
       </c>
       <c r="D10" s="1">
-        <v>82080</v>
+        <v>103680</v>
       </c>
       <c r="E10" s="1">
         <v>40</v>
@@ -2343,7 +2333,7 @@
         <v>40</v>
       </c>
       <c r="I10" s="1">
-        <v>2052</v>
+        <v>2592</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -2354,13 +2344,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>102599.99999999999</v>
+        <v>129600</v>
       </c>
       <c r="C11" s="1">
-        <v>102599.99999999999</v>
+        <v>129600</v>
       </c>
       <c r="D11" s="1">
-        <v>102599.99999999999</v>
+        <v>129600</v>
       </c>
       <c r="E11" s="1">
         <v>120</v>
@@ -2375,7 +2365,7 @@
         <v>120</v>
       </c>
       <c r="I11" s="1">
-        <v>3078</v>
+        <v>3888</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -2386,13 +2376,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>123119.99999999999</v>
+        <v>155520</v>
       </c>
       <c r="C12" s="1">
-        <v>123119.99999999999</v>
+        <v>155520</v>
       </c>
       <c r="D12" s="1">
-        <v>123119.99999999999</v>
+        <v>155520</v>
       </c>
       <c r="E12" s="1">
         <v>360</v>
@@ -2407,7 +2397,7 @@
         <v>360</v>
       </c>
       <c r="I12" s="1">
-        <v>4104</v>
+        <v>5184</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -2418,13 +2408,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>143640</v>
+        <v>181440</v>
       </c>
       <c r="C13" s="1">
-        <v>143640</v>
+        <v>181440</v>
       </c>
       <c r="D13" s="1">
-        <v>143640</v>
+        <v>181440</v>
       </c>
       <c r="E13" s="1">
         <v>600</v>
@@ -2439,7 +2429,7 @@
         <v>600</v>
       </c>
       <c r="I13" s="1">
-        <v>8208</v>
+        <v>10368</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -2450,13 +2440,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>164160</v>
+        <v>207360</v>
       </c>
       <c r="C14" s="1">
-        <v>164160</v>
+        <v>207360</v>
       </c>
       <c r="D14" s="1">
-        <v>164160</v>
+        <v>207360</v>
       </c>
       <c r="E14" s="1">
         <v>1200</v>
@@ -2471,7 +2461,7 @@
         <v>1200</v>
       </c>
       <c r="I14" s="1">
-        <v>12312</v>
+        <v>15552</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -2482,13 +2472,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>184679.99999999997</v>
+        <v>233280</v>
       </c>
       <c r="C15" s="1">
-        <v>184679.99999999997</v>
+        <v>233280</v>
       </c>
       <c r="D15" s="1">
-        <v>184679.99999999997</v>
+        <v>233280</v>
       </c>
       <c r="E15" s="1">
         <v>1800</v>
@@ -2503,7 +2493,7 @@
         <v>1800</v>
       </c>
       <c r="I15" s="1">
-        <v>16416</v>
+        <v>20736</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -2514,13 +2504,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>205199.99999999997</v>
+        <v>259200</v>
       </c>
       <c r="C16" s="1">
-        <v>205199.99999999997</v>
+        <v>259200</v>
       </c>
       <c r="D16" s="1">
-        <v>205199.99999999997</v>
+        <v>259200</v>
       </c>
       <c r="E16" s="1">
         <v>2400</v>
@@ -2535,7 +2525,7 @@
         <v>2400</v>
       </c>
       <c r="I16" s="1">
-        <v>24624</v>
+        <v>31104</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -2546,13 +2536,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>273600</v>
+        <v>345600</v>
       </c>
       <c r="C17" s="1">
-        <v>273600</v>
+        <v>345600</v>
       </c>
       <c r="D17" s="1">
-        <v>273600</v>
+        <v>345600</v>
       </c>
       <c r="E17" s="1">
         <v>3000</v>
@@ -2567,7 +2557,7 @@
         <v>3000</v>
       </c>
       <c r="I17" s="1">
-        <v>32832</v>
+        <v>41472</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -2578,13 +2568,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>341999.99999999994</v>
+        <v>432000</v>
       </c>
       <c r="C18" s="1">
-        <v>341999.99999999994</v>
+        <v>432000</v>
       </c>
       <c r="D18" s="1">
-        <v>341999.99999999994</v>
+        <v>432000</v>
       </c>
       <c r="E18" s="1">
         <v>3600</v>
@@ -2599,7 +2589,7 @@
         <v>3600</v>
       </c>
       <c r="I18" s="1">
-        <v>41040</v>
+        <v>51840</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -2610,13 +2600,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>410399.99999999994</v>
+        <v>518400</v>
       </c>
       <c r="C19" s="1">
-        <v>410399.99999999994</v>
+        <v>518400</v>
       </c>
       <c r="D19" s="1">
-        <v>410399.99999999994</v>
+        <v>518400</v>
       </c>
       <c r="E19" s="1">
         <v>4200</v>
@@ -2631,7 +2621,7 @@
         <v>4200</v>
       </c>
       <c r="I19" s="1">
-        <v>49248</v>
+        <v>62208</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -2642,13 +2632,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>478799.99999999994</v>
+        <v>604800</v>
       </c>
       <c r="C20" s="1">
-        <v>478799.99999999994</v>
+        <v>604800</v>
       </c>
       <c r="D20" s="1">
-        <v>478799.99999999994</v>
+        <v>604800</v>
       </c>
       <c r="E20" s="1">
         <v>4800</v>
@@ -2663,7 +2653,7 @@
         <v>4800</v>
       </c>
       <c r="I20" s="1">
-        <v>65664</v>
+        <v>82944</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -2674,13 +2664,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>547200</v>
+        <v>691200</v>
       </c>
       <c r="C21" s="1">
-        <v>547200</v>
+        <v>691200</v>
       </c>
       <c r="D21" s="1">
-        <v>547200</v>
+        <v>691200</v>
       </c>
       <c r="E21" s="1">
         <v>5400</v>
@@ -2695,7 +2685,7 @@
         <v>5400</v>
       </c>
       <c r="I21" s="1">
-        <v>82080</v>
+        <v>103680</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -2706,13 +2696,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>1025999.9999999999</v>
+        <v>1296000</v>
       </c>
       <c r="C22" s="1">
-        <v>1025999.9999999999</v>
+        <v>1296000</v>
       </c>
       <c r="D22" s="1">
-        <v>1025999.9999999999</v>
+        <v>1296000</v>
       </c>
       <c r="E22" s="1">
         <v>6000</v>
@@ -2727,7 +2717,7 @@
         <v>6000</v>
       </c>
       <c r="I22" s="1">
-        <v>98496</v>
+        <v>124416</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -2750,7 +2740,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2827,13 +2817,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>650</v>
+        <v>690</v>
       </c>
       <c r="C3" s="1">
-        <v>650</v>
+        <v>690</v>
       </c>
       <c r="D3" s="1">
-        <v>650</v>
+        <v>690</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -2848,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -2859,13 +2849,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>1300</v>
+        <v>1380</v>
       </c>
       <c r="C4" s="1">
-        <v>1300</v>
+        <v>1380</v>
       </c>
       <c r="D4" s="1">
-        <v>1300</v>
+        <v>1380</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -2880,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -2891,13 +2881,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>3900</v>
+        <v>4140</v>
       </c>
       <c r="C5" s="1">
-        <v>3900</v>
+        <v>4140</v>
       </c>
       <c r="D5" s="1">
-        <v>3900</v>
+        <v>4140</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -2912,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -2923,13 +2913,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>7800</v>
+        <v>8280</v>
       </c>
       <c r="C6" s="1">
-        <v>7800</v>
+        <v>8280</v>
       </c>
       <c r="D6" s="1">
-        <v>7800</v>
+        <v>8280</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -2944,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -2955,13 +2945,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>23400</v>
+        <v>24839.999999999996</v>
       </c>
       <c r="C7" s="1">
-        <v>23400</v>
+        <v>24839.999999999996</v>
       </c>
       <c r="D7" s="1">
-        <v>23400</v>
+        <v>24839.999999999996</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -2976,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>585</v>
+        <v>621</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -2987,13 +2977,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>46800</v>
+        <v>49679.999999999993</v>
       </c>
       <c r="C8" s="1">
-        <v>46800</v>
+        <v>49679.999999999993</v>
       </c>
       <c r="D8" s="1">
-        <v>46800</v>
+        <v>49679.999999999993</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -3008,7 +2998,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="1">
-        <v>1170</v>
+        <v>1242</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -3019,13 +3009,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>70200</v>
+        <v>74520</v>
       </c>
       <c r="C9" s="1">
-        <v>70200</v>
+        <v>74520</v>
       </c>
       <c r="D9" s="1">
-        <v>70200</v>
+        <v>74520</v>
       </c>
       <c r="E9" s="1">
         <v>10</v>
@@ -3040,7 +3030,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="1">
-        <v>1755</v>
+        <v>1863</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -3051,13 +3041,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>93600</v>
+        <v>99359.999999999985</v>
       </c>
       <c r="C10" s="1">
-        <v>93600</v>
+        <v>99359.999999999985</v>
       </c>
       <c r="D10" s="1">
-        <v>93600</v>
+        <v>99359.999999999985</v>
       </c>
       <c r="E10" s="1">
         <v>40</v>
@@ -3072,7 +3062,7 @@
         <v>40</v>
       </c>
       <c r="I10" s="1">
-        <v>2340</v>
+        <v>2484</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -3083,13 +3073,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>117000</v>
+        <v>124199.99999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>117000</v>
+        <v>124199.99999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>117000</v>
+        <v>124199.99999999999</v>
       </c>
       <c r="E11" s="1">
         <v>120</v>
@@ -3104,7 +3094,7 @@
         <v>120</v>
       </c>
       <c r="I11" s="1">
-        <v>3510</v>
+        <v>3726</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -3115,13 +3105,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>140400</v>
+        <v>149040</v>
       </c>
       <c r="C12" s="1">
-        <v>140400</v>
+        <v>149040</v>
       </c>
       <c r="D12" s="1">
-        <v>140400</v>
+        <v>149040</v>
       </c>
       <c r="E12" s="1">
         <v>360</v>
@@ -3136,7 +3126,7 @@
         <v>360</v>
       </c>
       <c r="I12" s="1">
-        <v>4680</v>
+        <v>4968</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -3147,13 +3137,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>163800</v>
+        <v>173880</v>
       </c>
       <c r="C13" s="1">
-        <v>163800</v>
+        <v>173880</v>
       </c>
       <c r="D13" s="1">
-        <v>163800</v>
+        <v>173880</v>
       </c>
       <c r="E13" s="1">
         <v>600</v>
@@ -3168,7 +3158,7 @@
         <v>600</v>
       </c>
       <c r="I13" s="1">
-        <v>9360</v>
+        <v>9936</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -3179,13 +3169,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>187200</v>
+        <v>198719.99999999997</v>
       </c>
       <c r="C14" s="1">
-        <v>187200</v>
+        <v>198719.99999999997</v>
       </c>
       <c r="D14" s="1">
-        <v>187200</v>
+        <v>198719.99999999997</v>
       </c>
       <c r="E14" s="1">
         <v>1200</v>
@@ -3200,7 +3190,7 @@
         <v>1200</v>
       </c>
       <c r="I14" s="1">
-        <v>14040</v>
+        <v>14904</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -3211,13 +3201,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>210600</v>
+        <v>223559.99999999997</v>
       </c>
       <c r="C15" s="1">
-        <v>210600</v>
+        <v>223559.99999999997</v>
       </c>
       <c r="D15" s="1">
-        <v>210600</v>
+        <v>223559.99999999997</v>
       </c>
       <c r="E15" s="1">
         <v>1800</v>
@@ -3232,7 +3222,7 @@
         <v>1800</v>
       </c>
       <c r="I15" s="1">
-        <v>18720</v>
+        <v>19872</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -3243,13 +3233,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>234000</v>
+        <v>248399.99999999997</v>
       </c>
       <c r="C16" s="1">
-        <v>234000</v>
+        <v>248399.99999999997</v>
       </c>
       <c r="D16" s="1">
-        <v>234000</v>
+        <v>248399.99999999997</v>
       </c>
       <c r="E16" s="1">
         <v>2400</v>
@@ -3264,7 +3254,7 @@
         <v>2400</v>
       </c>
       <c r="I16" s="1">
-        <v>28080</v>
+        <v>29808</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -3275,13 +3265,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>312000</v>
+        <v>331200</v>
       </c>
       <c r="C17" s="1">
-        <v>312000</v>
+        <v>331200</v>
       </c>
       <c r="D17" s="1">
-        <v>312000</v>
+        <v>331200</v>
       </c>
       <c r="E17" s="1">
         <v>3000</v>
@@ -3296,7 +3286,7 @@
         <v>3000</v>
       </c>
       <c r="I17" s="1">
-        <v>37440</v>
+        <v>39744</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -3307,13 +3297,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>390000</v>
+        <v>413999.99999999994</v>
       </c>
       <c r="C18" s="1">
-        <v>390000</v>
+        <v>413999.99999999994</v>
       </c>
       <c r="D18" s="1">
-        <v>390000</v>
+        <v>413999.99999999994</v>
       </c>
       <c r="E18" s="1">
         <v>3600</v>
@@ -3328,7 +3318,7 @@
         <v>3600</v>
       </c>
       <c r="I18" s="1">
-        <v>46800</v>
+        <v>49680</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -3339,13 +3329,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>468000</v>
+        <v>496799.99999999994</v>
       </c>
       <c r="C19" s="1">
-        <v>468000</v>
+        <v>496799.99999999994</v>
       </c>
       <c r="D19" s="1">
-        <v>468000</v>
+        <v>496799.99999999994</v>
       </c>
       <c r="E19" s="1">
         <v>4200</v>
@@ -3360,7 +3350,7 @@
         <v>4200</v>
       </c>
       <c r="I19" s="1">
-        <v>56160</v>
+        <v>59616</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -3371,13 +3361,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>546000</v>
+        <v>579600</v>
       </c>
       <c r="C20" s="1">
-        <v>546000</v>
+        <v>579600</v>
       </c>
       <c r="D20" s="1">
-        <v>546000</v>
+        <v>579600</v>
       </c>
       <c r="E20" s="1">
         <v>4800</v>
@@ -3392,7 +3382,7 @@
         <v>4800</v>
       </c>
       <c r="I20" s="1">
-        <v>74880</v>
+        <v>79488</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -3403,13 +3393,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>624000</v>
+        <v>662400</v>
       </c>
       <c r="C21" s="1">
-        <v>624000</v>
+        <v>662400</v>
       </c>
       <c r="D21" s="1">
-        <v>624000</v>
+        <v>662400</v>
       </c>
       <c r="E21" s="1">
         <v>5400</v>
@@ -3424,7 +3414,7 @@
         <v>5400</v>
       </c>
       <c r="I21" s="1">
-        <v>93600</v>
+        <v>99360</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -3435,13 +3425,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>1170000</v>
+        <v>1242000</v>
       </c>
       <c r="C22" s="1">
-        <v>1170000</v>
+        <v>1242000</v>
       </c>
       <c r="D22" s="1">
-        <v>1170000</v>
+        <v>1242000</v>
       </c>
       <c r="E22" s="1">
         <v>6000</v>
@@ -3456,7 +3446,7 @@
         <v>6000</v>
       </c>
       <c r="I22" s="1">
-        <v>112320</v>
+        <v>119232</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -3556,13 +3546,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>156240</v>
+        <v>166320</v>
       </c>
       <c r="C3" s="1">
-        <v>156240</v>
+        <v>166320</v>
       </c>
       <c r="D3" s="1">
-        <v>156240</v>
+        <v>166320</v>
       </c>
       <c r="E3" s="1">
         <v>600</v>
@@ -3588,13 +3578,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>178560</v>
+        <v>190080</v>
       </c>
       <c r="C4" s="1">
-        <v>178560</v>
+        <v>190080</v>
       </c>
       <c r="D4" s="1">
-        <v>178560</v>
+        <v>190080</v>
       </c>
       <c r="E4" s="1">
         <v>1200</v>
@@ -3620,13 +3610,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>200880</v>
+        <v>213840</v>
       </c>
       <c r="C5" s="1">
-        <v>200880</v>
+        <v>213840</v>
       </c>
       <c r="D5" s="1">
-        <v>200880</v>
+        <v>213840</v>
       </c>
       <c r="E5" s="1">
         <v>1800</v>
@@ -3652,13 +3642,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>223200</v>
+        <v>237600</v>
       </c>
       <c r="C6" s="1">
-        <v>223200</v>
+        <v>237600</v>
       </c>
       <c r="D6" s="1">
-        <v>223200</v>
+        <v>237600</v>
       </c>
       <c r="E6" s="1">
         <v>2400</v>
@@ -3684,13 +3674,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>297600</v>
+        <v>316800</v>
       </c>
       <c r="C7" s="1">
-        <v>297600</v>
+        <v>316800</v>
       </c>
       <c r="D7" s="1">
-        <v>297600</v>
+        <v>316800</v>
       </c>
       <c r="E7" s="1">
         <v>3000</v>
@@ -3716,13 +3706,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>372000</v>
+        <v>396000</v>
       </c>
       <c r="C8" s="1">
-        <v>372000</v>
+        <v>396000</v>
       </c>
       <c r="D8" s="1">
-        <v>372000</v>
+        <v>396000</v>
       </c>
       <c r="E8" s="1">
         <v>3600</v>
@@ -3748,13 +3738,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>446400</v>
+        <v>475200</v>
       </c>
       <c r="C9" s="1">
-        <v>446400</v>
+        <v>475200</v>
       </c>
       <c r="D9" s="1">
-        <v>446400</v>
+        <v>475200</v>
       </c>
       <c r="E9" s="1">
         <v>4200</v>
@@ -3780,13 +3770,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>520800</v>
+        <v>554400</v>
       </c>
       <c r="C10" s="1">
-        <v>520800</v>
+        <v>554400</v>
       </c>
       <c r="D10" s="1">
-        <v>520800</v>
+        <v>554400</v>
       </c>
       <c r="E10" s="1">
         <v>4800</v>
@@ -3812,13 +3802,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>595200</v>
+        <v>633600</v>
       </c>
       <c r="C11" s="1">
-        <v>595200</v>
+        <v>633600</v>
       </c>
       <c r="D11" s="1">
-        <v>595200</v>
+        <v>633600</v>
       </c>
       <c r="E11" s="1">
         <v>5400</v>
@@ -3844,13 +3834,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>1116000</v>
+        <v>1188000</v>
       </c>
       <c r="C12" s="1">
-        <v>1116000</v>
+        <v>1188000</v>
       </c>
       <c r="D12" s="1">
-        <v>1116000</v>
+        <v>1188000</v>
       </c>
       <c r="E12" s="1">
         <v>6000</v>
@@ -4374,13 +4364,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>166320</v>
+        <v>156240</v>
       </c>
       <c r="C3" s="1">
-        <v>166320</v>
+        <v>156240</v>
       </c>
       <c r="D3" s="1">
-        <v>166320</v>
+        <v>156240</v>
       </c>
       <c r="E3" s="1">
         <v>600</v>
@@ -4406,13 +4396,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>190080</v>
+        <v>178560</v>
       </c>
       <c r="C4" s="1">
-        <v>190080</v>
+        <v>178560</v>
       </c>
       <c r="D4" s="1">
-        <v>190080</v>
+        <v>178560</v>
       </c>
       <c r="E4" s="1">
         <v>1200</v>
@@ -4438,13 +4428,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>213840</v>
+        <v>200880</v>
       </c>
       <c r="C5" s="1">
-        <v>213840</v>
+        <v>200880</v>
       </c>
       <c r="D5" s="1">
-        <v>213840</v>
+        <v>200880</v>
       </c>
       <c r="E5" s="1">
         <v>1800</v>
@@ -4470,13 +4460,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>237600</v>
+        <v>223200</v>
       </c>
       <c r="C6" s="1">
-        <v>237600</v>
+        <v>223200</v>
       </c>
       <c r="D6" s="1">
-        <v>237600</v>
+        <v>223200</v>
       </c>
       <c r="E6" s="1">
         <v>2400</v>
@@ -4502,13 +4492,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>316800</v>
+        <v>297600</v>
       </c>
       <c r="C7" s="1">
-        <v>316800</v>
+        <v>297600</v>
       </c>
       <c r="D7" s="1">
-        <v>316800</v>
+        <v>297600</v>
       </c>
       <c r="E7" s="1">
         <v>3000</v>
@@ -4534,13 +4524,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>396000</v>
+        <v>372000</v>
       </c>
       <c r="C8" s="1">
-        <v>396000</v>
+        <v>372000</v>
       </c>
       <c r="D8" s="1">
-        <v>396000</v>
+        <v>372000</v>
       </c>
       <c r="E8" s="1">
         <v>3600</v>
@@ -4566,13 +4556,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>475200</v>
+        <v>446400</v>
       </c>
       <c r="C9" s="1">
-        <v>475200</v>
+        <v>446400</v>
       </c>
       <c r="D9" s="1">
-        <v>475200</v>
+        <v>446400</v>
       </c>
       <c r="E9" s="1">
         <v>4200</v>
@@ -4598,13 +4588,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>554400</v>
+        <v>520800</v>
       </c>
       <c r="C10" s="1">
-        <v>554400</v>
+        <v>520800</v>
       </c>
       <c r="D10" s="1">
-        <v>554400</v>
+        <v>520800</v>
       </c>
       <c r="E10" s="1">
         <v>4800</v>
@@ -4630,13 +4620,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>633600</v>
+        <v>595200</v>
       </c>
       <c r="C11" s="1">
-        <v>633600</v>
+        <v>595200</v>
       </c>
       <c r="D11" s="1">
-        <v>633600</v>
+        <v>595200</v>
       </c>
       <c r="E11" s="1">
         <v>5400</v>
@@ -4662,13 +4652,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>1188000</v>
+        <v>1116000</v>
       </c>
       <c r="C12" s="1">
-        <v>1188000</v>
+        <v>1116000</v>
       </c>
       <c r="D12" s="1">
-        <v>1188000</v>
+        <v>1116000</v>
       </c>
       <c r="E12" s="1">
         <v>6000</v>
@@ -5112,6 +5102,607 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="20.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="20" customHeight="1">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="20" customHeight="1">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>30240</v>
+      </c>
+      <c r="C3" s="1">
+        <v>30240</v>
+      </c>
+      <c r="D3" s="1">
+        <v>30240</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1">
+        <v>10</v>
+      </c>
+      <c r="I3" s="3">
+        <v>2268</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="20" customHeight="1">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>60480</v>
+      </c>
+      <c r="C4" s="1">
+        <v>60480</v>
+      </c>
+      <c r="D4" s="1">
+        <v>60480</v>
+      </c>
+      <c r="E4" s="1">
+        <v>40</v>
+      </c>
+      <c r="F4" s="1">
+        <v>40</v>
+      </c>
+      <c r="G4" s="1">
+        <v>40</v>
+      </c>
+      <c r="H4" s="1">
+        <v>40</v>
+      </c>
+      <c r="I4" s="3">
+        <v>3024</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="20" customHeight="1">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>90720</v>
+      </c>
+      <c r="C5" s="1">
+        <v>90720</v>
+      </c>
+      <c r="D5" s="1">
+        <v>90720</v>
+      </c>
+      <c r="E5" s="1">
+        <v>120</v>
+      </c>
+      <c r="F5" s="1">
+        <v>120</v>
+      </c>
+      <c r="G5" s="1">
+        <v>120</v>
+      </c>
+      <c r="H5" s="1">
+        <v>120</v>
+      </c>
+      <c r="I5" s="3">
+        <v>4536</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="20" customHeight="1">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>120960</v>
+      </c>
+      <c r="C6" s="1">
+        <v>120960</v>
+      </c>
+      <c r="D6" s="1">
+        <v>120960</v>
+      </c>
+      <c r="E6" s="1">
+        <v>360</v>
+      </c>
+      <c r="F6" s="1">
+        <v>360</v>
+      </c>
+      <c r="G6" s="1">
+        <v>360</v>
+      </c>
+      <c r="H6" s="1">
+        <v>360</v>
+      </c>
+      <c r="I6" s="3">
+        <v>6048</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="20" customHeight="1">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>151200</v>
+      </c>
+      <c r="C7" s="1">
+        <v>151200</v>
+      </c>
+      <c r="D7" s="1">
+        <v>151200</v>
+      </c>
+      <c r="E7" s="1">
+        <v>600</v>
+      </c>
+      <c r="F7" s="1">
+        <v>600</v>
+      </c>
+      <c r="G7" s="1">
+        <v>600</v>
+      </c>
+      <c r="H7" s="1">
+        <v>600</v>
+      </c>
+      <c r="I7" s="3">
+        <v>12096</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="20" customHeight="1">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>181440</v>
+      </c>
+      <c r="C8" s="1">
+        <v>181440</v>
+      </c>
+      <c r="D8" s="1">
+        <v>181440</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1200</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1200</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1200</v>
+      </c>
+      <c r="I8" s="3">
+        <v>18144</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="20" customHeight="1">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>211680</v>
+      </c>
+      <c r="C9" s="1">
+        <v>211680</v>
+      </c>
+      <c r="D9" s="1">
+        <v>211680</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1800</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1800</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1800</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1800</v>
+      </c>
+      <c r="I9" s="3">
+        <v>24192</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="20" customHeight="1">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>241920</v>
+      </c>
+      <c r="C10" s="1">
+        <v>241920</v>
+      </c>
+      <c r="D10" s="1">
+        <v>241920</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2400</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2400</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2400</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2400</v>
+      </c>
+      <c r="I10" s="3">
+        <v>36288</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="20" customHeight="1">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>272160</v>
+      </c>
+      <c r="C11" s="1">
+        <v>272160</v>
+      </c>
+      <c r="D11" s="1">
+        <v>272160</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3000</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I11" s="3">
+        <v>48384</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="20" customHeight="1">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>302400</v>
+      </c>
+      <c r="C12" s="1">
+        <v>302400</v>
+      </c>
+      <c r="D12" s="1">
+        <v>302400</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3600</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3600</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3600</v>
+      </c>
+      <c r="H12" s="1">
+        <v>3600</v>
+      </c>
+      <c r="I12" s="3">
+        <v>60480</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="20" customHeight="1">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>403200</v>
+      </c>
+      <c r="C13" s="1">
+        <v>403200</v>
+      </c>
+      <c r="D13" s="1">
+        <v>403200</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4200</v>
+      </c>
+      <c r="F13" s="1">
+        <v>4200</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4200</v>
+      </c>
+      <c r="H13" s="1">
+        <v>4200</v>
+      </c>
+      <c r="I13" s="3">
+        <v>72576</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="20" customHeight="1">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>504000</v>
+      </c>
+      <c r="C14" s="1">
+        <v>504000</v>
+      </c>
+      <c r="D14" s="1">
+        <v>504000</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4800</v>
+      </c>
+      <c r="F14" s="1">
+        <v>4800</v>
+      </c>
+      <c r="G14" s="1">
+        <v>4800</v>
+      </c>
+      <c r="H14" s="1">
+        <v>4800</v>
+      </c>
+      <c r="I14" s="3">
+        <v>96768</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="20" customHeight="1">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>604800</v>
+      </c>
+      <c r="C15" s="1">
+        <v>604800</v>
+      </c>
+      <c r="D15" s="1">
+        <v>604800</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5400</v>
+      </c>
+      <c r="F15" s="1">
+        <v>5400</v>
+      </c>
+      <c r="G15" s="1">
+        <v>5400</v>
+      </c>
+      <c r="H15" s="1">
+        <v>5400</v>
+      </c>
+      <c r="I15" s="3">
+        <v>120960</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="20" customHeight="1">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>705600</v>
+      </c>
+      <c r="C16" s="1">
+        <v>705600</v>
+      </c>
+      <c r="D16" s="1">
+        <v>705600</v>
+      </c>
+      <c r="E16" s="1">
+        <v>6000</v>
+      </c>
+      <c r="F16" s="1">
+        <v>6000</v>
+      </c>
+      <c r="G16" s="1">
+        <v>6000</v>
+      </c>
+      <c r="H16" s="1">
+        <v>6000</v>
+      </c>
+      <c r="I16" s="3">
+        <v>145152</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="20" customHeight="1">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>806400</v>
+      </c>
+      <c r="C17" s="1">
+        <v>806400</v>
+      </c>
+      <c r="D17" s="1">
+        <v>806400</v>
+      </c>
+      <c r="E17" s="1">
+        <v>6600</v>
+      </c>
+      <c r="F17" s="1">
+        <v>6600</v>
+      </c>
+      <c r="G17" s="1">
+        <v>6600</v>
+      </c>
+      <c r="H17" s="1">
+        <v>6600</v>
+      </c>
+      <c r="I17" s="3">
+        <v>169344</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="20" customHeight="1">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1512000</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1512000</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1512000</v>
+      </c>
+      <c r="E18" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F18" s="1">
+        <v>7200</v>
+      </c>
+      <c r="G18" s="1">
+        <v>7200</v>
+      </c>
+      <c r="H18" s="1">
+        <v>7200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>193536</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -5519,9 +6110,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
@@ -5601,28 +6192,28 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>32400</v>
+        <v>230400</v>
       </c>
       <c r="C3" s="1">
-        <v>32400</v>
+        <v>230400</v>
       </c>
       <c r="D3" s="1">
-        <v>32400</v>
+        <v>230400</v>
       </c>
       <c r="E3" s="1">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="F3" s="1">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="G3" s="1">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="H3" s="1">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="I3" s="1">
-        <v>2430</v>
+        <v>34128</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -5633,28 +6224,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>64800</v>
+        <v>259200</v>
       </c>
       <c r="C4" s="1">
-        <v>64800</v>
+        <v>259200</v>
       </c>
       <c r="D4" s="1">
-        <v>64800</v>
+        <v>259200</v>
       </c>
       <c r="E4" s="1">
-        <v>40</v>
+        <v>1200</v>
       </c>
       <c r="F4" s="1">
-        <v>40</v>
+        <v>1200</v>
       </c>
       <c r="G4" s="1">
-        <v>40</v>
+        <v>1200</v>
       </c>
       <c r="H4" s="1">
-        <v>40</v>
+        <v>1200</v>
       </c>
       <c r="I4" s="1">
-        <v>3240</v>
+        <v>45504</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -5665,28 +6256,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>97200</v>
+        <v>288000</v>
       </c>
       <c r="C5" s="1">
-        <v>97200</v>
+        <v>288000</v>
       </c>
       <c r="D5" s="1">
-        <v>97200</v>
+        <v>288000</v>
       </c>
       <c r="E5" s="1">
-        <v>120</v>
+        <v>1800</v>
       </c>
       <c r="F5" s="1">
-        <v>120</v>
+        <v>1800</v>
       </c>
       <c r="G5" s="1">
-        <v>120</v>
+        <v>1800</v>
       </c>
       <c r="H5" s="1">
-        <v>120</v>
+        <v>1800</v>
       </c>
       <c r="I5" s="1">
-        <v>4860</v>
+        <v>56880</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -5697,28 +6288,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>129600</v>
+        <v>384000</v>
       </c>
       <c r="C6" s="1">
-        <v>129600</v>
+        <v>384000</v>
       </c>
       <c r="D6" s="1">
-        <v>129600</v>
+        <v>384000</v>
       </c>
       <c r="E6" s="1">
-        <v>360</v>
+        <v>2400</v>
       </c>
       <c r="F6" s="1">
-        <v>360</v>
+        <v>2400</v>
       </c>
       <c r="G6" s="1">
-        <v>360</v>
+        <v>2400</v>
       </c>
       <c r="H6" s="1">
-        <v>360</v>
+        <v>2400</v>
       </c>
       <c r="I6" s="1">
-        <v>6480</v>
+        <v>68256</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -5729,28 +6320,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>162000</v>
+        <v>480000</v>
       </c>
       <c r="C7" s="1">
-        <v>162000</v>
+        <v>480000</v>
       </c>
       <c r="D7" s="1">
-        <v>162000</v>
+        <v>480000</v>
       </c>
       <c r="E7" s="1">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="F7" s="1">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="G7" s="1">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="H7" s="1">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="I7" s="1">
-        <v>12960</v>
+        <v>91008</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -5761,28 +6352,28 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>194400</v>
+        <v>576000</v>
       </c>
       <c r="C8" s="1">
-        <v>194400</v>
+        <v>576000</v>
       </c>
       <c r="D8" s="1">
-        <v>194400</v>
+        <v>576000</v>
       </c>
       <c r="E8" s="1">
-        <v>1200</v>
+        <v>3600</v>
       </c>
       <c r="F8" s="1">
-        <v>1200</v>
+        <v>3600</v>
       </c>
       <c r="G8" s="1">
-        <v>1200</v>
+        <v>3600</v>
       </c>
       <c r="H8" s="1">
-        <v>1200</v>
+        <v>3600</v>
       </c>
       <c r="I8" s="1">
-        <v>19440</v>
+        <v>113760</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -5793,28 +6384,28 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>226800</v>
+        <v>672000</v>
       </c>
       <c r="C9" s="1">
-        <v>226800</v>
+        <v>672000</v>
       </c>
       <c r="D9" s="1">
-        <v>226800</v>
+        <v>672000</v>
       </c>
       <c r="E9" s="1">
-        <v>1800</v>
+        <v>4200</v>
       </c>
       <c r="F9" s="1">
-        <v>1800</v>
+        <v>4200</v>
       </c>
       <c r="G9" s="1">
-        <v>1800</v>
+        <v>4200</v>
       </c>
       <c r="H9" s="1">
-        <v>1800</v>
+        <v>4200</v>
       </c>
       <c r="I9" s="1">
-        <v>25920</v>
+        <v>136512</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -5825,28 +6416,28 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>259200</v>
+        <v>768000</v>
       </c>
       <c r="C10" s="1">
-        <v>259200</v>
+        <v>768000</v>
       </c>
       <c r="D10" s="1">
-        <v>259200</v>
+        <v>768000</v>
       </c>
       <c r="E10" s="1">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="F10" s="1">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="G10" s="1">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="H10" s="1">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="I10" s="1">
-        <v>38880</v>
+        <v>159264</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -5857,28 +6448,28 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>291600</v>
+        <v>1440000</v>
       </c>
       <c r="C11" s="1">
-        <v>291600</v>
+        <v>1440000</v>
       </c>
       <c r="D11" s="1">
-        <v>291600</v>
+        <v>1440000</v>
       </c>
       <c r="E11" s="1">
-        <v>3000</v>
+        <v>5400</v>
       </c>
       <c r="F11" s="1">
-        <v>3000</v>
+        <v>5400</v>
       </c>
       <c r="G11" s="1">
-        <v>3000</v>
+        <v>5400</v>
       </c>
       <c r="H11" s="1">
-        <v>3000</v>
+        <v>5400</v>
       </c>
       <c r="I11" s="1">
-        <v>51840</v>
+        <v>182016</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -5889,823 +6480,30 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>324000</v>
+        <v>2880000</v>
       </c>
       <c r="C12" s="1">
-        <v>324000</v>
+        <v>2880000</v>
       </c>
       <c r="D12" s="1">
-        <v>324000</v>
+        <v>2880000</v>
       </c>
       <c r="E12" s="1">
-        <v>3600</v>
+        <v>6000</v>
       </c>
       <c r="F12" s="1">
-        <v>3600</v>
+        <v>6000</v>
       </c>
       <c r="G12" s="1">
-        <v>3600</v>
+        <v>6000</v>
       </c>
       <c r="H12" s="1">
-        <v>3600</v>
+        <v>6000</v>
       </c>
       <c r="I12" s="1">
-        <v>64800</v>
+        <v>204768</v>
       </c>
       <c r="J12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="20" customHeight="1">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>432000</v>
-      </c>
-      <c r="C13" s="1">
-        <v>432000</v>
-      </c>
-      <c r="D13" s="1">
-        <v>432000</v>
-      </c>
-      <c r="E13" s="1">
-        <v>4200</v>
-      </c>
-      <c r="F13" s="1">
-        <v>4200</v>
-      </c>
-      <c r="G13" s="1">
-        <v>4200</v>
-      </c>
-      <c r="H13" s="1">
-        <v>4200</v>
-      </c>
-      <c r="I13" s="1">
-        <v>77760</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="20" customHeight="1">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>540000</v>
-      </c>
-      <c r="C14" s="1">
-        <v>540000</v>
-      </c>
-      <c r="D14" s="1">
-        <v>540000</v>
-      </c>
-      <c r="E14" s="1">
-        <v>4800</v>
-      </c>
-      <c r="F14" s="1">
-        <v>4800</v>
-      </c>
-      <c r="G14" s="1">
-        <v>4800</v>
-      </c>
-      <c r="H14" s="1">
-        <v>4800</v>
-      </c>
-      <c r="I14" s="1">
-        <v>103680</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="20" customHeight="1">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>648000</v>
-      </c>
-      <c r="C15" s="1">
-        <v>648000</v>
-      </c>
-      <c r="D15" s="1">
-        <v>648000</v>
-      </c>
-      <c r="E15" s="1">
-        <v>5400</v>
-      </c>
-      <c r="F15" s="1">
-        <v>5400</v>
-      </c>
-      <c r="G15" s="1">
-        <v>5400</v>
-      </c>
-      <c r="H15" s="1">
-        <v>5400</v>
-      </c>
-      <c r="I15" s="1">
-        <v>129600</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="20" customHeight="1">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1">
-        <v>756000</v>
-      </c>
-      <c r="C16" s="1">
-        <v>756000</v>
-      </c>
-      <c r="D16" s="1">
-        <v>756000</v>
-      </c>
-      <c r="E16" s="1">
-        <v>6000</v>
-      </c>
-      <c r="F16" s="1">
-        <v>6000</v>
-      </c>
-      <c r="G16" s="1">
-        <v>6000</v>
-      </c>
-      <c r="H16" s="1">
-        <v>6000</v>
-      </c>
-      <c r="I16" s="1">
-        <v>155520</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="20" customHeight="1">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1">
-        <v>864000</v>
-      </c>
-      <c r="C17" s="1">
-        <v>864000</v>
-      </c>
-      <c r="D17" s="1">
-        <v>864000</v>
-      </c>
-      <c r="E17" s="1">
-        <v>6600</v>
-      </c>
-      <c r="F17" s="1">
-        <v>6600</v>
-      </c>
-      <c r="G17" s="1">
-        <v>6600</v>
-      </c>
-      <c r="H17" s="1">
-        <v>6600</v>
-      </c>
-      <c r="I17" s="1">
-        <v>181440</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="20" customHeight="1">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <v>1620000</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1620000</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1620000</v>
-      </c>
-      <c r="E18" s="1">
-        <v>7200</v>
-      </c>
-      <c r="F18" s="1">
-        <v>7200</v>
-      </c>
-      <c r="G18" s="1">
-        <v>7200</v>
-      </c>
-      <c r="H18" s="1">
-        <v>7200</v>
-      </c>
-      <c r="I18" s="1">
-        <v>207360</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="20.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="20" customHeight="1">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="20" customHeight="1">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>30240</v>
-      </c>
-      <c r="C3" s="1">
-        <v>30240</v>
-      </c>
-      <c r="D3" s="1">
-        <v>30240</v>
-      </c>
-      <c r="E3" s="1">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1">
-        <v>10</v>
-      </c>
-      <c r="I3" s="3">
-        <v>2268</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="20" customHeight="1">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>60480</v>
-      </c>
-      <c r="C4" s="1">
-        <v>60480</v>
-      </c>
-      <c r="D4" s="1">
-        <v>60480</v>
-      </c>
-      <c r="E4" s="1">
-        <v>40</v>
-      </c>
-      <c r="F4" s="1">
-        <v>40</v>
-      </c>
-      <c r="G4" s="1">
-        <v>40</v>
-      </c>
-      <c r="H4" s="1">
-        <v>40</v>
-      </c>
-      <c r="I4" s="3">
-        <v>3024</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="20" customHeight="1">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>90720</v>
-      </c>
-      <c r="C5" s="1">
-        <v>90720</v>
-      </c>
-      <c r="D5" s="1">
-        <v>90720</v>
-      </c>
-      <c r="E5" s="1">
-        <v>120</v>
-      </c>
-      <c r="F5" s="1">
-        <v>120</v>
-      </c>
-      <c r="G5" s="1">
-        <v>120</v>
-      </c>
-      <c r="H5" s="1">
-        <v>120</v>
-      </c>
-      <c r="I5" s="3">
-        <v>4536</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="20" customHeight="1">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>120960</v>
-      </c>
-      <c r="C6" s="1">
-        <v>120960</v>
-      </c>
-      <c r="D6" s="1">
-        <v>120960</v>
-      </c>
-      <c r="E6" s="1">
-        <v>360</v>
-      </c>
-      <c r="F6" s="1">
-        <v>360</v>
-      </c>
-      <c r="G6" s="1">
-        <v>360</v>
-      </c>
-      <c r="H6" s="1">
-        <v>360</v>
-      </c>
-      <c r="I6" s="3">
-        <v>6048</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="20" customHeight="1">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>151200</v>
-      </c>
-      <c r="C7" s="1">
-        <v>151200</v>
-      </c>
-      <c r="D7" s="1">
-        <v>151200</v>
-      </c>
-      <c r="E7" s="1">
-        <v>600</v>
-      </c>
-      <c r="F7" s="1">
-        <v>600</v>
-      </c>
-      <c r="G7" s="1">
-        <v>600</v>
-      </c>
-      <c r="H7" s="1">
-        <v>600</v>
-      </c>
-      <c r="I7" s="3">
-        <v>12096</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="20" customHeight="1">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>181440</v>
-      </c>
-      <c r="C8" s="1">
-        <v>181440</v>
-      </c>
-      <c r="D8" s="1">
-        <v>181440</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1200</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1200</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1200</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1200</v>
-      </c>
-      <c r="I8" s="3">
-        <v>18144</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="20" customHeight="1">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>211680</v>
-      </c>
-      <c r="C9" s="1">
-        <v>211680</v>
-      </c>
-      <c r="D9" s="1">
-        <v>211680</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1800</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1800</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1800</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1800</v>
-      </c>
-      <c r="I9" s="3">
-        <v>24192</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="20" customHeight="1">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>241920</v>
-      </c>
-      <c r="C10" s="1">
-        <v>241920</v>
-      </c>
-      <c r="D10" s="1">
-        <v>241920</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2400</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2400</v>
-      </c>
-      <c r="G10" s="1">
-        <v>2400</v>
-      </c>
-      <c r="H10" s="1">
-        <v>2400</v>
-      </c>
-      <c r="I10" s="3">
-        <v>36288</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="20" customHeight="1">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>272160</v>
-      </c>
-      <c r="C11" s="1">
-        <v>272160</v>
-      </c>
-      <c r="D11" s="1">
-        <v>272160</v>
-      </c>
-      <c r="E11" s="1">
-        <v>3000</v>
-      </c>
-      <c r="F11" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G11" s="1">
-        <v>3000</v>
-      </c>
-      <c r="H11" s="1">
-        <v>3000</v>
-      </c>
-      <c r="I11" s="3">
-        <v>48384</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="20" customHeight="1">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>302400</v>
-      </c>
-      <c r="C12" s="1">
-        <v>302400</v>
-      </c>
-      <c r="D12" s="1">
-        <v>302400</v>
-      </c>
-      <c r="E12" s="1">
-        <v>3600</v>
-      </c>
-      <c r="F12" s="1">
-        <v>3600</v>
-      </c>
-      <c r="G12" s="1">
-        <v>3600</v>
-      </c>
-      <c r="H12" s="1">
-        <v>3600</v>
-      </c>
-      <c r="I12" s="3">
-        <v>60480</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="20" customHeight="1">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>403200</v>
-      </c>
-      <c r="C13" s="1">
-        <v>403200</v>
-      </c>
-      <c r="D13" s="1">
-        <v>403200</v>
-      </c>
-      <c r="E13" s="1">
-        <v>4200</v>
-      </c>
-      <c r="F13" s="1">
-        <v>4200</v>
-      </c>
-      <c r="G13" s="1">
-        <v>4200</v>
-      </c>
-      <c r="H13" s="1">
-        <v>4200</v>
-      </c>
-      <c r="I13" s="3">
-        <v>72576</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="20" customHeight="1">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>504000</v>
-      </c>
-      <c r="C14" s="1">
-        <v>504000</v>
-      </c>
-      <c r="D14" s="1">
-        <v>504000</v>
-      </c>
-      <c r="E14" s="1">
-        <v>4800</v>
-      </c>
-      <c r="F14" s="1">
-        <v>4800</v>
-      </c>
-      <c r="G14" s="1">
-        <v>4800</v>
-      </c>
-      <c r="H14" s="1">
-        <v>4800</v>
-      </c>
-      <c r="I14" s="3">
-        <v>96768</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="20" customHeight="1">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>604800</v>
-      </c>
-      <c r="C15" s="1">
-        <v>604800</v>
-      </c>
-      <c r="D15" s="1">
-        <v>604800</v>
-      </c>
-      <c r="E15" s="1">
-        <v>5400</v>
-      </c>
-      <c r="F15" s="1">
-        <v>5400</v>
-      </c>
-      <c r="G15" s="1">
-        <v>5400</v>
-      </c>
-      <c r="H15" s="1">
-        <v>5400</v>
-      </c>
-      <c r="I15" s="3">
-        <v>120960</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="20" customHeight="1">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1">
-        <v>705600</v>
-      </c>
-      <c r="C16" s="1">
-        <v>705600</v>
-      </c>
-      <c r="D16" s="1">
-        <v>705600</v>
-      </c>
-      <c r="E16" s="1">
-        <v>6000</v>
-      </c>
-      <c r="F16" s="1">
-        <v>6000</v>
-      </c>
-      <c r="G16" s="1">
-        <v>6000</v>
-      </c>
-      <c r="H16" s="1">
-        <v>6000</v>
-      </c>
-      <c r="I16" s="3">
-        <v>145152</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="20" customHeight="1">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1">
-        <v>806400</v>
-      </c>
-      <c r="C17" s="1">
-        <v>806400</v>
-      </c>
-      <c r="D17" s="1">
-        <v>806400</v>
-      </c>
-      <c r="E17" s="1">
-        <v>6600</v>
-      </c>
-      <c r="F17" s="1">
-        <v>6600</v>
-      </c>
-      <c r="G17" s="1">
-        <v>6600</v>
-      </c>
-      <c r="H17" s="1">
-        <v>6600</v>
-      </c>
-      <c r="I17" s="3">
-        <v>169344</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="20" customHeight="1">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <v>1512000</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1512000</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1512000</v>
-      </c>
-      <c r="E18" s="1">
-        <v>7200</v>
-      </c>
-      <c r="F18" s="1">
-        <v>7200</v>
-      </c>
-      <c r="G18" s="1">
-        <v>7200</v>
-      </c>
-      <c r="H18" s="1">
-        <v>7200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>193536</v>
-      </c>
-      <c r="J18" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6726,7 +6524,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6735,8 +6533,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>8</v>
+      <c r="A1" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -7864,7 +7662,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7873,8 +7671,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>8</v>
+      <c r="A1" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -8273,7 +8071,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8681,826 +8479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="20.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="20" customHeight="1">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="20" customHeight="1">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>230400</v>
-      </c>
-      <c r="C3" s="1">
-        <v>230400</v>
-      </c>
-      <c r="D3" s="1">
-        <v>230400</v>
-      </c>
-      <c r="E3" s="1">
-        <v>600</v>
-      </c>
-      <c r="F3" s="1">
-        <v>600</v>
-      </c>
-      <c r="G3" s="1">
-        <v>600</v>
-      </c>
-      <c r="H3" s="1">
-        <v>600</v>
-      </c>
-      <c r="I3" s="1">
-        <v>34128</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="20" customHeight="1">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>259200</v>
-      </c>
-      <c r="C4" s="1">
-        <v>259200</v>
-      </c>
-      <c r="D4" s="1">
-        <v>259200</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1200</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1200</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1200</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1200</v>
-      </c>
-      <c r="I4" s="1">
-        <v>45504</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="20" customHeight="1">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>288000</v>
-      </c>
-      <c r="C5" s="1">
-        <v>288000</v>
-      </c>
-      <c r="D5" s="1">
-        <v>288000</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1800</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1800</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1800</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1800</v>
-      </c>
-      <c r="I5" s="1">
-        <v>56880</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="20" customHeight="1">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>384000</v>
-      </c>
-      <c r="C6" s="1">
-        <v>384000</v>
-      </c>
-      <c r="D6" s="1">
-        <v>384000</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2400</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2400</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2400</v>
-      </c>
-      <c r="H6" s="1">
-        <v>2400</v>
-      </c>
-      <c r="I6" s="1">
-        <v>68256</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="20" customHeight="1">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>480000</v>
-      </c>
-      <c r="C7" s="1">
-        <v>480000</v>
-      </c>
-      <c r="D7" s="1">
-        <v>480000</v>
-      </c>
-      <c r="E7" s="1">
-        <v>3000</v>
-      </c>
-      <c r="F7" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3000</v>
-      </c>
-      <c r="H7" s="1">
-        <v>3000</v>
-      </c>
-      <c r="I7" s="1">
-        <v>91008</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="20" customHeight="1">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>576000</v>
-      </c>
-      <c r="C8" s="1">
-        <v>576000</v>
-      </c>
-      <c r="D8" s="1">
-        <v>576000</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3600</v>
-      </c>
-      <c r="F8" s="1">
-        <v>3600</v>
-      </c>
-      <c r="G8" s="1">
-        <v>3600</v>
-      </c>
-      <c r="H8" s="1">
-        <v>3600</v>
-      </c>
-      <c r="I8" s="1">
-        <v>113760</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="20" customHeight="1">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>672000</v>
-      </c>
-      <c r="C9" s="1">
-        <v>672000</v>
-      </c>
-      <c r="D9" s="1">
-        <v>672000</v>
-      </c>
-      <c r="E9" s="1">
-        <v>4200</v>
-      </c>
-      <c r="F9" s="1">
-        <v>4200</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4200</v>
-      </c>
-      <c r="H9" s="1">
-        <v>4200</v>
-      </c>
-      <c r="I9" s="1">
-        <v>136512</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="20" customHeight="1">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>768000</v>
-      </c>
-      <c r="C10" s="1">
-        <v>768000</v>
-      </c>
-      <c r="D10" s="1">
-        <v>768000</v>
-      </c>
-      <c r="E10" s="1">
-        <v>4800</v>
-      </c>
-      <c r="F10" s="1">
-        <v>4800</v>
-      </c>
-      <c r="G10" s="1">
-        <v>4800</v>
-      </c>
-      <c r="H10" s="1">
-        <v>4800</v>
-      </c>
-      <c r="I10" s="1">
-        <v>159264</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="20" customHeight="1">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1440000</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1440000</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1440000</v>
-      </c>
-      <c r="E11" s="1">
-        <v>5400</v>
-      </c>
-      <c r="F11" s="1">
-        <v>5400</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5400</v>
-      </c>
-      <c r="H11" s="1">
-        <v>5400</v>
-      </c>
-      <c r="I11" s="1">
-        <v>182016</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="20" customHeight="1">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2880000</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2880000</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2880000</v>
-      </c>
-      <c r="E12" s="1">
-        <v>6000</v>
-      </c>
-      <c r="F12" s="1">
-        <v>6000</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6000</v>
-      </c>
-      <c r="H12" s="1">
-        <v>6000</v>
-      </c>
-      <c r="I12" s="1">
-        <v>204768</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="20.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="20" customHeight="1">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="20" customHeight="1">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>230400</v>
-      </c>
-      <c r="C3" s="1">
-        <v>230400</v>
-      </c>
-      <c r="D3" s="1">
-        <v>230400</v>
-      </c>
-      <c r="E3" s="1">
-        <v>600</v>
-      </c>
-      <c r="F3" s="1">
-        <v>600</v>
-      </c>
-      <c r="G3" s="1">
-        <v>600</v>
-      </c>
-      <c r="H3" s="1">
-        <v>600</v>
-      </c>
-      <c r="I3" s="1">
-        <v>34128</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="20" customHeight="1">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>259200</v>
-      </c>
-      <c r="C4" s="1">
-        <v>259200</v>
-      </c>
-      <c r="D4" s="1">
-        <v>259200</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1200</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1200</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1200</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1200</v>
-      </c>
-      <c r="I4" s="1">
-        <v>45504</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="20" customHeight="1">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>288000</v>
-      </c>
-      <c r="C5" s="1">
-        <v>288000</v>
-      </c>
-      <c r="D5" s="1">
-        <v>288000</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1800</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1800</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1800</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1800</v>
-      </c>
-      <c r="I5" s="1">
-        <v>56880</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="20" customHeight="1">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>384000</v>
-      </c>
-      <c r="C6" s="1">
-        <v>384000</v>
-      </c>
-      <c r="D6" s="1">
-        <v>384000</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2400</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2400</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2400</v>
-      </c>
-      <c r="H6" s="1">
-        <v>2400</v>
-      </c>
-      <c r="I6" s="1">
-        <v>68256</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="20" customHeight="1">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>480000</v>
-      </c>
-      <c r="C7" s="1">
-        <v>480000</v>
-      </c>
-      <c r="D7" s="1">
-        <v>480000</v>
-      </c>
-      <c r="E7" s="1">
-        <v>3000</v>
-      </c>
-      <c r="F7" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3000</v>
-      </c>
-      <c r="H7" s="1">
-        <v>3000</v>
-      </c>
-      <c r="I7" s="1">
-        <v>91008</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="20" customHeight="1">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>576000</v>
-      </c>
-      <c r="C8" s="1">
-        <v>576000</v>
-      </c>
-      <c r="D8" s="1">
-        <v>576000</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3600</v>
-      </c>
-      <c r="F8" s="1">
-        <v>3600</v>
-      </c>
-      <c r="G8" s="1">
-        <v>3600</v>
-      </c>
-      <c r="H8" s="1">
-        <v>3600</v>
-      </c>
-      <c r="I8" s="1">
-        <v>113760</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="20" customHeight="1">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>672000</v>
-      </c>
-      <c r="C9" s="1">
-        <v>672000</v>
-      </c>
-      <c r="D9" s="1">
-        <v>672000</v>
-      </c>
-      <c r="E9" s="1">
-        <v>4200</v>
-      </c>
-      <c r="F9" s="1">
-        <v>4200</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4200</v>
-      </c>
-      <c r="H9" s="1">
-        <v>4200</v>
-      </c>
-      <c r="I9" s="1">
-        <v>136512</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="20" customHeight="1">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>768000</v>
-      </c>
-      <c r="C10" s="1">
-        <v>768000</v>
-      </c>
-      <c r="D10" s="1">
-        <v>768000</v>
-      </c>
-      <c r="E10" s="1">
-        <v>4800</v>
-      </c>
-      <c r="F10" s="1">
-        <v>4800</v>
-      </c>
-      <c r="G10" s="1">
-        <v>4800</v>
-      </c>
-      <c r="H10" s="1">
-        <v>4800</v>
-      </c>
-      <c r="I10" s="1">
-        <v>159264</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="20" customHeight="1">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1440000</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1440000</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1440000</v>
-      </c>
-      <c r="E11" s="1">
-        <v>5400</v>
-      </c>
-      <c r="F11" s="1">
-        <v>5400</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5400</v>
-      </c>
-      <c r="H11" s="1">
-        <v>5400</v>
-      </c>
-      <c r="I11" s="1">
-        <v>182016</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="20" customHeight="1">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2880000</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2880000</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2880000</v>
-      </c>
-      <c r="E12" s="1">
-        <v>6000</v>
-      </c>
-      <c r="F12" s="1">
-        <v>6000</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6000</v>
-      </c>
-      <c r="H12" s="1">
-        <v>6000</v>
-      </c>
-      <c r="I12" s="1">
-        <v>204768</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
-  <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -11431,7 +10411,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -11508,13 +10488,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="C3" s="1">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="D3" s="1">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -11529,7 +10509,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -11540,13 +10520,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="C4" s="1">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="D4" s="1">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -11561,7 +10541,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>180</v>
+        <v>108</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -11572,13 +10552,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>6000</v>
+        <v>3600</v>
       </c>
       <c r="C5" s="1">
-        <v>6000</v>
+        <v>3600</v>
       </c>
       <c r="D5" s="1">
-        <v>6000</v>
+        <v>3600</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -11593,7 +10573,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -11604,13 +10584,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>12000</v>
+        <v>7200</v>
       </c>
       <c r="C6" s="1">
-        <v>12000</v>
+        <v>7200</v>
       </c>
       <c r="D6" s="1">
-        <v>12000</v>
+        <v>7200</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -11625,7 +10605,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>480</v>
+        <v>288</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -11636,13 +10616,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>36000</v>
+        <v>21600</v>
       </c>
       <c r="C7" s="1">
-        <v>36000</v>
+        <v>21600</v>
       </c>
       <c r="D7" s="1">
-        <v>36000</v>
+        <v>21600</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -11657,7 +10637,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>900</v>
+        <v>540</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -11668,13 +10648,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>72000</v>
+        <v>43200</v>
       </c>
       <c r="C8" s="1">
-        <v>72000</v>
+        <v>43200</v>
       </c>
       <c r="D8" s="1">
-        <v>72000</v>
+        <v>43200</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -11689,7 +10669,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="1">
-        <v>1800</v>
+        <v>1080</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -11700,13 +10680,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>108000</v>
+        <v>64800</v>
       </c>
       <c r="C9" s="1">
-        <v>108000</v>
+        <v>64800</v>
       </c>
       <c r="D9" s="1">
-        <v>108000</v>
+        <v>64800</v>
       </c>
       <c r="E9" s="1">
         <v>10</v>
@@ -11721,7 +10701,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="1">
-        <v>2700</v>
+        <v>1620</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -11732,13 +10712,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>144000</v>
+        <v>86400</v>
       </c>
       <c r="C10" s="1">
-        <v>144000</v>
+        <v>86400</v>
       </c>
       <c r="D10" s="1">
-        <v>144000</v>
+        <v>86400</v>
       </c>
       <c r="E10" s="1">
         <v>40</v>
@@ -11753,7 +10733,7 @@
         <v>40</v>
       </c>
       <c r="I10" s="1">
-        <v>3600</v>
+        <v>2160</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -11764,13 +10744,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>180000</v>
+        <v>108000</v>
       </c>
       <c r="C11" s="1">
-        <v>180000</v>
+        <v>108000</v>
       </c>
       <c r="D11" s="1">
-        <v>180000</v>
+        <v>108000</v>
       </c>
       <c r="E11" s="1">
         <v>120</v>
@@ -11785,7 +10765,7 @@
         <v>120</v>
       </c>
       <c r="I11" s="1">
-        <v>5400</v>
+        <v>3240</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -11796,13 +10776,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>216000</v>
+        <v>129600</v>
       </c>
       <c r="C12" s="1">
-        <v>216000</v>
+        <v>129600</v>
       </c>
       <c r="D12" s="1">
-        <v>216000</v>
+        <v>129600</v>
       </c>
       <c r="E12" s="1">
         <v>360</v>
@@ -11817,7 +10797,7 @@
         <v>360</v>
       </c>
       <c r="I12" s="1">
-        <v>7200</v>
+        <v>4320</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -11828,13 +10808,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>252000</v>
+        <v>151200</v>
       </c>
       <c r="C13" s="1">
-        <v>252000</v>
+        <v>151200</v>
       </c>
       <c r="D13" s="1">
-        <v>252000</v>
+        <v>151200</v>
       </c>
       <c r="E13" s="1">
         <v>600</v>
@@ -11849,7 +10829,7 @@
         <v>600</v>
       </c>
       <c r="I13" s="1">
-        <v>14400</v>
+        <v>8640</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -11860,13 +10840,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>288000</v>
+        <v>172800</v>
       </c>
       <c r="C14" s="1">
-        <v>288000</v>
+        <v>172800</v>
       </c>
       <c r="D14" s="1">
-        <v>288000</v>
+        <v>172800</v>
       </c>
       <c r="E14" s="1">
         <v>1200</v>
@@ -11881,7 +10861,7 @@
         <v>1200</v>
       </c>
       <c r="I14" s="1">
-        <v>21600</v>
+        <v>12960</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -11892,13 +10872,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>324000</v>
+        <v>194400</v>
       </c>
       <c r="C15" s="1">
-        <v>324000</v>
+        <v>194400</v>
       </c>
       <c r="D15" s="1">
-        <v>324000</v>
+        <v>194400</v>
       </c>
       <c r="E15" s="1">
         <v>1800</v>
@@ -11913,7 +10893,7 @@
         <v>1800</v>
       </c>
       <c r="I15" s="1">
-        <v>28800</v>
+        <v>17280</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -11924,13 +10904,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>360000</v>
+        <v>216000</v>
       </c>
       <c r="C16" s="1">
-        <v>360000</v>
+        <v>216000</v>
       </c>
       <c r="D16" s="1">
-        <v>360000</v>
+        <v>216000</v>
       </c>
       <c r="E16" s="1">
         <v>2400</v>
@@ -11945,7 +10925,7 @@
         <v>2400</v>
       </c>
       <c r="I16" s="1">
-        <v>43200</v>
+        <v>25920</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -11956,13 +10936,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>480000</v>
+        <v>288000</v>
       </c>
       <c r="C17" s="1">
-        <v>480000</v>
+        <v>288000</v>
       </c>
       <c r="D17" s="1">
-        <v>480000</v>
+        <v>288000</v>
       </c>
       <c r="E17" s="1">
         <v>3000</v>
@@ -11977,7 +10957,7 @@
         <v>3000</v>
       </c>
       <c r="I17" s="1">
-        <v>57600</v>
+        <v>34560</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -11988,13 +10968,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>600000</v>
+        <v>360000</v>
       </c>
       <c r="C18" s="1">
-        <v>600000</v>
+        <v>360000</v>
       </c>
       <c r="D18" s="1">
-        <v>600000</v>
+        <v>360000</v>
       </c>
       <c r="E18" s="1">
         <v>3600</v>
@@ -12009,7 +10989,7 @@
         <v>3600</v>
       </c>
       <c r="I18" s="1">
-        <v>72000</v>
+        <v>43200</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -12020,13 +11000,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>720000</v>
+        <v>432000</v>
       </c>
       <c r="C19" s="1">
-        <v>720000</v>
+        <v>432000</v>
       </c>
       <c r="D19" s="1">
-        <v>720000</v>
+        <v>432000</v>
       </c>
       <c r="E19" s="1">
         <v>4200</v>
@@ -12041,7 +11021,7 @@
         <v>4200</v>
       </c>
       <c r="I19" s="1">
-        <v>86400</v>
+        <v>51840</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -12052,13 +11032,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>840000</v>
+        <v>504000</v>
       </c>
       <c r="C20" s="1">
-        <v>840000</v>
+        <v>504000</v>
       </c>
       <c r="D20" s="1">
-        <v>840000</v>
+        <v>504000</v>
       </c>
       <c r="E20" s="1">
         <v>4800</v>
@@ -12073,7 +11053,7 @@
         <v>4800</v>
       </c>
       <c r="I20" s="1">
-        <v>115200</v>
+        <v>69120</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -12084,13 +11064,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>960000</v>
+        <v>576000</v>
       </c>
       <c r="C21" s="1">
-        <v>960000</v>
+        <v>576000</v>
       </c>
       <c r="D21" s="1">
-        <v>960000</v>
+        <v>576000</v>
       </c>
       <c r="E21" s="1">
         <v>5400</v>
@@ -12105,7 +11085,7 @@
         <v>5400</v>
       </c>
       <c r="I21" s="1">
-        <v>144000</v>
+        <v>86400</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -12116,13 +11096,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>1800000</v>
+        <v>1080000</v>
       </c>
       <c r="C22" s="1">
-        <v>1800000</v>
+        <v>1080000</v>
       </c>
       <c r="D22" s="1">
-        <v>1800000</v>
+        <v>1080000</v>
       </c>
       <c r="E22" s="1">
         <v>6000</v>
@@ -12137,7 +11117,7 @@
         <v>6000</v>
       </c>
       <c r="I22" s="1">
-        <v>172800</v>
+        <v>103680</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -12160,7 +11140,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -12237,13 +11217,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="C3" s="1">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="D3" s="1">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -12258,7 +11238,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -12269,13 +11249,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="C4" s="1">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="D4" s="1">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -12290,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -12301,13 +11281,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>3600</v>
+        <v>6000</v>
       </c>
       <c r="C5" s="1">
-        <v>3600</v>
+        <v>6000</v>
       </c>
       <c r="D5" s="1">
-        <v>3600</v>
+        <v>6000</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -12322,7 +11302,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -12333,13 +11313,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>7200</v>
+        <v>12000</v>
       </c>
       <c r="C6" s="1">
-        <v>7200</v>
+        <v>12000</v>
       </c>
       <c r="D6" s="1">
-        <v>7200</v>
+        <v>12000</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -12354,7 +11334,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>288</v>
+        <v>480</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -12365,13 +11345,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>21600</v>
+        <v>36000</v>
       </c>
       <c r="C7" s="1">
-        <v>21600</v>
+        <v>36000</v>
       </c>
       <c r="D7" s="1">
-        <v>21600</v>
+        <v>36000</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -12386,7 +11366,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>540</v>
+        <v>900</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -12397,13 +11377,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="C8" s="1">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="D8" s="1">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -12418,7 +11398,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="1">
-        <v>1080</v>
+        <v>1800</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -12429,13 +11409,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>64800</v>
+        <v>108000</v>
       </c>
       <c r="C9" s="1">
-        <v>64800</v>
+        <v>108000</v>
       </c>
       <c r="D9" s="1">
-        <v>64800</v>
+        <v>108000</v>
       </c>
       <c r="E9" s="1">
         <v>10</v>
@@ -12450,7 +11430,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="1">
-        <v>1620</v>
+        <v>2700</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -12461,13 +11441,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>86400</v>
+        <v>144000</v>
       </c>
       <c r="C10" s="1">
-        <v>86400</v>
+        <v>144000</v>
       </c>
       <c r="D10" s="1">
-        <v>86400</v>
+        <v>144000</v>
       </c>
       <c r="E10" s="1">
         <v>40</v>
@@ -12482,7 +11462,7 @@
         <v>40</v>
       </c>
       <c r="I10" s="1">
-        <v>2160</v>
+        <v>3600</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -12493,13 +11473,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>108000</v>
+        <v>180000</v>
       </c>
       <c r="C11" s="1">
-        <v>108000</v>
+        <v>180000</v>
       </c>
       <c r="D11" s="1">
-        <v>108000</v>
+        <v>180000</v>
       </c>
       <c r="E11" s="1">
         <v>120</v>
@@ -12514,7 +11494,7 @@
         <v>120</v>
       </c>
       <c r="I11" s="1">
-        <v>3240</v>
+        <v>5400</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -12525,13 +11505,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>129600</v>
+        <v>216000</v>
       </c>
       <c r="C12" s="1">
-        <v>129600</v>
+        <v>216000</v>
       </c>
       <c r="D12" s="1">
-        <v>129600</v>
+        <v>216000</v>
       </c>
       <c r="E12" s="1">
         <v>360</v>
@@ -12546,7 +11526,7 @@
         <v>360</v>
       </c>
       <c r="I12" s="1">
-        <v>4320</v>
+        <v>7200</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -12557,13 +11537,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>151200</v>
+        <v>252000</v>
       </c>
       <c r="C13" s="1">
-        <v>151200</v>
+        <v>252000</v>
       </c>
       <c r="D13" s="1">
-        <v>151200</v>
+        <v>252000</v>
       </c>
       <c r="E13" s="1">
         <v>600</v>
@@ -12578,7 +11558,7 @@
         <v>600</v>
       </c>
       <c r="I13" s="1">
-        <v>8640</v>
+        <v>14400</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -12589,13 +11569,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>172800</v>
+        <v>288000</v>
       </c>
       <c r="C14" s="1">
-        <v>172800</v>
+        <v>288000</v>
       </c>
       <c r="D14" s="1">
-        <v>172800</v>
+        <v>288000</v>
       </c>
       <c r="E14" s="1">
         <v>1200</v>
@@ -12610,7 +11590,7 @@
         <v>1200</v>
       </c>
       <c r="I14" s="1">
-        <v>12960</v>
+        <v>21600</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -12621,13 +11601,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>194400</v>
+        <v>324000</v>
       </c>
       <c r="C15" s="1">
-        <v>194400</v>
+        <v>324000</v>
       </c>
       <c r="D15" s="1">
-        <v>194400</v>
+        <v>324000</v>
       </c>
       <c r="E15" s="1">
         <v>1800</v>
@@ -12642,7 +11622,7 @@
         <v>1800</v>
       </c>
       <c r="I15" s="1">
-        <v>17280</v>
+        <v>28800</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -12653,13 +11633,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>216000</v>
+        <v>360000</v>
       </c>
       <c r="C16" s="1">
-        <v>216000</v>
+        <v>360000</v>
       </c>
       <c r="D16" s="1">
-        <v>216000</v>
+        <v>360000</v>
       </c>
       <c r="E16" s="1">
         <v>2400</v>
@@ -12674,7 +11654,7 @@
         <v>2400</v>
       </c>
       <c r="I16" s="1">
-        <v>25920</v>
+        <v>43200</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -12685,13 +11665,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>288000</v>
+        <v>480000</v>
       </c>
       <c r="C17" s="1">
-        <v>288000</v>
+        <v>480000</v>
       </c>
       <c r="D17" s="1">
-        <v>288000</v>
+        <v>480000</v>
       </c>
       <c r="E17" s="1">
         <v>3000</v>
@@ -12706,7 +11686,7 @@
         <v>3000</v>
       </c>
       <c r="I17" s="1">
-        <v>34560</v>
+        <v>57600</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -12717,13 +11697,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>360000</v>
+        <v>600000</v>
       </c>
       <c r="C18" s="1">
-        <v>360000</v>
+        <v>600000</v>
       </c>
       <c r="D18" s="1">
-        <v>360000</v>
+        <v>600000</v>
       </c>
       <c r="E18" s="1">
         <v>3600</v>
@@ -12738,7 +11718,7 @@
         <v>3600</v>
       </c>
       <c r="I18" s="1">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -12749,13 +11729,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>432000</v>
+        <v>720000</v>
       </c>
       <c r="C19" s="1">
-        <v>432000</v>
+        <v>720000</v>
       </c>
       <c r="D19" s="1">
-        <v>432000</v>
+        <v>720000</v>
       </c>
       <c r="E19" s="1">
         <v>4200</v>
@@ -12770,7 +11750,7 @@
         <v>4200</v>
       </c>
       <c r="I19" s="1">
-        <v>51840</v>
+        <v>86400</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -12781,13 +11761,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>504000</v>
+        <v>840000</v>
       </c>
       <c r="C20" s="1">
-        <v>504000</v>
+        <v>840000</v>
       </c>
       <c r="D20" s="1">
-        <v>504000</v>
+        <v>840000</v>
       </c>
       <c r="E20" s="1">
         <v>4800</v>
@@ -12802,7 +11782,7 @@
         <v>4800</v>
       </c>
       <c r="I20" s="1">
-        <v>69120</v>
+        <v>115200</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -12813,13 +11793,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>576000</v>
+        <v>960000</v>
       </c>
       <c r="C21" s="1">
-        <v>576000</v>
+        <v>960000</v>
       </c>
       <c r="D21" s="1">
-        <v>576000</v>
+        <v>960000</v>
       </c>
       <c r="E21" s="1">
         <v>5400</v>
@@ -12834,7 +11814,7 @@
         <v>5400</v>
       </c>
       <c r="I21" s="1">
-        <v>86400</v>
+        <v>144000</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -12845,13 +11825,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>1080000</v>
+        <v>1800000</v>
       </c>
       <c r="C22" s="1">
-        <v>1080000</v>
+        <v>1800000</v>
       </c>
       <c r="D22" s="1">
-        <v>1080000</v>
+        <v>1800000</v>
       </c>
       <c r="E22" s="1">
         <v>6000</v>
@@ -12866,7 +11846,7 @@
         <v>6000</v>
       </c>
       <c r="I22" s="1">
-        <v>103680</v>
+        <v>172800</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -12966,13 +11946,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>720</v>
+        <v>650</v>
       </c>
       <c r="C3" s="1">
-        <v>720</v>
+        <v>650</v>
       </c>
       <c r="D3" s="1">
-        <v>720</v>
+        <v>650</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -12987,7 +11967,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -12998,13 +11978,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>1440</v>
+        <v>1300</v>
       </c>
       <c r="C4" s="1">
-        <v>1440</v>
+        <v>1300</v>
       </c>
       <c r="D4" s="1">
-        <v>1440</v>
+        <v>1300</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -13019,7 +11999,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -13030,13 +12010,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>4320</v>
+        <v>3900</v>
       </c>
       <c r="C5" s="1">
-        <v>4320</v>
+        <v>3900</v>
       </c>
       <c r="D5" s="1">
-        <v>4320</v>
+        <v>3900</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -13051,7 +12031,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -13062,13 +12042,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>8640</v>
+        <v>7800</v>
       </c>
       <c r="C6" s="1">
-        <v>8640</v>
+        <v>7800</v>
       </c>
       <c r="D6" s="1">
-        <v>8640</v>
+        <v>7800</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -13083,7 +12063,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>346</v>
+        <v>312</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -13094,13 +12074,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>25920</v>
+        <v>23400</v>
       </c>
       <c r="C7" s="1">
-        <v>25920</v>
+        <v>23400</v>
       </c>
       <c r="D7" s="1">
-        <v>25920</v>
+        <v>23400</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -13115,7 +12095,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>648</v>
+        <v>585</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -13126,13 +12106,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>51840</v>
+        <v>46800</v>
       </c>
       <c r="C8" s="1">
-        <v>51840</v>
+        <v>46800</v>
       </c>
       <c r="D8" s="1">
-        <v>51840</v>
+        <v>46800</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -13147,7 +12127,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="1">
-        <v>1296</v>
+        <v>1170</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -13158,13 +12138,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>77760</v>
+        <v>70200</v>
       </c>
       <c r="C9" s="1">
-        <v>77760</v>
+        <v>70200</v>
       </c>
       <c r="D9" s="1">
-        <v>77760</v>
+        <v>70200</v>
       </c>
       <c r="E9" s="1">
         <v>10</v>
@@ -13179,7 +12159,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="1">
-        <v>1944</v>
+        <v>1755</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -13190,13 +12170,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>103680</v>
+        <v>93600</v>
       </c>
       <c r="C10" s="1">
-        <v>103680</v>
+        <v>93600</v>
       </c>
       <c r="D10" s="1">
-        <v>103680</v>
+        <v>93600</v>
       </c>
       <c r="E10" s="1">
         <v>40</v>
@@ -13211,7 +12191,7 @@
         <v>40</v>
       </c>
       <c r="I10" s="1">
-        <v>2592</v>
+        <v>2340</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -13222,13 +12202,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>129600</v>
+        <v>117000</v>
       </c>
       <c r="C11" s="1">
-        <v>129600</v>
+        <v>117000</v>
       </c>
       <c r="D11" s="1">
-        <v>129600</v>
+        <v>117000</v>
       </c>
       <c r="E11" s="1">
         <v>120</v>
@@ -13243,7 +12223,7 @@
         <v>120</v>
       </c>
       <c r="I11" s="1">
-        <v>3888</v>
+        <v>3510</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -13254,13 +12234,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>155520</v>
+        <v>140400</v>
       </c>
       <c r="C12" s="1">
-        <v>155520</v>
+        <v>140400</v>
       </c>
       <c r="D12" s="1">
-        <v>155520</v>
+        <v>140400</v>
       </c>
       <c r="E12" s="1">
         <v>360</v>
@@ -13275,7 +12255,7 @@
         <v>360</v>
       </c>
       <c r="I12" s="1">
-        <v>5184</v>
+        <v>4680</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -13286,13 +12266,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>181440</v>
+        <v>163800</v>
       </c>
       <c r="C13" s="1">
-        <v>181440</v>
+        <v>163800</v>
       </c>
       <c r="D13" s="1">
-        <v>181440</v>
+        <v>163800</v>
       </c>
       <c r="E13" s="1">
         <v>600</v>
@@ -13307,7 +12287,7 @@
         <v>600</v>
       </c>
       <c r="I13" s="1">
-        <v>10368</v>
+        <v>9360</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -13318,13 +12298,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>207360</v>
+        <v>187200</v>
       </c>
       <c r="C14" s="1">
-        <v>207360</v>
+        <v>187200</v>
       </c>
       <c r="D14" s="1">
-        <v>207360</v>
+        <v>187200</v>
       </c>
       <c r="E14" s="1">
         <v>1200</v>
@@ -13339,7 +12319,7 @@
         <v>1200</v>
       </c>
       <c r="I14" s="1">
-        <v>15552</v>
+        <v>14040</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -13350,13 +12330,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>233280</v>
+        <v>210600</v>
       </c>
       <c r="C15" s="1">
-        <v>233280</v>
+        <v>210600</v>
       </c>
       <c r="D15" s="1">
-        <v>233280</v>
+        <v>210600</v>
       </c>
       <c r="E15" s="1">
         <v>1800</v>
@@ -13371,7 +12351,7 @@
         <v>1800</v>
       </c>
       <c r="I15" s="1">
-        <v>20736</v>
+        <v>18720</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -13382,13 +12362,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>259200</v>
+        <v>234000</v>
       </c>
       <c r="C16" s="1">
-        <v>259200</v>
+        <v>234000</v>
       </c>
       <c r="D16" s="1">
-        <v>259200</v>
+        <v>234000</v>
       </c>
       <c r="E16" s="1">
         <v>2400</v>
@@ -13403,7 +12383,7 @@
         <v>2400</v>
       </c>
       <c r="I16" s="1">
-        <v>31104</v>
+        <v>28080</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -13414,13 +12394,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>345600</v>
+        <v>312000</v>
       </c>
       <c r="C17" s="1">
-        <v>345600</v>
+        <v>312000</v>
       </c>
       <c r="D17" s="1">
-        <v>345600</v>
+        <v>312000</v>
       </c>
       <c r="E17" s="1">
         <v>3000</v>
@@ -13435,7 +12415,7 @@
         <v>3000</v>
       </c>
       <c r="I17" s="1">
-        <v>41472</v>
+        <v>37440</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -13446,13 +12426,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>432000</v>
+        <v>390000</v>
       </c>
       <c r="C18" s="1">
-        <v>432000</v>
+        <v>390000</v>
       </c>
       <c r="D18" s="1">
-        <v>432000</v>
+        <v>390000</v>
       </c>
       <c r="E18" s="1">
         <v>3600</v>
@@ -13467,7 +12447,7 @@
         <v>3600</v>
       </c>
       <c r="I18" s="1">
-        <v>51840</v>
+        <v>46800</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -13478,13 +12458,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>518400</v>
+        <v>468000</v>
       </c>
       <c r="C19" s="1">
-        <v>518400</v>
+        <v>468000</v>
       </c>
       <c r="D19" s="1">
-        <v>518400</v>
+        <v>468000</v>
       </c>
       <c r="E19" s="1">
         <v>4200</v>
@@ -13499,7 +12479,7 @@
         <v>4200</v>
       </c>
       <c r="I19" s="1">
-        <v>62208</v>
+        <v>56160</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -13510,13 +12490,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>604800</v>
+        <v>546000</v>
       </c>
       <c r="C20" s="1">
-        <v>604800</v>
+        <v>546000</v>
       </c>
       <c r="D20" s="1">
-        <v>604800</v>
+        <v>546000</v>
       </c>
       <c r="E20" s="1">
         <v>4800</v>
@@ -13531,7 +12511,7 @@
         <v>4800</v>
       </c>
       <c r="I20" s="1">
-        <v>82944</v>
+        <v>74880</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -13542,13 +12522,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>691200</v>
+        <v>624000</v>
       </c>
       <c r="C21" s="1">
-        <v>691200</v>
+        <v>624000</v>
       </c>
       <c r="D21" s="1">
-        <v>691200</v>
+        <v>624000</v>
       </c>
       <c r="E21" s="1">
         <v>5400</v>
@@ -13563,7 +12543,7 @@
         <v>5400</v>
       </c>
       <c r="I21" s="1">
-        <v>103680</v>
+        <v>93600</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -13574,13 +12554,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>1296000</v>
+        <v>1170000</v>
       </c>
       <c r="C22" s="1">
-        <v>1296000</v>
+        <v>1170000</v>
       </c>
       <c r="D22" s="1">
-        <v>1296000</v>
+        <v>1170000</v>
       </c>
       <c r="E22" s="1">
         <v>6000</v>
@@ -13595,7 +12575,7 @@
         <v>6000</v>
       </c>
       <c r="I22" s="1">
-        <v>124416</v>
+        <v>112320</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -13695,13 +12675,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>740</v>
+        <v>570</v>
       </c>
       <c r="C3" s="1">
-        <v>740</v>
+        <v>570</v>
       </c>
       <c r="D3" s="1">
-        <v>740</v>
+        <v>570</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -13716,7 +12696,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -13727,13 +12707,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>1480</v>
+        <v>1140</v>
       </c>
       <c r="C4" s="1">
-        <v>1480</v>
+        <v>1140</v>
       </c>
       <c r="D4" s="1">
-        <v>1480</v>
+        <v>1140</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -13748,7 +12728,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -13759,13 +12739,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>4440</v>
+        <v>3419.9999999999995</v>
       </c>
       <c r="C5" s="1">
-        <v>4440</v>
+        <v>3419.9999999999995</v>
       </c>
       <c r="D5" s="1">
-        <v>4440</v>
+        <v>3419.9999999999995</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -13780,7 +12760,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>222</v>
+        <v>171</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -13791,13 +12771,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>8880</v>
+        <v>6839.9999999999991</v>
       </c>
       <c r="C6" s="1">
-        <v>8880</v>
+        <v>6839.9999999999991</v>
       </c>
       <c r="D6" s="1">
-        <v>8880</v>
+        <v>6839.9999999999991</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -13812,7 +12792,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>355</v>
+        <v>274</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -13823,13 +12803,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>26640</v>
+        <v>20520</v>
       </c>
       <c r="C7" s="1">
-        <v>26640</v>
+        <v>20520</v>
       </c>
       <c r="D7" s="1">
-        <v>26640</v>
+        <v>20520</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -13844,7 +12824,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>666</v>
+        <v>513</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -13855,13 +12835,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>53280</v>
+        <v>41040</v>
       </c>
       <c r="C8" s="1">
-        <v>53280</v>
+        <v>41040</v>
       </c>
       <c r="D8" s="1">
-        <v>53280</v>
+        <v>41040</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -13876,7 +12856,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="1">
-        <v>1332</v>
+        <v>1026</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -13887,13 +12867,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>79920</v>
+        <v>61559.999999999993</v>
       </c>
       <c r="C9" s="1">
-        <v>79920</v>
+        <v>61559.999999999993</v>
       </c>
       <c r="D9" s="1">
-        <v>79920</v>
+        <v>61559.999999999993</v>
       </c>
       <c r="E9" s="1">
         <v>10</v>
@@ -13908,7 +12888,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="1">
-        <v>1998</v>
+        <v>1539</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -13919,13 +12899,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>106560</v>
+        <v>82080</v>
       </c>
       <c r="C10" s="1">
-        <v>106560</v>
+        <v>82080</v>
       </c>
       <c r="D10" s="1">
-        <v>106560</v>
+        <v>82080</v>
       </c>
       <c r="E10" s="1">
         <v>40</v>
@@ -13940,7 +12920,7 @@
         <v>40</v>
       </c>
       <c r="I10" s="1">
-        <v>2664</v>
+        <v>2052</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -13951,13 +12931,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>133200</v>
+        <v>102599.99999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>133200</v>
+        <v>102599.99999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>133200</v>
+        <v>102599.99999999999</v>
       </c>
       <c r="E11" s="1">
         <v>120</v>
@@ -13972,7 +12952,7 @@
         <v>120</v>
       </c>
       <c r="I11" s="1">
-        <v>3996</v>
+        <v>3078</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -13983,13 +12963,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>159840</v>
+        <v>123119.99999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>159840</v>
+        <v>123119.99999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>159840</v>
+        <v>123119.99999999999</v>
       </c>
       <c r="E12" s="1">
         <v>360</v>
@@ -14004,7 +12984,7 @@
         <v>360</v>
       </c>
       <c r="I12" s="1">
-        <v>5328</v>
+        <v>4104</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -14015,13 +12995,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>186480</v>
+        <v>143640</v>
       </c>
       <c r="C13" s="1">
-        <v>186480</v>
+        <v>143640</v>
       </c>
       <c r="D13" s="1">
-        <v>186480</v>
+        <v>143640</v>
       </c>
       <c r="E13" s="1">
         <v>600</v>
@@ -14036,7 +13016,7 @@
         <v>600</v>
       </c>
       <c r="I13" s="1">
-        <v>10656</v>
+        <v>8208</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -14047,13 +13027,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>213120</v>
+        <v>164160</v>
       </c>
       <c r="C14" s="1">
-        <v>213120</v>
+        <v>164160</v>
       </c>
       <c r="D14" s="1">
-        <v>213120</v>
+        <v>164160</v>
       </c>
       <c r="E14" s="1">
         <v>1200</v>
@@ -14068,7 +13048,7 @@
         <v>1200</v>
       </c>
       <c r="I14" s="1">
-        <v>15984</v>
+        <v>12312</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -14079,13 +13059,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>239760</v>
+        <v>184679.99999999997</v>
       </c>
       <c r="C15" s="1">
-        <v>239760</v>
+        <v>184679.99999999997</v>
       </c>
       <c r="D15" s="1">
-        <v>239760</v>
+        <v>184679.99999999997</v>
       </c>
       <c r="E15" s="1">
         <v>1800</v>
@@ -14100,7 +13080,7 @@
         <v>1800</v>
       </c>
       <c r="I15" s="1">
-        <v>21312</v>
+        <v>16416</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -14111,13 +13091,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>266400</v>
+        <v>205199.99999999997</v>
       </c>
       <c r="C16" s="1">
-        <v>266400</v>
+        <v>205199.99999999997</v>
       </c>
       <c r="D16" s="1">
-        <v>266400</v>
+        <v>205199.99999999997</v>
       </c>
       <c r="E16" s="1">
         <v>2400</v>
@@ -14132,7 +13112,7 @@
         <v>2400</v>
       </c>
       <c r="I16" s="1">
-        <v>31968</v>
+        <v>24624</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -14143,13 +13123,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>355200</v>
+        <v>273600</v>
       </c>
       <c r="C17" s="1">
-        <v>355200</v>
+        <v>273600</v>
       </c>
       <c r="D17" s="1">
-        <v>355200</v>
+        <v>273600</v>
       </c>
       <c r="E17" s="1">
         <v>3000</v>
@@ -14164,7 +13144,7 @@
         <v>3000</v>
       </c>
       <c r="I17" s="1">
-        <v>42624</v>
+        <v>32832</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -14175,13 +13155,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>444000</v>
+        <v>341999.99999999994</v>
       </c>
       <c r="C18" s="1">
-        <v>444000</v>
+        <v>341999.99999999994</v>
       </c>
       <c r="D18" s="1">
-        <v>444000</v>
+        <v>341999.99999999994</v>
       </c>
       <c r="E18" s="1">
         <v>3600</v>
@@ -14196,7 +13176,7 @@
         <v>3600</v>
       </c>
       <c r="I18" s="1">
-        <v>53280</v>
+        <v>41040</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -14207,13 +13187,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>532800</v>
+        <v>410399.99999999994</v>
       </c>
       <c r="C19" s="1">
-        <v>532800</v>
+        <v>410399.99999999994</v>
       </c>
       <c r="D19" s="1">
-        <v>532800</v>
+        <v>410399.99999999994</v>
       </c>
       <c r="E19" s="1">
         <v>4200</v>
@@ -14228,7 +13208,7 @@
         <v>4200</v>
       </c>
       <c r="I19" s="1">
-        <v>63936</v>
+        <v>49248</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -14239,13 +13219,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>621600</v>
+        <v>478799.99999999994</v>
       </c>
       <c r="C20" s="1">
-        <v>621600</v>
+        <v>478799.99999999994</v>
       </c>
       <c r="D20" s="1">
-        <v>621600</v>
+        <v>478799.99999999994</v>
       </c>
       <c r="E20" s="1">
         <v>4800</v>
@@ -14260,7 +13240,7 @@
         <v>4800</v>
       </c>
       <c r="I20" s="1">
-        <v>85248</v>
+        <v>65664</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -14271,13 +13251,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>710400</v>
+        <v>547200</v>
       </c>
       <c r="C21" s="1">
-        <v>710400</v>
+        <v>547200</v>
       </c>
       <c r="D21" s="1">
-        <v>710400</v>
+        <v>547200</v>
       </c>
       <c r="E21" s="1">
         <v>5400</v>
@@ -14292,7 +13272,7 @@
         <v>5400</v>
       </c>
       <c r="I21" s="1">
-        <v>106560</v>
+        <v>82080</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -14303,13 +13283,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>1332000</v>
+        <v>1025999.9999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>1332000</v>
+        <v>1025999.9999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>1332000</v>
+        <v>1025999.9999999999</v>
       </c>
       <c r="E22" s="1">
         <v>6000</v>
@@ -14324,7 +13304,7 @@
         <v>6000</v>
       </c>
       <c r="I22" s="1">
-        <v>127872</v>
+        <v>98496</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -14344,10 +13324,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -14424,28 +13404,28 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>690</v>
+        <v>32400</v>
       </c>
       <c r="C3" s="1">
-        <v>690</v>
+        <v>32400</v>
       </c>
       <c r="D3" s="1">
-        <v>690</v>
+        <v>32400</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I3" s="1">
-        <v>45</v>
+        <v>2430</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -14456,28 +13436,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>1380</v>
+        <v>64800</v>
       </c>
       <c r="C4" s="1">
-        <v>1380</v>
+        <v>64800</v>
       </c>
       <c r="D4" s="1">
-        <v>1380</v>
+        <v>64800</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H4" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I4" s="1">
-        <v>124</v>
+        <v>3240</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -14488,28 +13468,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>4140</v>
+        <v>97200</v>
       </c>
       <c r="C5" s="1">
-        <v>4140</v>
+        <v>97200</v>
       </c>
       <c r="D5" s="1">
-        <v>4140</v>
+        <v>97200</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I5" s="1">
-        <v>207</v>
+        <v>4860</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -14520,28 +13500,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>8280</v>
+        <v>129600</v>
       </c>
       <c r="C6" s="1">
-        <v>8280</v>
+        <v>129600</v>
       </c>
       <c r="D6" s="1">
-        <v>8280</v>
+        <v>129600</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="H6" s="1">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="I6" s="1">
-        <v>331</v>
+        <v>6480</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -14552,28 +13532,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>24839.999999999996</v>
+        <v>162000</v>
       </c>
       <c r="C7" s="1">
-        <v>24839.999999999996</v>
+        <v>162000</v>
       </c>
       <c r="D7" s="1">
-        <v>24839.999999999996</v>
+        <v>162000</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I7" s="1">
-        <v>621</v>
+        <v>12960</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -14584,28 +13564,28 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>49679.999999999993</v>
+        <v>194400</v>
       </c>
       <c r="C8" s="1">
-        <v>49679.999999999993</v>
+        <v>194400</v>
       </c>
       <c r="D8" s="1">
-        <v>49679.999999999993</v>
+        <v>194400</v>
       </c>
       <c r="E8" s="1">
-        <v>2</v>
+        <v>1200</v>
       </c>
       <c r="F8" s="1">
-        <v>2</v>
+        <v>1200</v>
       </c>
       <c r="G8" s="1">
-        <v>2</v>
+        <v>1200</v>
       </c>
       <c r="H8" s="1">
-        <v>2</v>
+        <v>1200</v>
       </c>
       <c r="I8" s="1">
-        <v>1242</v>
+        <v>19440</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -14616,28 +13596,28 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>74520</v>
+        <v>226800</v>
       </c>
       <c r="C9" s="1">
-        <v>74520</v>
+        <v>226800</v>
       </c>
       <c r="D9" s="1">
-        <v>74520</v>
+        <v>226800</v>
       </c>
       <c r="E9" s="1">
-        <v>10</v>
+        <v>1800</v>
       </c>
       <c r="F9" s="1">
-        <v>10</v>
+        <v>1800</v>
       </c>
       <c r="G9" s="1">
-        <v>10</v>
+        <v>1800</v>
       </c>
       <c r="H9" s="1">
-        <v>10</v>
+        <v>1800</v>
       </c>
       <c r="I9" s="1">
-        <v>1863</v>
+        <v>25920</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -14648,28 +13628,28 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>99359.999999999985</v>
+        <v>259200</v>
       </c>
       <c r="C10" s="1">
-        <v>99359.999999999985</v>
+        <v>259200</v>
       </c>
       <c r="D10" s="1">
-        <v>99359.999999999985</v>
+        <v>259200</v>
       </c>
       <c r="E10" s="1">
-        <v>40</v>
+        <v>2400</v>
       </c>
       <c r="F10" s="1">
-        <v>40</v>
+        <v>2400</v>
       </c>
       <c r="G10" s="1">
-        <v>40</v>
+        <v>2400</v>
       </c>
       <c r="H10" s="1">
-        <v>40</v>
+        <v>2400</v>
       </c>
       <c r="I10" s="1">
-        <v>2484</v>
+        <v>38880</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -14680,28 +13660,28 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>124199.99999999999</v>
+        <v>291600</v>
       </c>
       <c r="C11" s="1">
-        <v>124199.99999999999</v>
+        <v>291600</v>
       </c>
       <c r="D11" s="1">
-        <v>124199.99999999999</v>
+        <v>291600</v>
       </c>
       <c r="E11" s="1">
-        <v>120</v>
+        <v>3000</v>
       </c>
       <c r="F11" s="1">
-        <v>120</v>
+        <v>3000</v>
       </c>
       <c r="G11" s="1">
-        <v>120</v>
+        <v>3000</v>
       </c>
       <c r="H11" s="1">
-        <v>120</v>
+        <v>3000</v>
       </c>
       <c r="I11" s="1">
-        <v>3726</v>
+        <v>51840</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -14712,28 +13692,28 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>149040</v>
+        <v>324000</v>
       </c>
       <c r="C12" s="1">
-        <v>149040</v>
+        <v>324000</v>
       </c>
       <c r="D12" s="1">
-        <v>149040</v>
+        <v>324000</v>
       </c>
       <c r="E12" s="1">
-        <v>360</v>
+        <v>3600</v>
       </c>
       <c r="F12" s="1">
-        <v>360</v>
+        <v>3600</v>
       </c>
       <c r="G12" s="1">
-        <v>360</v>
+        <v>3600</v>
       </c>
       <c r="H12" s="1">
-        <v>360</v>
+        <v>3600</v>
       </c>
       <c r="I12" s="1">
-        <v>4968</v>
+        <v>64800</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -14744,28 +13724,28 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>173880</v>
+        <v>432000</v>
       </c>
       <c r="C13" s="1">
-        <v>173880</v>
+        <v>432000</v>
       </c>
       <c r="D13" s="1">
-        <v>173880</v>
+        <v>432000</v>
       </c>
       <c r="E13" s="1">
-        <v>600</v>
+        <v>4200</v>
       </c>
       <c r="F13" s="1">
-        <v>600</v>
+        <v>4200</v>
       </c>
       <c r="G13" s="1">
-        <v>600</v>
+        <v>4200</v>
       </c>
       <c r="H13" s="1">
-        <v>600</v>
+        <v>4200</v>
       </c>
       <c r="I13" s="1">
-        <v>9936</v>
+        <v>77760</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -14776,28 +13756,28 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>198719.99999999997</v>
+        <v>540000</v>
       </c>
       <c r="C14" s="1">
-        <v>198719.99999999997</v>
+        <v>540000</v>
       </c>
       <c r="D14" s="1">
-        <v>198719.99999999997</v>
+        <v>540000</v>
       </c>
       <c r="E14" s="1">
-        <v>1200</v>
+        <v>4800</v>
       </c>
       <c r="F14" s="1">
-        <v>1200</v>
+        <v>4800</v>
       </c>
       <c r="G14" s="1">
-        <v>1200</v>
+        <v>4800</v>
       </c>
       <c r="H14" s="1">
-        <v>1200</v>
+        <v>4800</v>
       </c>
       <c r="I14" s="1">
-        <v>14904</v>
+        <v>103680</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -14808,28 +13788,28 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>223559.99999999997</v>
+        <v>648000</v>
       </c>
       <c r="C15" s="1">
-        <v>223559.99999999997</v>
+        <v>648000</v>
       </c>
       <c r="D15" s="1">
-        <v>223559.99999999997</v>
+        <v>648000</v>
       </c>
       <c r="E15" s="1">
-        <v>1800</v>
+        <v>5400</v>
       </c>
       <c r="F15" s="1">
-        <v>1800</v>
+        <v>5400</v>
       </c>
       <c r="G15" s="1">
-        <v>1800</v>
+        <v>5400</v>
       </c>
       <c r="H15" s="1">
-        <v>1800</v>
+        <v>5400</v>
       </c>
       <c r="I15" s="1">
-        <v>19872</v>
+        <v>129600</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -14840,28 +13820,28 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>248399.99999999997</v>
+        <v>756000</v>
       </c>
       <c r="C16" s="1">
-        <v>248399.99999999997</v>
+        <v>756000</v>
       </c>
       <c r="D16" s="1">
-        <v>248399.99999999997</v>
+        <v>756000</v>
       </c>
       <c r="E16" s="1">
-        <v>2400</v>
+        <v>6000</v>
       </c>
       <c r="F16" s="1">
-        <v>2400</v>
+        <v>6000</v>
       </c>
       <c r="G16" s="1">
-        <v>2400</v>
+        <v>6000</v>
       </c>
       <c r="H16" s="1">
-        <v>2400</v>
+        <v>6000</v>
       </c>
       <c r="I16" s="1">
-        <v>29808</v>
+        <v>155520</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -14872,28 +13852,28 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>331200</v>
+        <v>864000</v>
       </c>
       <c r="C17" s="1">
-        <v>331200</v>
+        <v>864000</v>
       </c>
       <c r="D17" s="1">
-        <v>331200</v>
+        <v>864000</v>
       </c>
       <c r="E17" s="1">
-        <v>3000</v>
+        <v>6600</v>
       </c>
       <c r="F17" s="1">
-        <v>3000</v>
+        <v>6600</v>
       </c>
       <c r="G17" s="1">
-        <v>3000</v>
+        <v>6600</v>
       </c>
       <c r="H17" s="1">
-        <v>3000</v>
+        <v>6600</v>
       </c>
       <c r="I17" s="1">
-        <v>39744</v>
+        <v>181440</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -14904,158 +13884,30 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>413999.99999999994</v>
+        <v>1620000</v>
       </c>
       <c r="C18" s="1">
-        <v>413999.99999999994</v>
+        <v>1620000</v>
       </c>
       <c r="D18" s="1">
-        <v>413999.99999999994</v>
+        <v>1620000</v>
       </c>
       <c r="E18" s="1">
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="F18" s="1">
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="G18" s="1">
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="H18" s="1">
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="I18" s="1">
-        <v>49680</v>
+        <v>207360</v>
       </c>
       <c r="J18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="20" customHeight="1">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1">
-        <v>496799.99999999994</v>
-      </c>
-      <c r="C19" s="1">
-        <v>496799.99999999994</v>
-      </c>
-      <c r="D19" s="1">
-        <v>496799.99999999994</v>
-      </c>
-      <c r="E19" s="1">
-        <v>4200</v>
-      </c>
-      <c r="F19" s="1">
-        <v>4200</v>
-      </c>
-      <c r="G19" s="1">
-        <v>4200</v>
-      </c>
-      <c r="H19" s="1">
-        <v>4200</v>
-      </c>
-      <c r="I19" s="1">
-        <v>59616</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="20" customHeight="1">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1">
-        <v>579600</v>
-      </c>
-      <c r="C20" s="1">
-        <v>579600</v>
-      </c>
-      <c r="D20" s="1">
-        <v>579600</v>
-      </c>
-      <c r="E20" s="1">
-        <v>4800</v>
-      </c>
-      <c r="F20" s="1">
-        <v>4800</v>
-      </c>
-      <c r="G20" s="1">
-        <v>4800</v>
-      </c>
-      <c r="H20" s="1">
-        <v>4800</v>
-      </c>
-      <c r="I20" s="1">
-        <v>79488</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="20" customHeight="1">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1">
-        <v>662400</v>
-      </c>
-      <c r="C21" s="1">
-        <v>662400</v>
-      </c>
-      <c r="D21" s="1">
-        <v>662400</v>
-      </c>
-      <c r="E21" s="1">
-        <v>5400</v>
-      </c>
-      <c r="F21" s="1">
-        <v>5400</v>
-      </c>
-      <c r="G21" s="1">
-        <v>5400</v>
-      </c>
-      <c r="H21" s="1">
-        <v>5400</v>
-      </c>
-      <c r="I21" s="1">
-        <v>99360</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="20" customHeight="1">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1242000</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1242000</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1242000</v>
-      </c>
-      <c r="E22" s="1">
-        <v>6000</v>
-      </c>
-      <c r="F22" s="1">
-        <v>6000</v>
-      </c>
-      <c r="G22" s="1">
-        <v>6000</v>
-      </c>
-      <c r="H22" s="1">
-        <v>6000</v>
-      </c>
-      <c r="I22" s="1">
-        <v>119232</v>
-      </c>
-      <c r="J22" s="1">
         <v>0</v>
       </c>
     </row>

--- a/gameData/shared/BuildingLevelUp.xlsx
+++ b/gameData/shared/BuildingLevelUp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="1300" windowWidth="37960" windowHeight="15820" tabRatio="883" activeTab="21"/>
+    <workbookView xWindow="380" yWindow="1300" windowWidth="37960" windowHeight="15820" tabRatio="883" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="wall" sheetId="18" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="tradeGuild" sheetId="39" r:id="rId18"/>
     <sheet name="workshop" sheetId="44" r:id="rId19"/>
     <sheet name="trainingGround" sheetId="41" r:id="rId20"/>
-    <sheet name="hunterhall" sheetId="42" r:id="rId21"/>
+    <sheet name="hunterHall" sheetId="42" r:id="rId21"/>
     <sheet name="stable" sheetId="43" r:id="rId22"/>
   </sheets>
   <definedNames>
@@ -8070,7 +8070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -8479,7 +8479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>

--- a/gameData/shared/BuildingLevelUp.xlsx
+++ b/gameData/shared/BuildingLevelUp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-340" yWindow="0" windowWidth="25000" windowHeight="15600" tabRatio="883"/>
+    <workbookView xWindow="2440" yWindow="0" windowWidth="30200" windowHeight="17700" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -332,7 +332,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="548">
+  <cellStyleXfs count="556">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -347,6 +347,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -901,7 +909,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="548">
+  <cellStyles count="556">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1178,6 +1186,10 @@
     <cellStyle name="超链接" xfId="542" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="544" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="546" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="548" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="550" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="552" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="554" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1447,6 +1459,10 @@
     <cellStyle name="访问过的超链接" xfId="543" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="545" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="547" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="549" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="551" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="553" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="555" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1899,7 +1915,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I41"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1962,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -1991,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -2020,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>120</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -2049,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>300</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -2078,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>600</v>
+        <v>480</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">

--- a/gameData/shared/BuildingLevelUp.xlsx
+++ b/gameData/shared/BuildingLevelUp.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7780" yWindow="0" windowWidth="29780" windowHeight="21140" tabRatio="883" activeTab="2"/>
+    <workbookView xWindow="260" yWindow="0" windowWidth="34920" windowHeight="21140" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -327,7 +327,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="802">
+  <cellStyleXfs count="844">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -342,6 +342,48 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1150,7 +1192,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="802">
+  <cellStyles count="844">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1554,6 +1596,27 @@
     <cellStyle name="超链接" xfId="796" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="798" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="800" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="802" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="804" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="806" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="808" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="810" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="812" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="814" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="816" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="818" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="820" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="822" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="824" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="826" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="828" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="830" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="832" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="834" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="836" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="838" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="840" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="842" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1950,6 +2013,27 @@
     <cellStyle name="访问过的超链接" xfId="797" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="799" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="801" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="803" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="805" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="807" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="809" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="811" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="813" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="815" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="817" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="819" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="821" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="823" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="825" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="827" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="829" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="831" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="833" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="835" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="837" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="839" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="841" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="843" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2401,8 +2485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2755,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>4800</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -2784,7 +2868,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>6000</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -2813,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>7200</v>
+        <v>9720</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -2842,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>14400</v>
+        <v>20160</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -2871,7 +2955,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="1">
-        <v>21600</v>
+        <v>31320</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1">
@@ -2900,7 +2984,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="1">
-        <v>28800</v>
+        <v>43200</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
@@ -2929,7 +3013,7 @@
         <v>8</v>
       </c>
       <c r="I18" s="1">
-        <v>36000</v>
+        <v>55800</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1">
@@ -2958,7 +3042,7 @@
         <v>15</v>
       </c>
       <c r="I19" s="1">
-        <v>43200</v>
+        <v>69120</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
@@ -2987,7 +3071,7 @@
         <v>20</v>
       </c>
       <c r="I20" s="1">
-        <v>50400</v>
+        <v>83160</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
@@ -3016,7 +3100,7 @@
         <v>32</v>
       </c>
       <c r="I21" s="1">
-        <v>57600</v>
+        <v>97920</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
@@ -3045,7 +3129,7 @@
         <v>48</v>
       </c>
       <c r="I22" s="1">
-        <v>64800</v>
+        <v>113400</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
@@ -3074,7 +3158,7 @@
         <v>64</v>
       </c>
       <c r="I23" s="1">
-        <v>72000</v>
+        <v>129600</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
@@ -3103,7 +3187,7 @@
         <v>80</v>
       </c>
       <c r="I24" s="1">
-        <v>79200</v>
+        <v>144144</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
@@ -3132,7 +3216,7 @@
         <v>100</v>
       </c>
       <c r="I25" s="1">
-        <v>86400</v>
+        <v>158976</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1">
@@ -3161,7 +3245,7 @@
         <v>140</v>
       </c>
       <c r="I26" s="1">
-        <v>93600</v>
+        <v>173160</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1">
@@ -3190,7 +3274,7 @@
         <v>160</v>
       </c>
       <c r="I27" s="1">
-        <v>100800</v>
+        <v>187488</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20" customHeight="1">
@@ -3219,7 +3303,7 @@
         <v>180</v>
       </c>
       <c r="I28" s="1">
-        <v>108000</v>
+        <v>201960</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1">
@@ -3248,7 +3332,7 @@
         <v>210</v>
       </c>
       <c r="I29" s="1">
-        <v>115200</v>
+        <v>216576</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
@@ -3277,7 +3361,7 @@
         <v>320</v>
       </c>
       <c r="I30" s="1">
-        <v>129600</v>
+        <v>244944</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
@@ -3306,7 +3390,7 @@
         <v>390</v>
       </c>
       <c r="I31" s="1">
-        <v>144000</v>
+        <v>273600</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
@@ -3335,7 +3419,7 @@
         <v>450</v>
       </c>
       <c r="I32" s="1">
-        <v>158400</v>
+        <v>302544</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
@@ -3364,7 +3448,7 @@
         <v>500</v>
       </c>
       <c r="I33" s="1">
-        <v>172800</v>
+        <v>331776</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="20" customHeight="1">
@@ -3393,7 +3477,7 @@
         <v>680</v>
       </c>
       <c r="I34" s="1">
-        <v>187200</v>
+        <v>361296</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
@@ -3422,7 +3506,7 @@
         <v>780</v>
       </c>
       <c r="I35" s="1">
-        <v>201600</v>
+        <v>391104</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1">
@@ -3451,7 +3535,7 @@
         <v>900</v>
       </c>
       <c r="I36" s="1">
-        <v>216000</v>
+        <v>421200</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
@@ -3480,7 +3564,7 @@
         <v>1020</v>
       </c>
       <c r="I37" s="1">
-        <v>230400</v>
+        <v>451584</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
@@ -3509,7 +3593,7 @@
         <v>1160</v>
       </c>
       <c r="I38" s="1">
-        <v>244800</v>
+        <v>482256</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1">
@@ -3538,7 +3622,7 @@
         <v>1280</v>
       </c>
       <c r="I39" s="1">
-        <v>259200</v>
+        <v>513216</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1">
@@ -3567,7 +3651,7 @@
         <v>1480</v>
       </c>
       <c r="I40" s="1">
-        <v>273600</v>
+        <v>544464</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20" customHeight="1">
@@ -3596,7 +3680,7 @@
         <v>1650</v>
       </c>
       <c r="I41" s="1">
-        <v>288000</v>
+        <v>576000</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="20" customHeight="1">
@@ -3625,8 +3709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView showRuler="0" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3689,7 +3773,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>280</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -3718,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>360</v>
+        <v>562</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -3747,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>440</v>
+        <v>594</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -3776,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>520</v>
+        <v>625</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -3805,7 +3889,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>600</v>
+        <v>656</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -3834,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>680</v>
+        <v>687</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -3979,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>2996</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -4008,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>3620</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -4037,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>4244</v>
+        <v>5554</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -4066,7 +4150,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>7988</v>
+        <v>10983</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -4095,7 +4179,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="1">
-        <v>11732</v>
+        <v>16786</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1">
@@ -4124,7 +4208,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="1">
-        <v>15476</v>
+        <v>22964</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
@@ -4153,7 +4237,7 @@
         <v>8</v>
       </c>
       <c r="I18" s="1">
-        <v>19220</v>
+        <v>29516</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1">
@@ -4182,7 +4266,7 @@
         <v>12</v>
       </c>
       <c r="I19" s="1">
-        <v>22964</v>
+        <v>36442</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
@@ -4211,7 +4295,7 @@
         <v>16</v>
       </c>
       <c r="I20" s="1">
-        <v>26708</v>
+        <v>43743</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
@@ -4240,7 +4324,7 @@
         <v>20</v>
       </c>
       <c r="I21" s="1">
-        <v>30452</v>
+        <v>51418</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
@@ -4269,7 +4353,7 @@
         <v>28</v>
       </c>
       <c r="I22" s="1">
-        <v>34196</v>
+        <v>59468</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
@@ -4298,7 +4382,7 @@
         <v>36</v>
       </c>
       <c r="I23" s="1">
-        <v>37940</v>
+        <v>67892</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
@@ -4327,7 +4411,7 @@
         <v>44</v>
       </c>
       <c r="I24" s="1">
-        <v>41684</v>
+        <v>75455</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
@@ -4356,7 +4440,7 @@
         <v>52</v>
       </c>
       <c r="I25" s="1">
-        <v>45428</v>
+        <v>83168</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1">
@@ -4385,7 +4469,7 @@
         <v>68</v>
       </c>
       <c r="I26" s="1">
-        <v>49172</v>
+        <v>90543</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1">
@@ -4414,7 +4498,7 @@
         <v>84</v>
       </c>
       <c r="I27" s="1">
-        <v>52916</v>
+        <v>97994</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20" customHeight="1">
@@ -4443,7 +4527,7 @@
         <v>100</v>
       </c>
       <c r="I28" s="1">
-        <v>56660</v>
+        <v>105519</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1">
@@ -4472,7 +4556,7 @@
         <v>116</v>
       </c>
       <c r="I29" s="1">
-        <v>60404</v>
+        <v>113120</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
@@ -4501,7 +4585,7 @@
         <v>132</v>
       </c>
       <c r="I30" s="1">
-        <v>67892</v>
+        <v>127871</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
@@ -4530,7 +4614,7 @@
         <v>164</v>
       </c>
       <c r="I31" s="1">
-        <v>75380</v>
+        <v>142772</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
@@ -4559,7 +4643,7 @@
         <v>196</v>
       </c>
       <c r="I32" s="1">
-        <v>82868</v>
+        <v>157823</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
@@ -4588,7 +4672,7 @@
         <v>228</v>
       </c>
       <c r="I33" s="1">
-        <v>90356</v>
+        <v>173024</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="20" customHeight="1">
@@ -4617,7 +4701,7 @@
         <v>292</v>
       </c>
       <c r="I34" s="1">
-        <v>97844</v>
+        <v>188374</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
@@ -4646,7 +4730,7 @@
         <v>356</v>
       </c>
       <c r="I35" s="1">
-        <v>105332</v>
+        <v>203874</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1">
@@ -4675,7 +4759,7 @@
         <v>420</v>
       </c>
       <c r="I36" s="1">
-        <v>112820</v>
+        <v>219524</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
@@ -4704,7 +4788,7 @@
         <v>484</v>
       </c>
       <c r="I37" s="1">
-        <v>120308</v>
+        <v>235324</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
@@ -4733,7 +4817,7 @@
         <v>548</v>
       </c>
       <c r="I38" s="1">
-        <v>127796</v>
+        <v>251273</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1">
@@ -4762,7 +4846,7 @@
         <v>612</v>
       </c>
       <c r="I39" s="1">
-        <v>135284</v>
+        <v>267372</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1">
@@ -4791,7 +4875,7 @@
         <v>676</v>
       </c>
       <c r="I40" s="1">
-        <v>142772</v>
+        <v>283621</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20" customHeight="1">
@@ -4820,7 +4904,7 @@
         <v>740</v>
       </c>
       <c r="I41" s="1">
-        <v>150260</v>
+        <v>300020</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="20" customHeight="1">
@@ -4857,7 +4941,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I45"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4920,7 +5004,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>400</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -4949,7 +5033,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>500</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -4978,7 +5062,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>600</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -5007,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>800</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -5036,7 +5120,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>1000</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -5065,7 +5149,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>1200</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -5094,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>1400</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -5210,7 +5294,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>3592</v>
+        <v>4240</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -5239,7 +5323,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>4240</v>
+        <v>5212</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -5268,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>4888</v>
+        <v>6249</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -5297,7 +5381,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>8776</v>
+        <v>11886</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -5326,7 +5410,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="1">
-        <v>12664</v>
+        <v>17913</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1">
@@ -5355,7 +5439,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="1">
-        <v>16552</v>
+        <v>24328</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
@@ -5384,7 +5468,7 @@
         <v>8</v>
       </c>
       <c r="I18" s="1">
-        <v>20440</v>
+        <v>31132</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1">
@@ -5413,7 +5497,7 @@
         <v>12</v>
       </c>
       <c r="I19" s="1">
-        <v>24328</v>
+        <v>38325</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
@@ -5442,7 +5526,7 @@
         <v>16</v>
       </c>
       <c r="I20" s="1">
-        <v>28216</v>
+        <v>45906</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
@@ -5471,7 +5555,7 @@
         <v>20</v>
       </c>
       <c r="I21" s="1">
-        <v>32104</v>
+        <v>53877</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
@@ -5500,7 +5584,7 @@
         <v>28</v>
       </c>
       <c r="I22" s="1">
-        <v>35992</v>
+        <v>62236</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
@@ -5529,7 +5613,7 @@
         <v>36</v>
       </c>
       <c r="I23" s="1">
-        <v>39880</v>
+        <v>70984</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
@@ -5558,7 +5642,7 @@
         <v>44</v>
       </c>
       <c r="I24" s="1">
-        <v>43768</v>
+        <v>78838</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
@@ -5587,7 +5671,7 @@
         <v>52</v>
       </c>
       <c r="I25" s="1">
-        <v>47656</v>
+        <v>86847</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1">
@@ -5616,7 +5700,7 @@
         <v>68</v>
       </c>
       <c r="I26" s="1">
-        <v>51544</v>
+        <v>94506</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1">
@@ -5645,7 +5729,7 @@
         <v>84</v>
       </c>
       <c r="I27" s="1">
-        <v>55432</v>
+        <v>102244</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20" customHeight="1">
@@ -5674,7 +5758,7 @@
         <v>100</v>
       </c>
       <c r="I28" s="1">
-        <v>59320</v>
+        <v>110058</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1">
@@ -5703,7 +5787,7 @@
         <v>116</v>
       </c>
       <c r="I29" s="1">
-        <v>63208</v>
+        <v>117951</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
@@ -5732,7 +5816,7 @@
         <v>132</v>
       </c>
       <c r="I30" s="1">
-        <v>70984</v>
+        <v>133270</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
@@ -5761,7 +5845,7 @@
         <v>164</v>
       </c>
       <c r="I31" s="1">
-        <v>78760</v>
+        <v>148744</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
@@ -5790,7 +5874,7 @@
         <v>196</v>
       </c>
       <c r="I32" s="1">
-        <v>86536</v>
+        <v>164374</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
@@ -5819,7 +5903,7 @@
         <v>228</v>
       </c>
       <c r="I33" s="1">
-        <v>94312</v>
+        <v>180159</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="20" customHeight="1">
@@ -5848,7 +5932,7 @@
         <v>292</v>
       </c>
       <c r="I34" s="1">
-        <v>102088</v>
+        <v>196100</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
@@ -5877,7 +5961,7 @@
         <v>356</v>
       </c>
       <c r="I35" s="1">
-        <v>109864</v>
+        <v>212196</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1">
@@ -5906,7 +5990,7 @@
         <v>420</v>
       </c>
       <c r="I36" s="1">
-        <v>117640</v>
+        <v>228448</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
@@ -5935,7 +6019,7 @@
         <v>484</v>
       </c>
       <c r="I37" s="1">
-        <v>125416</v>
+        <v>244855</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
@@ -5964,7 +6048,7 @@
         <v>548</v>
       </c>
       <c r="I38" s="1">
-        <v>133192</v>
+        <v>261418</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1">
@@ -5993,7 +6077,7 @@
         <v>612</v>
       </c>
       <c r="I39" s="1">
-        <v>140968</v>
+        <v>278137</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1">
@@ -6022,7 +6106,7 @@
         <v>676</v>
       </c>
       <c r="I40" s="1">
-        <v>148744</v>
+        <v>295011</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20" customHeight="1">
@@ -6051,7 +6135,7 @@
         <v>740</v>
       </c>
       <c r="I41" s="1">
-        <v>156520</v>
+        <v>312040</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="20" customHeight="1">
@@ -6076,7 +6160,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I43"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6139,7 +6223,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1200</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -6168,7 +6252,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>1400</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -6197,7 +6281,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>1600</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -6226,7 +6310,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>1800</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -6255,7 +6339,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>2000</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -6284,7 +6368,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>2200</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -6313,7 +6397,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>2400</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -6429,7 +6513,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>4688</v>
+        <v>5360</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -6458,7 +6542,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>5360</v>
+        <v>6368</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -6487,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>6032</v>
+        <v>7443</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -6516,7 +6600,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>10064</v>
+        <v>13290</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -6545,7 +6629,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="1">
-        <v>14096</v>
+        <v>19539</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1">
@@ -6574,7 +6658,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="1">
-        <v>18128</v>
+        <v>26192</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
@@ -6603,7 +6687,7 @@
         <v>8</v>
       </c>
       <c r="I18" s="1">
-        <v>22160</v>
+        <v>33248</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1">
@@ -6632,7 +6716,7 @@
         <v>12</v>
       </c>
       <c r="I19" s="1">
-        <v>26192</v>
+        <v>40707</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
@@ -6661,7 +6745,7 @@
         <v>16</v>
       </c>
       <c r="I20" s="1">
-        <v>30224</v>
+        <v>48570</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
@@ -6690,7 +6774,7 @@
         <v>20</v>
       </c>
       <c r="I21" s="1">
-        <v>34256</v>
+        <v>56835</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
@@ -6719,7 +6803,7 @@
         <v>28</v>
       </c>
       <c r="I22" s="1">
-        <v>38288</v>
+        <v>65504</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
@@ -6748,7 +6832,7 @@
         <v>36</v>
       </c>
       <c r="I23" s="1">
-        <v>42320</v>
+        <v>74576</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
@@ -6777,7 +6861,7 @@
         <v>44</v>
       </c>
       <c r="I24" s="1">
-        <v>46352</v>
+        <v>82721</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
@@ -6806,7 +6890,7 @@
         <v>52</v>
       </c>
       <c r="I25" s="1">
-        <v>50384</v>
+        <v>91027</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1">
@@ -6835,7 +6919,7 @@
         <v>68</v>
       </c>
       <c r="I26" s="1">
-        <v>54416</v>
+        <v>98970</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1">
@@ -6864,7 +6948,7 @@
         <v>84</v>
       </c>
       <c r="I27" s="1">
-        <v>58448</v>
+        <v>106993</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20" customHeight="1">
@@ -6893,7 +6977,7 @@
         <v>100</v>
       </c>
       <c r="I28" s="1">
-        <v>62480</v>
+        <v>115098</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1">
@@ -6922,7 +7006,7 @@
         <v>116</v>
       </c>
       <c r="I29" s="1">
-        <v>66512</v>
+        <v>123283</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
@@ -6951,7 +7035,7 @@
         <v>132</v>
       </c>
       <c r="I30" s="1">
-        <v>74576</v>
+        <v>139169</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
@@ -6980,7 +7064,7 @@
         <v>164</v>
       </c>
       <c r="I31" s="1">
-        <v>82640</v>
+        <v>155216</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
@@ -7009,7 +7093,7 @@
         <v>196</v>
       </c>
       <c r="I32" s="1">
-        <v>90704</v>
+        <v>171425</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
@@ -7038,7 +7122,7 @@
         <v>228</v>
       </c>
       <c r="I33" s="1">
-        <v>98768</v>
+        <v>187795</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="20" customHeight="1">
@@ -7067,7 +7151,7 @@
         <v>292</v>
       </c>
       <c r="I34" s="1">
-        <v>106832</v>
+        <v>204326</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
@@ -7096,7 +7180,7 @@
         <v>356</v>
       </c>
       <c r="I35" s="1">
-        <v>114896</v>
+        <v>221018</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1">
@@ -7125,7 +7209,7 @@
         <v>420</v>
       </c>
       <c r="I36" s="1">
-        <v>122960</v>
+        <v>237872</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
@@ -7154,7 +7238,7 @@
         <v>484</v>
       </c>
       <c r="I37" s="1">
-        <v>131024</v>
+        <v>254887</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
@@ -7183,7 +7267,7 @@
         <v>548</v>
       </c>
       <c r="I38" s="1">
-        <v>139088</v>
+        <v>272063</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1">
@@ -7212,7 +7296,7 @@
         <v>612</v>
       </c>
       <c r="I39" s="1">
-        <v>147152</v>
+        <v>289401</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1">
@@ -7241,7 +7325,7 @@
         <v>676</v>
       </c>
       <c r="I40" s="1">
-        <v>155216</v>
+        <v>306900</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20" customHeight="1">
@@ -7270,7 +7354,7 @@
         <v>740</v>
       </c>
       <c r="I41" s="1">
-        <v>163280</v>
+        <v>324560</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="20" customHeight="1">
@@ -7329,8 +7413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I44"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7393,7 +7477,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>600</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -7422,7 +7506,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>800</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -7451,7 +7535,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>1000</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -7480,7 +7564,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>1200</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -7509,7 +7593,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>1400</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -7683,7 +7767,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>3900</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -7712,7 +7796,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>4500</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -7741,7 +7825,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>5100</v>
+        <v>6360</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -7770,7 +7854,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>8700</v>
+        <v>11580</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -7799,7 +7883,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="1">
-        <v>12300</v>
+        <v>17160</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1">
@@ -7828,7 +7912,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="1">
-        <v>15900</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
@@ -7857,7 +7941,7 @@
         <v>8</v>
       </c>
       <c r="I18" s="1">
-        <v>19500</v>
+        <v>29400</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1">
@@ -7886,7 +7970,7 @@
         <v>12</v>
       </c>
       <c r="I19" s="1">
-        <v>23100</v>
+        <v>36060</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
@@ -7915,7 +7999,7 @@
         <v>16</v>
       </c>
       <c r="I20" s="1">
-        <v>26700</v>
+        <v>43080</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
@@ -7944,7 +8028,7 @@
         <v>20</v>
       </c>
       <c r="I21" s="1">
-        <v>30300</v>
+        <v>50460</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
@@ -7973,7 +8057,7 @@
         <v>28</v>
       </c>
       <c r="I22" s="1">
-        <v>33900</v>
+        <v>58200</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
@@ -8002,7 +8086,7 @@
         <v>36</v>
       </c>
       <c r="I23" s="1">
-        <v>37500</v>
+        <v>66300</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
@@ -8031,7 +8115,7 @@
         <v>44</v>
       </c>
       <c r="I24" s="1">
-        <v>41100</v>
+        <v>73572</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
@@ -8060,7 +8144,7 @@
         <v>52</v>
       </c>
       <c r="I25" s="1">
-        <v>44700</v>
+        <v>80988</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1">
@@ -8089,7 +8173,7 @@
         <v>68</v>
       </c>
       <c r="I26" s="1">
-        <v>48300</v>
+        <v>88080</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1">
@@ -8118,7 +8202,7 @@
         <v>84</v>
       </c>
       <c r="I27" s="1">
-        <v>51900</v>
+        <v>95244</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20" customHeight="1">
@@ -8147,7 +8231,7 @@
         <v>100</v>
       </c>
       <c r="I28" s="1">
-        <v>55500</v>
+        <v>102480</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1">
@@ -8176,7 +8260,7 @@
         <v>116</v>
       </c>
       <c r="I29" s="1">
-        <v>59100</v>
+        <v>109788</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
@@ -8205,7 +8289,7 @@
         <v>132</v>
       </c>
       <c r="I30" s="1">
-        <v>66300</v>
+        <v>123972</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
@@ -8234,7 +8318,7 @@
         <v>164</v>
       </c>
       <c r="I31" s="1">
-        <v>73500</v>
+        <v>138300</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
@@ -8263,7 +8347,7 @@
         <v>196</v>
       </c>
       <c r="I32" s="1">
-        <v>80700</v>
+        <v>152772</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
@@ -8292,7 +8376,7 @@
         <v>228</v>
       </c>
       <c r="I33" s="1">
-        <v>87900</v>
+        <v>167388</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="20" customHeight="1">
@@ -8321,7 +8405,7 @@
         <v>292</v>
       </c>
       <c r="I34" s="1">
-        <v>95100</v>
+        <v>182148</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
@@ -8350,7 +8434,7 @@
         <v>356</v>
       </c>
       <c r="I35" s="1">
-        <v>102300</v>
+        <v>197052</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1">
@@ -8379,7 +8463,7 @@
         <v>420</v>
       </c>
       <c r="I36" s="1">
-        <v>109500</v>
+        <v>212100</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
@@ -8408,7 +8492,7 @@
         <v>484</v>
       </c>
       <c r="I37" s="1">
-        <v>116700</v>
+        <v>227292</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
@@ -8437,7 +8521,7 @@
         <v>548</v>
       </c>
       <c r="I38" s="1">
-        <v>123900</v>
+        <v>242628</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1">
@@ -8466,7 +8550,7 @@
         <v>612</v>
       </c>
       <c r="I39" s="1">
-        <v>131100</v>
+        <v>258108</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1">
@@ -8495,7 +8579,7 @@
         <v>676</v>
       </c>
       <c r="I40" s="1">
-        <v>138300</v>
+        <v>273732</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20" customHeight="1">
@@ -8524,7 +8608,7 @@
         <v>740</v>
       </c>
       <c r="I41" s="1">
-        <v>145500</v>
+        <v>289500</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="20" customHeight="1">
@@ -8559,7 +8643,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H44"/>
+      <selection activeCell="I2" sqref="I2:I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8622,7 +8706,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1000</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -8651,7 +8735,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>1200</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -8680,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>1400</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -8709,7 +8793,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>1600</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -8738,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>1800</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -8767,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>2000</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -8912,7 +8996,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>4112</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -8941,7 +9025,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>4640</v>
+        <v>5432</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -8970,7 +9054,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>5168</v>
+        <v>6277</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -8999,7 +9083,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>8336</v>
+        <v>10870</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -9028,7 +9112,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="1">
-        <v>11504</v>
+        <v>15781</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1">
@@ -9057,7 +9141,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="1">
-        <v>14672</v>
+        <v>21008</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
@@ -9086,7 +9170,7 @@
         <v>8</v>
       </c>
       <c r="I18" s="1">
-        <v>17840</v>
+        <v>26552</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1">
@@ -9115,7 +9199,7 @@
         <v>12</v>
       </c>
       <c r="I19" s="1">
-        <v>21008</v>
+        <v>32413</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
@@ -9144,7 +9228,7 @@
         <v>16</v>
       </c>
       <c r="I20" s="1">
-        <v>24176</v>
+        <v>38590</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
@@ -9173,7 +9257,7 @@
         <v>20</v>
       </c>
       <c r="I21" s="1">
-        <v>27344</v>
+        <v>45085</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
@@ -9202,7 +9286,7 @@
         <v>28</v>
       </c>
       <c r="I22" s="1">
-        <v>30512</v>
+        <v>51896</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
@@ -9231,7 +9315,7 @@
         <v>36</v>
       </c>
       <c r="I23" s="1">
-        <v>33680</v>
+        <v>59024</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
@@ -9260,7 +9344,7 @@
         <v>44</v>
       </c>
       <c r="I24" s="1">
-        <v>36848</v>
+        <v>65423</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
@@ -9289,7 +9373,7 @@
         <v>52</v>
       </c>
       <c r="I25" s="1">
-        <v>40016</v>
+        <v>71949</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1">
@@ -9318,7 +9402,7 @@
         <v>60</v>
       </c>
       <c r="I26" s="1">
-        <v>43184</v>
+        <v>78190</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1">
@@ -9347,7 +9431,7 @@
         <v>68</v>
       </c>
       <c r="I27" s="1">
-        <v>46352</v>
+        <v>84495</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20" customHeight="1">
@@ -9376,7 +9460,7 @@
         <v>76</v>
       </c>
       <c r="I28" s="1">
-        <v>49520</v>
+        <v>90862</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1">
@@ -9405,7 +9489,7 @@
         <v>84</v>
       </c>
       <c r="I29" s="1">
-        <v>52688</v>
+        <v>97293</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
@@ -9434,7 +9518,7 @@
         <v>100</v>
       </c>
       <c r="I30" s="1">
-        <v>59024</v>
+        <v>109775</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
@@ -9463,7 +9547,7 @@
         <v>116</v>
       </c>
       <c r="I31" s="1">
-        <v>65360</v>
+        <v>122384</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
@@ -9492,7 +9576,7 @@
         <v>132</v>
       </c>
       <c r="I32" s="1">
-        <v>71696</v>
+        <v>135119</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
@@ -9521,7 +9605,7 @@
         <v>148</v>
       </c>
       <c r="I33" s="1">
-        <v>78032</v>
+        <v>147981</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="20" customHeight="1">
@@ -9550,7 +9634,7 @@
         <v>180</v>
       </c>
       <c r="I34" s="1">
-        <v>84368</v>
+        <v>160970</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
@@ -9579,7 +9663,7 @@
         <v>212</v>
       </c>
       <c r="I35" s="1">
-        <v>90704</v>
+        <v>174086</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1">
@@ -9608,7 +9692,7 @@
         <v>244</v>
       </c>
       <c r="I36" s="1">
-        <v>97040</v>
+        <v>187328</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
@@ -9637,7 +9721,7 @@
         <v>276</v>
       </c>
       <c r="I37" s="1">
-        <v>103376</v>
+        <v>200697</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
@@ -9666,7 +9750,7 @@
         <v>340</v>
       </c>
       <c r="I38" s="1">
-        <v>109712</v>
+        <v>214193</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1">
@@ -9695,7 +9779,7 @@
         <v>404</v>
       </c>
       <c r="I39" s="1">
-        <v>116048</v>
+        <v>227815</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1">
@@ -9724,7 +9808,7 @@
         <v>468</v>
       </c>
       <c r="I40" s="1">
-        <v>122384</v>
+        <v>241564</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20" customHeight="1">
@@ -9753,7 +9837,7 @@
         <v>532</v>
       </c>
       <c r="I41" s="1">
-        <v>128720</v>
+        <v>255440</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="20" customHeight="1">
@@ -9781,8 +9865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H42"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -9845,7 +9929,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1000</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -9874,7 +9958,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>1200</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -9903,7 +9987,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>1400</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -9932,7 +10016,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>1600</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -9961,7 +10045,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>1800</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -9990,7 +10074,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>2000</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -10135,7 +10219,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>4208</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -10164,7 +10248,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>4760</v>
+        <v>5588</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -10193,7 +10277,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>5312</v>
+        <v>6471</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -10222,7 +10306,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>8624</v>
+        <v>11274</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -10251,7 +10335,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="1">
-        <v>11936</v>
+        <v>16407</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1">
@@ -10280,7 +10364,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="1">
-        <v>15248</v>
+        <v>21872</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
@@ -10309,7 +10393,7 @@
         <v>8</v>
       </c>
       <c r="I18" s="1">
-        <v>18560</v>
+        <v>27668</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1">
@@ -10338,7 +10422,7 @@
         <v>12</v>
       </c>
       <c r="I19" s="1">
-        <v>21872</v>
+        <v>33795</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
@@ -10367,7 +10451,7 @@
         <v>16</v>
       </c>
       <c r="I20" s="1">
-        <v>25184</v>
+        <v>40254</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
@@ -10396,7 +10480,7 @@
         <v>20</v>
       </c>
       <c r="I21" s="1">
-        <v>28496</v>
+        <v>47043</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
@@ -10425,7 +10509,7 @@
         <v>28</v>
       </c>
       <c r="I22" s="1">
-        <v>31808</v>
+        <v>54164</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
@@ -10454,7 +10538,7 @@
         <v>36</v>
       </c>
       <c r="I23" s="1">
-        <v>35120</v>
+        <v>61616</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
@@ -10483,7 +10567,7 @@
         <v>44</v>
       </c>
       <c r="I24" s="1">
-        <v>38432</v>
+        <v>68306</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
@@ -10512,7 +10596,7 @@
         <v>52</v>
       </c>
       <c r="I25" s="1">
-        <v>41744</v>
+        <v>75129</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1">
@@ -10541,7 +10625,7 @@
         <v>60</v>
       </c>
       <c r="I26" s="1">
-        <v>45056</v>
+        <v>81654</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1">
@@ -10570,7 +10654,7 @@
         <v>68</v>
       </c>
       <c r="I27" s="1">
-        <v>48368</v>
+        <v>88244</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20" customHeight="1">
@@ -10599,7 +10683,7 @@
         <v>76</v>
       </c>
       <c r="I28" s="1">
-        <v>51680</v>
+        <v>94902</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1">
@@ -10628,7 +10712,7 @@
         <v>84</v>
       </c>
       <c r="I29" s="1">
-        <v>54992</v>
+        <v>101625</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
@@ -10657,7 +10741,7 @@
         <v>100</v>
       </c>
       <c r="I30" s="1">
-        <v>61616</v>
+        <v>114674</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
@@ -10686,7 +10770,7 @@
         <v>116</v>
       </c>
       <c r="I31" s="1">
-        <v>68240</v>
+        <v>127856</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
@@ -10715,7 +10799,7 @@
         <v>132</v>
       </c>
       <c r="I32" s="1">
-        <v>74864</v>
+        <v>141170</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
@@ -10744,7 +10828,7 @@
         <v>148</v>
       </c>
       <c r="I33" s="1">
-        <v>81488</v>
+        <v>154617</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="20" customHeight="1">
@@ -10773,7 +10857,7 @@
         <v>180</v>
       </c>
       <c r="I34" s="1">
-        <v>88112</v>
+        <v>168196</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
@@ -10802,7 +10886,7 @@
         <v>212</v>
       </c>
       <c r="I35" s="1">
-        <v>94736</v>
+        <v>181908</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1">
@@ -10831,7 +10915,7 @@
         <v>244</v>
       </c>
       <c r="I36" s="1">
-        <v>101360</v>
+        <v>195752</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
@@ -10860,7 +10944,7 @@
         <v>276</v>
       </c>
       <c r="I37" s="1">
-        <v>107984</v>
+        <v>209729</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
@@ -10889,7 +10973,7 @@
         <v>340</v>
       </c>
       <c r="I38" s="1">
-        <v>114608</v>
+        <v>223838</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1">
@@ -10918,7 +11002,7 @@
         <v>404</v>
       </c>
       <c r="I39" s="1">
-        <v>121232</v>
+        <v>238079</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1">
@@ -10947,7 +11031,7 @@
         <v>468</v>
       </c>
       <c r="I40" s="1">
-        <v>127856</v>
+        <v>252453</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20" customHeight="1">
@@ -10976,7 +11060,7 @@
         <v>532</v>
       </c>
       <c r="I41" s="1">
-        <v>134480</v>
+        <v>266960</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="20" customHeight="1">
@@ -11000,8 +11084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H42"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -11064,7 +11148,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1000</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -11093,7 +11177,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>1200</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -11122,7 +11206,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>1400</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -11151,7 +11235,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>1600</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -11180,7 +11264,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>1800</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -11209,7 +11293,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>2000</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -11354,7 +11438,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>4304</v>
+        <v>4880</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -11383,7 +11467,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>4880</v>
+        <v>5744</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -11412,7 +11496,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>5456</v>
+        <v>6666</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -11441,7 +11525,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>8912</v>
+        <v>11677</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -11470,7 +11554,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="1">
-        <v>12368</v>
+        <v>17034</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1">
@@ -11499,7 +11583,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="1">
-        <v>15824</v>
+        <v>22736</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
@@ -11528,7 +11612,7 @@
         <v>8</v>
       </c>
       <c r="I18" s="1">
-        <v>19280</v>
+        <v>28784</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1">
@@ -11557,7 +11641,7 @@
         <v>12</v>
       </c>
       <c r="I19" s="1">
-        <v>22736</v>
+        <v>35178</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
@@ -11586,7 +11670,7 @@
         <v>16</v>
       </c>
       <c r="I20" s="1">
-        <v>26192</v>
+        <v>41917</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
@@ -11615,7 +11699,7 @@
         <v>20</v>
       </c>
       <c r="I21" s="1">
-        <v>29648</v>
+        <v>49002</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
@@ -11644,7 +11728,7 @@
         <v>28</v>
       </c>
       <c r="I22" s="1">
-        <v>33104</v>
+        <v>56432</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
@@ -11673,7 +11757,7 @@
         <v>36</v>
       </c>
       <c r="I23" s="1">
-        <v>36560</v>
+        <v>64208</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
@@ -11702,7 +11786,7 @@
         <v>44</v>
       </c>
       <c r="I24" s="1">
-        <v>40016</v>
+        <v>71189</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
@@ -11731,7 +11815,7 @@
         <v>52</v>
       </c>
       <c r="I25" s="1">
-        <v>43472</v>
+        <v>78308</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1">
@@ -11760,7 +11844,7 @@
         <v>60</v>
       </c>
       <c r="I26" s="1">
-        <v>46928</v>
+        <v>85117</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1">
@@ -11789,7 +11873,7 @@
         <v>68</v>
       </c>
       <c r="I27" s="1">
-        <v>50384</v>
+        <v>91994</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20" customHeight="1">
@@ -11818,7 +11902,7 @@
         <v>76</v>
       </c>
       <c r="I28" s="1">
-        <v>53840</v>
+        <v>98941</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1">
@@ -11847,7 +11931,7 @@
         <v>84</v>
       </c>
       <c r="I29" s="1">
-        <v>57296</v>
+        <v>105956</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
@@ -11876,7 +11960,7 @@
         <v>100</v>
       </c>
       <c r="I30" s="1">
-        <v>64208</v>
+        <v>119573</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
@@ -11905,7 +11989,7 @@
         <v>116</v>
       </c>
       <c r="I31" s="1">
-        <v>71120</v>
+        <v>133328</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
@@ -11934,7 +12018,7 @@
         <v>132</v>
       </c>
       <c r="I32" s="1">
-        <v>78032</v>
+        <v>147221</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
@@ -11963,7 +12047,7 @@
         <v>148</v>
       </c>
       <c r="I33" s="1">
-        <v>84944</v>
+        <v>161252</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="20" customHeight="1">
@@ -11992,7 +12076,7 @@
         <v>180</v>
       </c>
       <c r="I34" s="1">
-        <v>91856</v>
+        <v>175422</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
@@ -12021,7 +12105,7 @@
         <v>212</v>
       </c>
       <c r="I35" s="1">
-        <v>98768</v>
+        <v>189730</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1">
@@ -12050,7 +12134,7 @@
         <v>244</v>
       </c>
       <c r="I36" s="1">
-        <v>105680</v>
+        <v>204176</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
@@ -12079,7 +12163,7 @@
         <v>276</v>
       </c>
       <c r="I37" s="1">
-        <v>112592</v>
+        <v>218760</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
@@ -12108,7 +12192,7 @@
         <v>340</v>
       </c>
       <c r="I38" s="1">
-        <v>119504</v>
+        <v>233483</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1">
@@ -12137,7 +12221,7 @@
         <v>404</v>
       </c>
       <c r="I39" s="1">
-        <v>126416</v>
+        <v>248344</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1">
@@ -12166,7 +12250,7 @@
         <v>468</v>
       </c>
       <c r="I40" s="1">
-        <v>133328</v>
+        <v>263343</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20" customHeight="1">
@@ -12195,7 +12279,7 @@
         <v>532</v>
       </c>
       <c r="I41" s="1">
-        <v>140240</v>
+        <v>278480</v>
       </c>
     </row>
   </sheetData>
@@ -12215,7 +12299,7 @@
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H50"/>
+      <selection activeCell="I2" sqref="I2:I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -12278,7 +12362,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1000</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -12307,7 +12391,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>1200</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -12336,7 +12420,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>1400</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -12365,7 +12449,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>1600</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -12394,7 +12478,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>1800</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -12423,7 +12507,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>2000</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -12568,7 +12652,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>4016</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -12597,7 +12681,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>4520</v>
+        <v>5276</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -12626,7 +12710,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>5024</v>
+        <v>6082</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -12655,7 +12739,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>8048</v>
+        <v>10467</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -12684,7 +12768,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="1">
-        <v>11072</v>
+        <v>15154</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1">
@@ -12713,7 +12797,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="1">
-        <v>14096</v>
+        <v>20144</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
@@ -12742,7 +12826,7 @@
         <v>8</v>
       </c>
       <c r="I18" s="1">
-        <v>17120</v>
+        <v>25436</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1">
@@ -12771,7 +12855,7 @@
         <v>12</v>
       </c>
       <c r="I19" s="1">
-        <v>20144</v>
+        <v>31030</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
@@ -12800,7 +12884,7 @@
         <v>16</v>
       </c>
       <c r="I20" s="1">
-        <v>23168</v>
+        <v>36927</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
@@ -12829,7 +12913,7 @@
         <v>20</v>
       </c>
       <c r="I21" s="1">
-        <v>26192</v>
+        <v>43126</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
@@ -12858,7 +12942,7 @@
         <v>28</v>
       </c>
       <c r="I22" s="1">
-        <v>29216</v>
+        <v>49628</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
@@ -12887,7 +12971,7 @@
         <v>36</v>
       </c>
       <c r="I23" s="1">
-        <v>32240</v>
+        <v>56432</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
@@ -12916,7 +13000,7 @@
         <v>44</v>
       </c>
       <c r="I24" s="1">
-        <v>35264</v>
+        <v>62540</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
@@ -12945,7 +13029,7 @@
         <v>52</v>
       </c>
       <c r="I25" s="1">
-        <v>38288</v>
+        <v>68770</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1">
@@ -12974,7 +13058,7 @@
         <v>60</v>
       </c>
       <c r="I26" s="1">
-        <v>41312</v>
+        <v>74727</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1">
@@ -13003,7 +13087,7 @@
         <v>68</v>
       </c>
       <c r="I27" s="1">
-        <v>44336</v>
+        <v>80745</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20" customHeight="1">
@@ -13032,7 +13116,7 @@
         <v>76</v>
       </c>
       <c r="I28" s="1">
-        <v>47360</v>
+        <v>86823</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1">
@@ -13061,7 +13145,7 @@
         <v>84</v>
       </c>
       <c r="I29" s="1">
-        <v>50384</v>
+        <v>92962</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
@@ -13090,7 +13174,7 @@
         <v>100</v>
       </c>
       <c r="I30" s="1">
-        <v>56432</v>
+        <v>104876</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
@@ -13119,7 +13203,7 @@
         <v>116</v>
       </c>
       <c r="I31" s="1">
-        <v>62480</v>
+        <v>116912</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
@@ -13148,7 +13232,7 @@
         <v>132</v>
       </c>
       <c r="I32" s="1">
-        <v>68528</v>
+        <v>129068</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
@@ -13177,7 +13261,7 @@
         <v>148</v>
       </c>
       <c r="I33" s="1">
-        <v>74576</v>
+        <v>141346</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="20" customHeight="1">
@@ -13206,7 +13290,7 @@
         <v>180</v>
       </c>
       <c r="I34" s="1">
-        <v>80624</v>
+        <v>153744</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
@@ -13235,7 +13319,7 @@
         <v>212</v>
       </c>
       <c r="I35" s="1">
-        <v>86672</v>
+        <v>166264</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1">
@@ -13264,7 +13348,7 @@
         <v>244</v>
       </c>
       <c r="I36" s="1">
-        <v>92720</v>
+        <v>178904</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
@@ -13293,7 +13377,7 @@
         <v>276</v>
       </c>
       <c r="I37" s="1">
-        <v>98768</v>
+        <v>191665</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
@@ -13322,7 +13406,7 @@
         <v>340</v>
       </c>
       <c r="I38" s="1">
-        <v>104816</v>
+        <v>204548</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1">
@@ -13351,7 +13435,7 @@
         <v>404</v>
       </c>
       <c r="I39" s="1">
-        <v>110864</v>
+        <v>217551</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1">
@@ -13380,7 +13464,7 @@
         <v>468</v>
       </c>
       <c r="I40" s="1">
-        <v>116912</v>
+        <v>230675</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20" customHeight="1">
@@ -13409,7 +13493,7 @@
         <v>532</v>
       </c>
       <c r="I41" s="1">
-        <v>122960</v>
+        <v>243920</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="20" customHeight="1">
@@ -13476,8 +13560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -13540,7 +13624,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>3000</v>
+        <v>5043</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -13569,7 +13653,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>3400</v>
+        <v>5086</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -13598,7 +13682,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>3800</v>
+        <v>5130</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -13627,7 +13711,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>4200</v>
+        <v>5173</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -13656,7 +13740,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>4600</v>
+        <v>5216</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -13685,7 +13769,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>5000</v>
+        <v>5259</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -13830,7 +13914,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>8456</v>
+        <v>9320</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -13859,7 +13943,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>9320</v>
+        <v>10616</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -13888,7 +13972,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>10184</v>
+        <v>11998</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -13917,7 +14001,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>15368</v>
+        <v>19515</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -13946,7 +14030,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="1">
-        <v>20552</v>
+        <v>27550</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1">
@@ -13975,7 +14059,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="1">
-        <v>25736</v>
+        <v>36104</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
@@ -14004,7 +14088,7 @@
         <v>8</v>
       </c>
       <c r="I18" s="1">
-        <v>30920</v>
+        <v>45176</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1">
@@ -14033,7 +14117,7 @@
         <v>12</v>
       </c>
       <c r="I19" s="1">
-        <v>36104</v>
+        <v>54766</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
@@ -14062,7 +14146,7 @@
         <v>16</v>
       </c>
       <c r="I20" s="1">
-        <v>41288</v>
+        <v>64875</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
@@ -14091,7 +14175,7 @@
         <v>20</v>
       </c>
       <c r="I21" s="1">
-        <v>46472</v>
+        <v>75502</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
@@ -14120,7 +14204,7 @@
         <v>28</v>
       </c>
       <c r="I22" s="1">
-        <v>51656</v>
+        <v>86648</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
@@ -14149,7 +14233,7 @@
         <v>36</v>
       </c>
       <c r="I23" s="1">
-        <v>56840</v>
+        <v>98312</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
@@ -14178,7 +14262,7 @@
         <v>44</v>
       </c>
       <c r="I24" s="1">
-        <v>62024</v>
+        <v>108784</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
@@ -14207,7 +14291,7 @@
         <v>52</v>
       </c>
       <c r="I25" s="1">
-        <v>67208</v>
+        <v>119463</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1">
@@ -14236,7 +14320,7 @@
         <v>68</v>
       </c>
       <c r="I26" s="1">
-        <v>72392</v>
+        <v>129675</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1">
@@ -14265,7 +14349,7 @@
         <v>84</v>
       </c>
       <c r="I27" s="1">
-        <v>77576</v>
+        <v>139991</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20" customHeight="1">
@@ -14294,7 +14378,7 @@
         <v>100</v>
       </c>
       <c r="I28" s="1">
-        <v>82760</v>
+        <v>150411</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1">
@@ -14323,7 +14407,7 @@
         <v>116</v>
       </c>
       <c r="I29" s="1">
-        <v>87944</v>
+        <v>160935</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
@@ -14352,7 +14436,7 @@
         <v>132</v>
       </c>
       <c r="I30" s="1">
-        <v>98312</v>
+        <v>181360</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
@@ -14381,7 +14465,7 @@
         <v>164</v>
       </c>
       <c r="I31" s="1">
-        <v>108680</v>
+        <v>201992</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
@@ -14410,7 +14494,7 @@
         <v>196</v>
       </c>
       <c r="I32" s="1">
-        <v>119048</v>
+        <v>222832</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
@@ -14439,7 +14523,7 @@
         <v>228</v>
       </c>
       <c r="I33" s="1">
-        <v>129416</v>
+        <v>243879</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="20" customHeight="1">
@@ -14468,7 +14552,7 @@
         <v>292</v>
       </c>
       <c r="I34" s="1">
-        <v>139784</v>
+        <v>265133</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
@@ -14497,7 +14581,7 @@
         <v>356</v>
       </c>
       <c r="I35" s="1">
-        <v>150152</v>
+        <v>286595</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1">
@@ -14526,7 +14610,7 @@
         <v>420</v>
       </c>
       <c r="I36" s="1">
-        <v>160520</v>
+        <v>308264</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
@@ -14555,7 +14639,7 @@
         <v>484</v>
       </c>
       <c r="I37" s="1">
-        <v>170888</v>
+        <v>330140</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
@@ -14584,7 +14668,7 @@
         <v>612</v>
       </c>
       <c r="I38" s="1">
-        <v>181256</v>
+        <v>352224</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1">
@@ -14613,7 +14697,7 @@
         <v>740</v>
       </c>
       <c r="I39" s="1">
-        <v>191624</v>
+        <v>374516</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1">
@@ -14642,7 +14726,7 @@
         <v>868</v>
       </c>
       <c r="I40" s="1">
-        <v>201992</v>
+        <v>397014</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20" customHeight="1">
@@ -14671,7 +14755,7 @@
         <v>1000</v>
       </c>
       <c r="I41" s="1">
-        <v>212360</v>
+        <v>419720</v>
       </c>
     </row>
   </sheetData>
@@ -14691,7 +14775,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D42"/>
+      <selection activeCell="I2" sqref="I2:I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -14754,7 +14838,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>3000</v>
+        <v>5044</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -14783,7 +14867,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>3400</v>
+        <v>5089</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -14812,7 +14896,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>3800</v>
+        <v>5133</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -14841,7 +14925,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>4200</v>
+        <v>5178</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -14870,7 +14954,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>4600</v>
+        <v>5222</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -14899,7 +14983,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>5000</v>
+        <v>5266</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -15044,7 +15128,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>8552</v>
+        <v>9440</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -15073,7 +15157,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>9440</v>
+        <v>10772</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -15102,7 +15186,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>10328</v>
+        <v>12193</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -15131,7 +15215,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>15656</v>
+        <v>19918</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -15160,7 +15244,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="1">
-        <v>20984</v>
+        <v>28177</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1">
@@ -15189,7 +15273,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="1">
-        <v>26312</v>
+        <v>36968</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
@@ -15218,7 +15302,7 @@
         <v>8</v>
       </c>
       <c r="I18" s="1">
-        <v>31640</v>
+        <v>46292</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1">
@@ -15247,7 +15331,7 @@
         <v>12</v>
       </c>
       <c r="I19" s="1">
-        <v>36968</v>
+        <v>56149</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
@@ -15276,7 +15360,7 @@
         <v>16</v>
       </c>
       <c r="I20" s="1">
-        <v>42296</v>
+        <v>66538</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
@@ -15305,7 +15389,7 @@
         <v>20</v>
       </c>
       <c r="I21" s="1">
-        <v>47624</v>
+        <v>77461</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
@@ -15334,7 +15418,7 @@
         <v>28</v>
       </c>
       <c r="I22" s="1">
-        <v>52952</v>
+        <v>88916</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
@@ -15363,7 +15447,7 @@
         <v>36</v>
       </c>
       <c r="I23" s="1">
-        <v>58280</v>
+        <v>100904</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
@@ -15392,7 +15476,7 @@
         <v>44</v>
       </c>
       <c r="I24" s="1">
-        <v>63608</v>
+        <v>111667</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
@@ -15421,7 +15505,7 @@
         <v>52</v>
       </c>
       <c r="I25" s="1">
-        <v>68936</v>
+        <v>122642</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1">
@@ -15450,7 +15534,7 @@
         <v>68</v>
       </c>
       <c r="I26" s="1">
-        <v>74264</v>
+        <v>133138</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1">
@@ -15479,7 +15563,7 @@
         <v>84</v>
       </c>
       <c r="I27" s="1">
-        <v>79592</v>
+        <v>143741</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20" customHeight="1">
@@ -15508,7 +15592,7 @@
         <v>100</v>
       </c>
       <c r="I28" s="1">
-        <v>84920</v>
+        <v>154450</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1">
@@ -15537,7 +15621,7 @@
         <v>116</v>
       </c>
       <c r="I29" s="1">
-        <v>90248</v>
+        <v>165266</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
@@ -15566,7 +15650,7 @@
         <v>132</v>
       </c>
       <c r="I30" s="1">
-        <v>100904</v>
+        <v>186259</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
@@ -15595,7 +15679,7 @@
         <v>164</v>
       </c>
       <c r="I31" s="1">
-        <v>111560</v>
+        <v>207464</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
@@ -15624,7 +15708,7 @@
         <v>196</v>
       </c>
       <c r="I32" s="1">
-        <v>122216</v>
+        <v>228883</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
@@ -15653,7 +15737,7 @@
         <v>228</v>
       </c>
       <c r="I33" s="1">
-        <v>132872</v>
+        <v>250514</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="20" customHeight="1">
@@ -15682,7 +15766,7 @@
         <v>292</v>
       </c>
       <c r="I34" s="1">
-        <v>143528</v>
+        <v>272359</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
@@ -15711,7 +15795,7 @@
         <v>356</v>
       </c>
       <c r="I35" s="1">
-        <v>154184</v>
+        <v>294417</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1">
@@ -15740,7 +15824,7 @@
         <v>420</v>
       </c>
       <c r="I36" s="1">
-        <v>164840</v>
+        <v>316688</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
@@ -15769,7 +15853,7 @@
         <v>484</v>
       </c>
       <c r="I37" s="1">
-        <v>175496</v>
+        <v>339172</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
@@ -15798,7 +15882,7 @@
         <v>612</v>
       </c>
       <c r="I38" s="1">
-        <v>186152</v>
+        <v>361869</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1">
@@ -15827,7 +15911,7 @@
         <v>740</v>
       </c>
       <c r="I39" s="1">
-        <v>196808</v>
+        <v>384780</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1">
@@ -15856,7 +15940,7 @@
         <v>868</v>
       </c>
       <c r="I40" s="1">
-        <v>207464</v>
+        <v>407903</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20" customHeight="1">
@@ -15885,7 +15969,7 @@
         <v>1000</v>
       </c>
       <c r="I41" s="1">
-        <v>218120</v>
+        <v>431240</v>
       </c>
     </row>
   </sheetData>
@@ -15905,7 +15989,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="I2" sqref="I2:I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -16258,7 +16342,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>5860</v>
+        <v>7300</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -16287,7 +16371,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>7300</v>
+        <v>9460</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -16316,7 +16400,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>8740</v>
+        <v>11764</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -16345,7 +16429,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>17380</v>
+        <v>24292</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -16374,7 +16458,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="1">
-        <v>26020</v>
+        <v>37684</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1">
@@ -16403,7 +16487,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="1">
-        <v>34660</v>
+        <v>51940</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
@@ -16432,7 +16516,7 @@
         <v>8</v>
       </c>
       <c r="I18" s="1">
-        <v>43300</v>
+        <v>67060</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1">
@@ -16461,7 +16545,7 @@
         <v>15</v>
       </c>
       <c r="I19" s="1">
-        <v>51940</v>
+        <v>83044</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
@@ -16490,7 +16574,7 @@
         <v>20</v>
       </c>
       <c r="I20" s="1">
-        <v>60580</v>
+        <v>99892</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
@@ -16519,7 +16603,7 @@
         <v>32</v>
       </c>
       <c r="I21" s="1">
-        <v>69220</v>
+        <v>117604</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
@@ -16548,7 +16632,7 @@
         <v>48</v>
       </c>
       <c r="I22" s="1">
-        <v>77860</v>
+        <v>136180</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
@@ -16577,7 +16661,7 @@
         <v>64</v>
       </c>
       <c r="I23" s="1">
-        <v>86500</v>
+        <v>155620</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
@@ -16606,7 +16690,7 @@
         <v>80</v>
       </c>
       <c r="I24" s="1">
-        <v>95140</v>
+        <v>173073</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
@@ -16635,7 +16719,7 @@
         <v>100</v>
       </c>
       <c r="I25" s="1">
-        <v>103780</v>
+        <v>190871</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1">
@@ -16664,7 +16748,7 @@
         <v>140</v>
       </c>
       <c r="I26" s="1">
-        <v>112420</v>
+        <v>207892</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1">
@@ -16693,7 +16777,7 @@
         <v>160</v>
       </c>
       <c r="I27" s="1">
-        <v>121060</v>
+        <v>225086</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20" customHeight="1">
@@ -16722,7 +16806,7 @@
         <v>180</v>
       </c>
       <c r="I28" s="1">
-        <v>129700</v>
+        <v>242452</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1">
@@ -16751,7 +16835,7 @@
         <v>210</v>
       </c>
       <c r="I29" s="1">
-        <v>138340</v>
+        <v>259991</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
@@ -16780,7 +16864,7 @@
         <v>320</v>
       </c>
       <c r="I30" s="1">
-        <v>155620</v>
+        <v>294033</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
@@ -16809,7 +16893,7 @@
         <v>390</v>
       </c>
       <c r="I31" s="1">
-        <v>172900</v>
+        <v>328420</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
@@ -16838,7 +16922,7 @@
         <v>450</v>
       </c>
       <c r="I32" s="1">
-        <v>190180</v>
+        <v>363153</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
@@ -16867,7 +16951,7 @@
         <v>500</v>
       </c>
       <c r="I33" s="1">
-        <v>207460</v>
+        <v>398231</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="20" customHeight="1">
@@ -16896,7 +16980,7 @@
         <v>680</v>
       </c>
       <c r="I34" s="1">
-        <v>224740</v>
+        <v>433655</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
@@ -16925,7 +17009,7 @@
         <v>780</v>
       </c>
       <c r="I35" s="1">
-        <v>242020</v>
+        <v>469425</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1">
@@ -16954,7 +17038,7 @@
         <v>900</v>
       </c>
       <c r="I36" s="1">
-        <v>259300</v>
+        <v>505540</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
@@ -16983,7 +17067,7 @@
         <v>1020</v>
       </c>
       <c r="I37" s="1">
-        <v>276580</v>
+        <v>542001</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
@@ -17012,7 +17096,7 @@
         <v>1280</v>
       </c>
       <c r="I38" s="1">
-        <v>293860</v>
+        <v>578807</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1">
@@ -17041,7 +17125,7 @@
         <v>1540</v>
       </c>
       <c r="I39" s="1">
-        <v>311140</v>
+        <v>615959</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1">
@@ -17070,7 +17154,7 @@
         <v>1800</v>
       </c>
       <c r="I40" s="1">
-        <v>328420</v>
+        <v>653457</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20" customHeight="1">
@@ -17099,7 +17183,7 @@
         <v>2060</v>
       </c>
       <c r="I41" s="1">
-        <v>345700</v>
+        <v>691300</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="20" customHeight="1">
@@ -17124,7 +17208,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D42"/>
+      <selection activeCell="I2" sqref="I2:I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -17187,7 +17271,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>3000</v>
+        <v>5046</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -17216,7 +17300,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>3400</v>
+        <v>5091</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -17245,7 +17329,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>3800</v>
+        <v>5137</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -17274,7 +17358,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>4200</v>
+        <v>5182</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -17303,7 +17387,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>4600</v>
+        <v>5228</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -17332,7 +17416,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>5000</v>
+        <v>5274</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -17477,7 +17561,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>8648</v>
+        <v>9560</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -17506,7 +17590,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>9560</v>
+        <v>10928</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -17535,7 +17619,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>10472</v>
+        <v>12387</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -17564,7 +17648,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>15944</v>
+        <v>20322</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -17593,7 +17677,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="1">
-        <v>21416</v>
+        <v>28803</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1">
@@ -17622,7 +17706,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="1">
-        <v>26888</v>
+        <v>37832</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
@@ -17651,7 +17735,7 @@
         <v>8</v>
       </c>
       <c r="I18" s="1">
-        <v>32360</v>
+        <v>47408</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1">
@@ -17680,7 +17764,7 @@
         <v>12</v>
       </c>
       <c r="I19" s="1">
-        <v>37832</v>
+        <v>57531</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
@@ -17709,7 +17793,7 @@
         <v>16</v>
       </c>
       <c r="I20" s="1">
-        <v>43304</v>
+        <v>68202</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
@@ -17738,7 +17822,7 @@
         <v>20</v>
       </c>
       <c r="I21" s="1">
-        <v>48776</v>
+        <v>79419</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
@@ -17767,7 +17851,7 @@
         <v>28</v>
       </c>
       <c r="I22" s="1">
-        <v>54248</v>
+        <v>91184</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
@@ -17796,7 +17880,7 @@
         <v>36</v>
       </c>
       <c r="I23" s="1">
-        <v>59720</v>
+        <v>103496</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
@@ -17825,7 +17909,7 @@
         <v>44</v>
       </c>
       <c r="I24" s="1">
-        <v>65192</v>
+        <v>114549</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
@@ -17854,7 +17938,7 @@
         <v>52</v>
       </c>
       <c r="I25" s="1">
-        <v>70664</v>
+        <v>125822</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1">
@@ -17883,7 +17967,7 @@
         <v>68</v>
       </c>
       <c r="I26" s="1">
-        <v>76136</v>
+        <v>136602</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1">
@@ -17912,7 +17996,7 @@
         <v>84</v>
       </c>
       <c r="I27" s="1">
-        <v>81608</v>
+        <v>147491</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20" customHeight="1">
@@ -17941,7 +18025,7 @@
         <v>100</v>
       </c>
       <c r="I28" s="1">
-        <v>87080</v>
+        <v>158490</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1">
@@ -17970,7 +18054,7 @@
         <v>116</v>
       </c>
       <c r="I29" s="1">
-        <v>92552</v>
+        <v>169598</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
@@ -17999,7 +18083,7 @@
         <v>132</v>
       </c>
       <c r="I30" s="1">
-        <v>103496</v>
+        <v>191157</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
@@ -18028,7 +18112,7 @@
         <v>164</v>
       </c>
       <c r="I31" s="1">
-        <v>114440</v>
+        <v>212936</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
@@ -18057,7 +18141,7 @@
         <v>196</v>
       </c>
       <c r="I32" s="1">
-        <v>125384</v>
+        <v>234933</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
@@ -18086,7 +18170,7 @@
         <v>228</v>
       </c>
       <c r="I33" s="1">
-        <v>136328</v>
+        <v>257150</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="20" customHeight="1">
@@ -18115,7 +18199,7 @@
         <v>292</v>
       </c>
       <c r="I34" s="1">
-        <v>147272</v>
+        <v>279585</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
@@ -18144,7 +18228,7 @@
         <v>356</v>
       </c>
       <c r="I35" s="1">
-        <v>158216</v>
+        <v>302239</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1">
@@ -18173,7 +18257,7 @@
         <v>420</v>
       </c>
       <c r="I36" s="1">
-        <v>169160</v>
+        <v>325112</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
@@ -18202,7 +18286,7 @@
         <v>484</v>
       </c>
       <c r="I37" s="1">
-        <v>180104</v>
+        <v>348204</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
@@ -18231,7 +18315,7 @@
         <v>612</v>
       </c>
       <c r="I38" s="1">
-        <v>191048</v>
+        <v>371515</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1">
@@ -18260,7 +18344,7 @@
         <v>740</v>
       </c>
       <c r="I39" s="1">
-        <v>201992</v>
+        <v>395044</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1">
@@ -18289,7 +18373,7 @@
         <v>868</v>
       </c>
       <c r="I40" s="1">
-        <v>212936</v>
+        <v>418793</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20" customHeight="1">
@@ -18318,7 +18402,7 @@
         <v>1000</v>
       </c>
       <c r="I41" s="1">
-        <v>223880</v>
+        <v>442760</v>
       </c>
     </row>
   </sheetData>
@@ -18338,7 +18422,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -18401,7 +18485,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>3000</v>
+        <v>5047</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -18430,7 +18514,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>3400</v>
+        <v>5094</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -18459,7 +18543,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>3800</v>
+        <v>5140</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -18488,7 +18572,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>4200</v>
+        <v>5187</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -18517,7 +18601,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>4600</v>
+        <v>5234</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -18546,7 +18630,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>5000</v>
+        <v>5281</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -18691,7 +18775,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>8744</v>
+        <v>9680</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -18720,7 +18804,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>9680</v>
+        <v>11084</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -18749,7 +18833,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>10616</v>
+        <v>12582</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -18778,7 +18862,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>16232</v>
+        <v>20725</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -18807,7 +18891,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="1">
-        <v>21848</v>
+        <v>29430</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1">
@@ -18836,7 +18920,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="1">
-        <v>27464</v>
+        <v>38696</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
@@ -18865,7 +18949,7 @@
         <v>8</v>
       </c>
       <c r="I18" s="1">
-        <v>33080</v>
+        <v>48524</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1">
@@ -18894,7 +18978,7 @@
         <v>12</v>
       </c>
       <c r="I19" s="1">
-        <v>38696</v>
+        <v>58914</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
@@ -18923,7 +19007,7 @@
         <v>16</v>
       </c>
       <c r="I20" s="1">
-        <v>44312</v>
+        <v>69865</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
@@ -18952,7 +19036,7 @@
         <v>20</v>
       </c>
       <c r="I21" s="1">
-        <v>49928</v>
+        <v>81378</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
@@ -18981,7 +19065,7 @@
         <v>28</v>
       </c>
       <c r="I22" s="1">
-        <v>55544</v>
+        <v>93452</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
@@ -19010,7 +19094,7 @@
         <v>36</v>
       </c>
       <c r="I23" s="1">
-        <v>61160</v>
+        <v>106088</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
@@ -19039,7 +19123,7 @@
         <v>44</v>
       </c>
       <c r="I24" s="1">
-        <v>66776</v>
+        <v>117432</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
@@ -19068,7 +19152,7 @@
         <v>52</v>
       </c>
       <c r="I25" s="1">
-        <v>72392</v>
+        <v>129001</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1">
@@ -19097,7 +19181,7 @@
         <v>68</v>
       </c>
       <c r="I26" s="1">
-        <v>78008</v>
+        <v>140065</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1">
@@ -19126,7 +19210,7 @@
         <v>84</v>
       </c>
       <c r="I27" s="1">
-        <v>83624</v>
+        <v>151241</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20" customHeight="1">
@@ -19155,7 +19239,7 @@
         <v>100</v>
       </c>
       <c r="I28" s="1">
-        <v>89240</v>
+        <v>162529</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1">
@@ -19184,7 +19268,7 @@
         <v>116</v>
       </c>
       <c r="I29" s="1">
-        <v>94856</v>
+        <v>173929</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
@@ -19213,7 +19297,7 @@
         <v>132</v>
       </c>
       <c r="I30" s="1">
-        <v>106088</v>
+        <v>196056</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
@@ -19242,7 +19326,7 @@
         <v>164</v>
       </c>
       <c r="I31" s="1">
-        <v>117320</v>
+        <v>218408</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
@@ -19271,7 +19355,7 @@
         <v>196</v>
       </c>
       <c r="I32" s="1">
-        <v>128552</v>
+        <v>240984</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
@@ -19300,7 +19384,7 @@
         <v>228</v>
       </c>
       <c r="I33" s="1">
-        <v>139784</v>
+        <v>263785</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="20" customHeight="1">
@@ -19329,7 +19413,7 @@
         <v>292</v>
       </c>
       <c r="I34" s="1">
-        <v>151016</v>
+        <v>286811</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
@@ -19358,7 +19442,7 @@
         <v>356</v>
       </c>
       <c r="I35" s="1">
-        <v>162248</v>
+        <v>310061</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1">
@@ -19387,7 +19471,7 @@
         <v>420</v>
       </c>
       <c r="I36" s="1">
-        <v>173480</v>
+        <v>333536</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
@@ -19416,7 +19500,7 @@
         <v>484</v>
       </c>
       <c r="I37" s="1">
-        <v>184712</v>
+        <v>357236</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
@@ -19445,7 +19529,7 @@
         <v>612</v>
       </c>
       <c r="I38" s="1">
-        <v>195944</v>
+        <v>381160</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1">
@@ -19474,7 +19558,7 @@
         <v>740</v>
       </c>
       <c r="I39" s="1">
-        <v>207176</v>
+        <v>405308</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1">
@@ -19503,7 +19587,7 @@
         <v>868</v>
       </c>
       <c r="I40" s="1">
-        <v>218408</v>
+        <v>429682</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20" customHeight="1">
@@ -19532,7 +19616,7 @@
         <v>1000</v>
       </c>
       <c r="I41" s="1">
-        <v>229640</v>
+        <v>454280</v>
       </c>
     </row>
   </sheetData>
@@ -19551,8 +19635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -19905,7 +19989,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>3940</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -19934,7 +20018,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>4900</v>
+        <v>6340</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -19963,7 +20047,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>5860</v>
+        <v>7876</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -19992,7 +20076,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>11620</v>
+        <v>16228</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -20021,7 +20105,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="1">
-        <v>17380</v>
+        <v>25156</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1">
@@ -20050,7 +20134,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="1">
-        <v>23140</v>
+        <v>34660</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
@@ -20079,7 +20163,7 @@
         <v>8</v>
       </c>
       <c r="I18" s="1">
-        <v>28900</v>
+        <v>44740</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1">
@@ -20108,7 +20192,7 @@
         <v>15</v>
       </c>
       <c r="I19" s="1">
-        <v>34660</v>
+        <v>55396</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
@@ -20137,7 +20221,7 @@
         <v>20</v>
       </c>
       <c r="I20" s="1">
-        <v>40420</v>
+        <v>66628</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
@@ -20166,7 +20250,7 @@
         <v>32</v>
       </c>
       <c r="I21" s="1">
-        <v>46180</v>
+        <v>78436</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
@@ -20195,7 +20279,7 @@
         <v>48</v>
       </c>
       <c r="I22" s="1">
-        <v>51940</v>
+        <v>90820</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
@@ -20224,7 +20308,7 @@
         <v>64</v>
       </c>
       <c r="I23" s="1">
-        <v>57700</v>
+        <v>103780</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
@@ -20253,7 +20337,7 @@
         <v>80</v>
       </c>
       <c r="I24" s="1">
-        <v>63460</v>
+        <v>115415</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
@@ -20282,7 +20366,7 @@
         <v>96</v>
       </c>
       <c r="I25" s="1">
-        <v>69220</v>
+        <v>127281</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1">
@@ -20311,7 +20395,7 @@
         <v>140</v>
       </c>
       <c r="I26" s="1">
-        <v>74980</v>
+        <v>138628</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1">
@@ -20340,7 +20424,7 @@
         <v>160</v>
       </c>
       <c r="I27" s="1">
-        <v>80740</v>
+        <v>150090</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20" customHeight="1">
@@ -20369,7 +20453,7 @@
         <v>180</v>
       </c>
       <c r="I28" s="1">
-        <v>86500</v>
+        <v>161668</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1">
@@ -20398,7 +20482,7 @@
         <v>210</v>
       </c>
       <c r="I29" s="1">
-        <v>92260</v>
+        <v>173361</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
@@ -20427,7 +20511,7 @@
         <v>320</v>
       </c>
       <c r="I30" s="1">
-        <v>103780</v>
+        <v>196055</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
@@ -20456,7 +20540,7 @@
         <v>390</v>
       </c>
       <c r="I31" s="1">
-        <v>115300</v>
+        <v>218980</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
@@ -20485,7 +20569,7 @@
         <v>450</v>
       </c>
       <c r="I32" s="1">
-        <v>126820</v>
+        <v>242135</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
@@ -20514,7 +20598,7 @@
         <v>500</v>
       </c>
       <c r="I33" s="1">
-        <v>138340</v>
+        <v>265521</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="20" customHeight="1">
@@ -20543,7 +20627,7 @@
         <v>680</v>
       </c>
       <c r="I34" s="1">
-        <v>149860</v>
+        <v>289137</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
@@ -20572,7 +20656,7 @@
         <v>780</v>
       </c>
       <c r="I35" s="1">
-        <v>161380</v>
+        <v>312983</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1">
@@ -20601,7 +20685,7 @@
         <v>900</v>
       </c>
       <c r="I36" s="1">
-        <v>172900</v>
+        <v>337060</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
@@ -20630,7 +20714,7 @@
         <v>1020</v>
       </c>
       <c r="I37" s="1">
-        <v>184420</v>
+        <v>361367</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
@@ -20659,7 +20743,7 @@
         <v>1160</v>
       </c>
       <c r="I38" s="1">
-        <v>195940</v>
+        <v>385905</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1">
@@ -20688,7 +20772,7 @@
         <v>1280</v>
       </c>
       <c r="I39" s="1">
-        <v>207460</v>
+        <v>410673</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1">
@@ -20717,7 +20801,7 @@
         <v>1480</v>
       </c>
       <c r="I40" s="1">
-        <v>218980</v>
+        <v>435671</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20" customHeight="1">
@@ -20746,7 +20830,7 @@
         <v>1650</v>
       </c>
       <c r="I41" s="1">
-        <v>230500</v>
+        <v>460900</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="20" customHeight="1">
@@ -20769,7 +20853,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="I2" sqref="I2:I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -21122,7 +21206,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>2550</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -21151,7 +21235,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>3150</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -21180,7 +21264,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>3750</v>
+        <v>5010</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -21209,7 +21293,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>7350</v>
+        <v>10230</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -21238,7 +21322,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="1">
-        <v>10950</v>
+        <v>15810</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1">
@@ -21267,7 +21351,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="1">
-        <v>14550</v>
+        <v>21750</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
@@ -21296,7 +21380,7 @@
         <v>6</v>
       </c>
       <c r="I18" s="1">
-        <v>18150</v>
+        <v>28050</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1">
@@ -21325,7 +21409,7 @@
         <v>10</v>
       </c>
       <c r="I19" s="1">
-        <v>21750</v>
+        <v>34710</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
@@ -21354,7 +21438,7 @@
         <v>14</v>
       </c>
       <c r="I20" s="1">
-        <v>25350</v>
+        <v>41730</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
@@ -21383,7 +21467,7 @@
         <v>21</v>
       </c>
       <c r="I21" s="1">
-        <v>28950</v>
+        <v>49110</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
@@ -21412,7 +21496,7 @@
         <v>28</v>
       </c>
       <c r="I22" s="1">
-        <v>32550</v>
+        <v>56850</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
@@ -21441,7 +21525,7 @@
         <v>35</v>
       </c>
       <c r="I23" s="1">
-        <v>36150</v>
+        <v>64950</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
@@ -21470,7 +21554,7 @@
         <v>42</v>
       </c>
       <c r="I24" s="1">
-        <v>39750</v>
+        <v>72222</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
@@ -21499,7 +21583,7 @@
         <v>49</v>
       </c>
       <c r="I25" s="1">
-        <v>43350</v>
+        <v>79638</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1">
@@ -21528,7 +21612,7 @@
         <v>63</v>
       </c>
       <c r="I26" s="1">
-        <v>46950</v>
+        <v>86730</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1">
@@ -21557,7 +21641,7 @@
         <v>77</v>
       </c>
       <c r="I27" s="1">
-        <v>50550</v>
+        <v>93894</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20" customHeight="1">
@@ -21586,7 +21670,7 @@
         <v>91</v>
       </c>
       <c r="I28" s="1">
-        <v>54150</v>
+        <v>101130</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1">
@@ -21615,7 +21699,7 @@
         <v>105</v>
       </c>
       <c r="I29" s="1">
-        <v>57750</v>
+        <v>108438</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
@@ -21644,7 +21728,7 @@
         <v>133</v>
       </c>
       <c r="I30" s="1">
-        <v>64950</v>
+        <v>122622</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
@@ -21673,7 +21757,7 @@
         <v>161</v>
       </c>
       <c r="I31" s="1">
-        <v>72150</v>
+        <v>136950</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
@@ -21702,7 +21786,7 @@
         <v>189</v>
       </c>
       <c r="I32" s="1">
-        <v>79350</v>
+        <v>151422</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
@@ -21731,7 +21815,7 @@
         <v>217</v>
       </c>
       <c r="I33" s="1">
-        <v>86550</v>
+        <v>166038</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="20" customHeight="1">
@@ -21760,7 +21844,7 @@
         <v>273</v>
       </c>
       <c r="I34" s="1">
-        <v>93750</v>
+        <v>180798</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
@@ -21789,7 +21873,7 @@
         <v>329</v>
       </c>
       <c r="I35" s="1">
-        <v>100950</v>
+        <v>195702</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1">
@@ -21818,7 +21902,7 @@
         <v>385</v>
       </c>
       <c r="I36" s="1">
-        <v>108150</v>
+        <v>210750</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
@@ -21847,7 +21931,7 @@
         <v>441</v>
       </c>
       <c r="I37" s="1">
-        <v>115350</v>
+        <v>225942</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
@@ -21876,7 +21960,7 @@
         <v>497</v>
       </c>
       <c r="I38" s="1">
-        <v>122550</v>
+        <v>241278</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1">
@@ -21905,7 +21989,7 @@
         <v>553</v>
       </c>
       <c r="I39" s="1">
-        <v>129750</v>
+        <v>256758</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1">
@@ -21934,7 +22018,7 @@
         <v>609</v>
       </c>
       <c r="I40" s="1">
-        <v>136950</v>
+        <v>272382</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20" customHeight="1">
@@ -21963,7 +22047,7 @@
         <v>665</v>
       </c>
       <c r="I41" s="1">
-        <v>144150</v>
+        <v>288150</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="20" customHeight="1">
@@ -21987,8 +22071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -22341,7 +22425,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>2080</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -22370,7 +22454,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>2560</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -22399,7 +22483,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>3040</v>
+        <v>4048</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -22428,7 +22512,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>5920</v>
+        <v>8224</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -22457,7 +22541,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="1">
-        <v>8800</v>
+        <v>12688</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1">
@@ -22486,7 +22570,7 @@
         <v>2</v>
       </c>
       <c r="I17" s="1">
-        <v>11680</v>
+        <v>17440</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
@@ -22515,7 +22599,7 @@
         <v>3</v>
       </c>
       <c r="I18" s="1">
-        <v>14560</v>
+        <v>22480</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1">
@@ -22544,7 +22628,7 @@
         <v>6</v>
       </c>
       <c r="I19" s="1">
-        <v>17440</v>
+        <v>27808</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
@@ -22573,7 +22657,7 @@
         <v>10</v>
       </c>
       <c r="I20" s="1">
-        <v>20320</v>
+        <v>33424</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
@@ -22602,7 +22686,7 @@
         <v>16</v>
       </c>
       <c r="I21" s="1">
-        <v>23200</v>
+        <v>39328</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
@@ -22631,7 +22715,7 @@
         <v>24</v>
       </c>
       <c r="I22" s="1">
-        <v>26080</v>
+        <v>45520</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
@@ -22660,7 +22744,7 @@
         <v>32</v>
       </c>
       <c r="I23" s="1">
-        <v>28960</v>
+        <v>52000</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
@@ -22689,7 +22773,7 @@
         <v>40</v>
       </c>
       <c r="I24" s="1">
-        <v>31840</v>
+        <v>57818</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
@@ -22718,7 +22802,7 @@
         <v>48</v>
       </c>
       <c r="I25" s="1">
-        <v>34720</v>
+        <v>63750</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1">
@@ -22747,7 +22831,7 @@
         <v>56</v>
       </c>
       <c r="I26" s="1">
-        <v>37600</v>
+        <v>69424</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1">
@@ -22776,7 +22860,7 @@
         <v>64</v>
       </c>
       <c r="I27" s="1">
-        <v>40480</v>
+        <v>75155</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20" customHeight="1">
@@ -22805,7 +22889,7 @@
         <v>72</v>
       </c>
       <c r="I28" s="1">
-        <v>43360</v>
+        <v>80944</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1">
@@ -22834,7 +22918,7 @@
         <v>80</v>
       </c>
       <c r="I29" s="1">
-        <v>46240</v>
+        <v>86790</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
@@ -22863,7 +22947,7 @@
         <v>96</v>
       </c>
       <c r="I30" s="1">
-        <v>52000</v>
+        <v>98138</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
@@ -22892,7 +22976,7 @@
         <v>112</v>
       </c>
       <c r="I31" s="1">
-        <v>57760</v>
+        <v>109600</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
@@ -22921,7 +23005,7 @@
         <v>128</v>
       </c>
       <c r="I32" s="1">
-        <v>63520</v>
+        <v>121178</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
@@ -22950,7 +23034,7 @@
         <v>144</v>
       </c>
       <c r="I33" s="1">
-        <v>69280</v>
+        <v>132870</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="20" customHeight="1">
@@ -22979,7 +23063,7 @@
         <v>176</v>
       </c>
       <c r="I34" s="1">
-        <v>75040</v>
+        <v>144678</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
@@ -23008,7 +23092,7 @@
         <v>208</v>
       </c>
       <c r="I35" s="1">
-        <v>80800</v>
+        <v>156602</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1">
@@ -23037,7 +23121,7 @@
         <v>240</v>
       </c>
       <c r="I36" s="1">
-        <v>86560</v>
+        <v>168640</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
@@ -23066,7 +23150,7 @@
         <v>272</v>
       </c>
       <c r="I37" s="1">
-        <v>92320</v>
+        <v>180794</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
@@ -23095,7 +23179,7 @@
         <v>336</v>
       </c>
       <c r="I38" s="1">
-        <v>98080</v>
+        <v>193062</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1">
@@ -23124,7 +23208,7 @@
         <v>400</v>
       </c>
       <c r="I39" s="1">
-        <v>103840</v>
+        <v>205446</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1">
@@ -23153,7 +23237,7 @@
         <v>464</v>
       </c>
       <c r="I40" s="1">
-        <v>109600</v>
+        <v>217946</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20" customHeight="1">
@@ -23182,7 +23266,7 @@
         <v>528</v>
       </c>
       <c r="I41" s="1">
-        <v>115360</v>
+        <v>230560</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="20" customHeight="1">
@@ -23207,7 +23291,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I2" sqref="I2:I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -23560,7 +23644,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>3260</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -23589,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>4040</v>
+        <v>5210</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -23618,7 +23702,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>4820</v>
+        <v>6458</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -23647,7 +23731,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>9500</v>
+        <v>13244</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -23676,7 +23760,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="1">
-        <v>14180</v>
+        <v>20498</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1">
@@ -23705,7 +23789,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="1">
-        <v>18860</v>
+        <v>28220</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
@@ -23734,7 +23818,7 @@
         <v>8</v>
       </c>
       <c r="I18" s="1">
-        <v>23540</v>
+        <v>36410</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1">
@@ -23763,7 +23847,7 @@
         <v>12</v>
       </c>
       <c r="I19" s="1">
-        <v>28220</v>
+        <v>45068</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
@@ -23792,7 +23876,7 @@
         <v>16</v>
       </c>
       <c r="I20" s="1">
-        <v>32900</v>
+        <v>54194</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
@@ -23821,7 +23905,7 @@
         <v>20</v>
       </c>
       <c r="I21" s="1">
-        <v>37580</v>
+        <v>63788</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
@@ -23850,7 +23934,7 @@
         <v>28</v>
       </c>
       <c r="I22" s="1">
-        <v>42260</v>
+        <v>73850</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
@@ -23879,7 +23963,7 @@
         <v>36</v>
       </c>
       <c r="I23" s="1">
-        <v>46940</v>
+        <v>84380</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
@@ -23908,7 +23992,7 @@
         <v>44</v>
       </c>
       <c r="I24" s="1">
-        <v>51620</v>
+        <v>93834</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
@@ -23937,7 +24021,7 @@
         <v>52</v>
       </c>
       <c r="I25" s="1">
-        <v>56300</v>
+        <v>103474</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1">
@@ -23966,7 +24050,7 @@
         <v>68</v>
       </c>
       <c r="I26" s="1">
-        <v>60980</v>
+        <v>112694</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1">
@@ -23995,7 +24079,7 @@
         <v>84</v>
       </c>
       <c r="I27" s="1">
-        <v>65660</v>
+        <v>122007</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20" customHeight="1">
@@ -24024,7 +24108,7 @@
         <v>100</v>
       </c>
       <c r="I28" s="1">
-        <v>70340</v>
+        <v>131414</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1">
@@ -24053,7 +24137,7 @@
         <v>116</v>
       </c>
       <c r="I29" s="1">
-        <v>75020</v>
+        <v>140914</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
@@ -24082,7 +24166,7 @@
         <v>132</v>
       </c>
       <c r="I30" s="1">
-        <v>84380</v>
+        <v>159354</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
@@ -24111,7 +24195,7 @@
         <v>164</v>
       </c>
       <c r="I31" s="1">
-        <v>93740</v>
+        <v>177980</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
@@ -24140,7 +24224,7 @@
         <v>196</v>
       </c>
       <c r="I32" s="1">
-        <v>103100</v>
+        <v>196794</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
@@ -24169,7 +24253,7 @@
         <v>228</v>
       </c>
       <c r="I33" s="1">
-        <v>112460</v>
+        <v>215794</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="20" customHeight="1">
@@ -24198,7 +24282,7 @@
         <v>292</v>
       </c>
       <c r="I34" s="1">
-        <v>121820</v>
+        <v>234982</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
@@ -24227,7 +24311,7 @@
         <v>356</v>
       </c>
       <c r="I35" s="1">
-        <v>131180</v>
+        <v>254358</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1">
@@ -24256,7 +24340,7 @@
         <v>420</v>
       </c>
       <c r="I36" s="1">
-        <v>140540</v>
+        <v>273920</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
@@ -24285,7 +24369,7 @@
         <v>484</v>
       </c>
       <c r="I37" s="1">
-        <v>149900</v>
+        <v>293670</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
@@ -24314,7 +24398,7 @@
         <v>612</v>
       </c>
       <c r="I38" s="1">
-        <v>159260</v>
+        <v>313606</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1">
@@ -24343,7 +24427,7 @@
         <v>740</v>
       </c>
       <c r="I39" s="1">
-        <v>168620</v>
+        <v>333730</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1">
@@ -24372,7 +24456,7 @@
         <v>868</v>
       </c>
       <c r="I40" s="1">
-        <v>177980</v>
+        <v>354042</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20" customHeight="1">
@@ -24401,7 +24485,7 @@
         <v>996</v>
       </c>
       <c r="I41" s="1">
-        <v>187340</v>
+        <v>374540</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="20" customHeight="1">
@@ -24425,8 +24509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -24779,7 +24863,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>3136</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -24808,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>3880</v>
+        <v>4996</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -24837,7 +24921,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>4624</v>
+        <v>6186</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -24866,7 +24950,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>9088</v>
+        <v>12659</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -24895,7 +24979,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="1">
-        <v>13552</v>
+        <v>19578</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1">
@@ -24924,7 +25008,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="1">
-        <v>18016</v>
+        <v>26944</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
@@ -24953,7 +25037,7 @@
         <v>8</v>
       </c>
       <c r="I18" s="1">
-        <v>22480</v>
+        <v>34756</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1">
@@ -24982,7 +25066,7 @@
         <v>12</v>
       </c>
       <c r="I19" s="1">
-        <v>26944</v>
+        <v>43014</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
@@ -25011,7 +25095,7 @@
         <v>16</v>
       </c>
       <c r="I20" s="1">
-        <v>31408</v>
+        <v>51719</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
@@ -25040,7 +25124,7 @@
         <v>20</v>
       </c>
       <c r="I21" s="1">
-        <v>35872</v>
+        <v>60870</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
@@ -25069,7 +25153,7 @@
         <v>28</v>
       </c>
       <c r="I22" s="1">
-        <v>40336</v>
+        <v>70468</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
@@ -25098,7 +25182,7 @@
         <v>36</v>
       </c>
       <c r="I23" s="1">
-        <v>44800</v>
+        <v>80512</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
@@ -25127,7 +25211,7 @@
         <v>44</v>
       </c>
       <c r="I24" s="1">
-        <v>49264</v>
+        <v>89529</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
@@ -25156,7 +25240,7 @@
         <v>52</v>
       </c>
       <c r="I25" s="1">
-        <v>53728</v>
+        <v>98725</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1">
@@ -25185,7 +25269,7 @@
         <v>68</v>
       </c>
       <c r="I26" s="1">
-        <v>58192</v>
+        <v>107519</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1">
@@ -25214,7 +25298,7 @@
         <v>84</v>
       </c>
       <c r="I27" s="1">
-        <v>62656</v>
+        <v>116403</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20" customHeight="1">
@@ -25243,7 +25327,7 @@
         <v>100</v>
       </c>
       <c r="I28" s="1">
-        <v>67120</v>
+        <v>125375</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1">
@@ -25272,7 +25356,7 @@
         <v>116</v>
       </c>
       <c r="I29" s="1">
-        <v>71584</v>
+        <v>134437</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
@@ -25301,7 +25385,7 @@
         <v>132</v>
       </c>
       <c r="I30" s="1">
-        <v>80512</v>
+        <v>152025</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
@@ -25330,7 +25414,7 @@
         <v>164</v>
       </c>
       <c r="I31" s="1">
-        <v>89440</v>
+        <v>169792</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
@@ -25359,7 +25443,7 @@
         <v>196</v>
       </c>
       <c r="I32" s="1">
-        <v>98368</v>
+        <v>187737</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
@@ -25388,7 +25472,7 @@
         <v>228</v>
       </c>
       <c r="I33" s="1">
-        <v>107296</v>
+        <v>205861</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="20" customHeight="1">
@@ -25417,7 +25501,7 @@
         <v>292</v>
       </c>
       <c r="I34" s="1">
-        <v>116224</v>
+        <v>224164</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
@@ -25446,7 +25530,7 @@
         <v>356</v>
       </c>
       <c r="I35" s="1">
-        <v>125152</v>
+        <v>242644</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1">
@@ -25475,7 +25559,7 @@
         <v>420</v>
       </c>
       <c r="I36" s="1">
-        <v>134080</v>
+        <v>261304</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
@@ -25504,7 +25588,7 @@
         <v>484</v>
       </c>
       <c r="I37" s="1">
-        <v>143008</v>
+        <v>280142</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
@@ -25533,7 +25617,7 @@
         <v>612</v>
       </c>
       <c r="I38" s="1">
-        <v>151936</v>
+        <v>299159</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1">
@@ -25562,7 +25646,7 @@
         <v>740</v>
       </c>
       <c r="I39" s="1">
-        <v>160864</v>
+        <v>318354</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1">
@@ -25591,7 +25675,7 @@
         <v>868</v>
       </c>
       <c r="I40" s="1">
-        <v>169792</v>
+        <v>337728</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20" customHeight="1">
@@ -25620,7 +25704,7 @@
         <v>1000</v>
       </c>
       <c r="I41" s="1">
-        <v>178720</v>
+        <v>357280</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="20" customHeight="1">
@@ -25671,8 +25755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I44"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -26025,7 +26109,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="4">
-        <v>3616</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -26054,7 +26138,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="4">
-        <v>4480</v>
+        <v>5776</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -26083,7 +26167,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="4">
-        <v>5344</v>
+        <v>7158</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -26112,7 +26196,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="4">
-        <v>10528</v>
+        <v>14675</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -26141,7 +26225,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="4">
-        <v>15712</v>
+        <v>22710</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1">
@@ -26170,7 +26254,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="4">
-        <v>20896</v>
+        <v>31264</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
@@ -26199,7 +26283,7 @@
         <v>8</v>
       </c>
       <c r="I18" s="4">
-        <v>26080</v>
+        <v>40336</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1">
@@ -26228,7 +26312,7 @@
         <v>12</v>
       </c>
       <c r="I19" s="4">
-        <v>31264</v>
+        <v>49926</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
@@ -26257,7 +26341,7 @@
         <v>16</v>
       </c>
       <c r="I20" s="4">
-        <v>36448</v>
+        <v>60035</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
@@ -26286,7 +26370,7 @@
         <v>20</v>
       </c>
       <c r="I21" s="4">
-        <v>41632</v>
+        <v>70662</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
@@ -26315,7 +26399,7 @@
         <v>28</v>
       </c>
       <c r="I22" s="4">
-        <v>46816</v>
+        <v>81808</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
@@ -26344,7 +26428,7 @@
         <v>36</v>
       </c>
       <c r="I23" s="4">
-        <v>52000</v>
+        <v>93472</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
@@ -26373,7 +26457,7 @@
         <v>44</v>
       </c>
       <c r="I24" s="4">
-        <v>57184</v>
+        <v>103944</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
@@ -26402,7 +26486,7 @@
         <v>52</v>
       </c>
       <c r="I25" s="4">
-        <v>62368</v>
+        <v>114623</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1">
@@ -26431,7 +26515,7 @@
         <v>68</v>
       </c>
       <c r="I26" s="4">
-        <v>67552</v>
+        <v>124835</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1">
@@ -26460,7 +26544,7 @@
         <v>84</v>
       </c>
       <c r="I27" s="4">
-        <v>72736</v>
+        <v>135151</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20" customHeight="1">
@@ -26489,7 +26573,7 @@
         <v>100</v>
       </c>
       <c r="I28" s="4">
-        <v>77920</v>
+        <v>145571</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1">
@@ -26518,7 +26602,7 @@
         <v>116</v>
       </c>
       <c r="I29" s="4">
-        <v>83104</v>
+        <v>156095</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
@@ -26547,7 +26631,7 @@
         <v>164</v>
       </c>
       <c r="I30" s="4">
-        <v>93472</v>
+        <v>176520</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
@@ -26576,7 +26660,7 @@
         <v>212</v>
       </c>
       <c r="I31" s="4">
-        <v>103840</v>
+        <v>197152</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
@@ -26605,7 +26689,7 @@
         <v>260</v>
       </c>
       <c r="I32" s="4">
-        <v>114208</v>
+        <v>217992</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
@@ -26634,7 +26718,7 @@
         <v>308</v>
       </c>
       <c r="I33" s="4">
-        <v>124576</v>
+        <v>239039</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="20" customHeight="1">
@@ -26663,7 +26747,7 @@
         <v>404</v>
       </c>
       <c r="I34" s="4">
-        <v>134944</v>
+        <v>260293</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
@@ -26692,7 +26776,7 @@
         <v>500</v>
       </c>
       <c r="I35" s="4">
-        <v>145312</v>
+        <v>281755</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1">
@@ -26721,7 +26805,7 @@
         <v>596</v>
       </c>
       <c r="I36" s="4">
-        <v>155680</v>
+        <v>303424</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
@@ -26750,7 +26834,7 @@
         <v>692</v>
       </c>
       <c r="I37" s="4">
-        <v>166048</v>
+        <v>325300</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
@@ -26779,7 +26863,7 @@
         <v>788</v>
       </c>
       <c r="I38" s="4">
-        <v>176416</v>
+        <v>347384</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1">
@@ -26808,7 +26892,7 @@
         <v>884</v>
       </c>
       <c r="I39" s="4">
-        <v>186784</v>
+        <v>369676</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1">
@@ -26836,8 +26920,8 @@
       <c r="H40" s="4">
         <v>980</v>
       </c>
-      <c r="I40" s="4">
-        <v>197152</v>
+      <c r="I40" s="1">
+        <v>392174</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20" customHeight="1">
@@ -26866,7 +26950,7 @@
         <v>1076</v>
       </c>
       <c r="I41" s="1">
-        <v>207520</v>
+        <v>414880</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="20" customHeight="1">
@@ -26891,8 +26975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I44"/>
+    <sheetView showRuler="0" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -27245,7 +27329,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>2800</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -27274,7 +27358,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>3460</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -27303,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>4120</v>
+        <v>5506</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -27332,7 +27416,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>8080</v>
+        <v>11248</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -27361,7 +27445,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="1">
-        <v>12040</v>
+        <v>17386</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1">
@@ -27390,7 +27474,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="1">
-        <v>16000</v>
+        <v>23920</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
@@ -27419,7 +27503,7 @@
         <v>8</v>
       </c>
       <c r="I18" s="1">
-        <v>19960</v>
+        <v>30850</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1">
@@ -27448,7 +27532,7 @@
         <v>12</v>
       </c>
       <c r="I19" s="1">
-        <v>23920</v>
+        <v>38176</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
@@ -27477,7 +27561,7 @@
         <v>16</v>
       </c>
       <c r="I20" s="1">
-        <v>27880</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
@@ -27506,7 +27590,7 @@
         <v>20</v>
       </c>
       <c r="I21" s="1">
-        <v>31840</v>
+        <v>54016</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
@@ -27535,7 +27619,7 @@
         <v>28</v>
       </c>
       <c r="I22" s="1">
-        <v>35800</v>
+        <v>62530</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
@@ -27564,7 +27648,7 @@
         <v>36</v>
       </c>
       <c r="I23" s="1">
-        <v>39760</v>
+        <v>71440</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
@@ -27593,7 +27677,7 @@
         <v>44</v>
       </c>
       <c r="I24" s="1">
-        <v>43720</v>
+        <v>79439</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
@@ -27622,7 +27706,7 @@
         <v>52</v>
       </c>
       <c r="I25" s="1">
-        <v>47680</v>
+        <v>87597</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1">
@@ -27651,7 +27735,7 @@
         <v>68</v>
       </c>
       <c r="I26" s="1">
-        <v>51640</v>
+        <v>95398</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1">
@@ -27680,7 +27764,7 @@
         <v>84</v>
       </c>
       <c r="I27" s="1">
-        <v>55600</v>
+        <v>103278</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20" customHeight="1">
@@ -27709,7 +27793,7 @@
         <v>100</v>
       </c>
       <c r="I28" s="1">
-        <v>59560</v>
+        <v>111238</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1">
@@ -27738,7 +27822,7 @@
         <v>116</v>
       </c>
       <c r="I29" s="1">
-        <v>63520</v>
+        <v>119277</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
@@ -27767,7 +27851,7 @@
         <v>132</v>
       </c>
       <c r="I30" s="1">
-        <v>71440</v>
+        <v>134879</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
@@ -27796,7 +27880,7 @@
         <v>164</v>
       </c>
       <c r="I31" s="1">
-        <v>79360</v>
+        <v>150640</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
@@ -27825,7 +27909,7 @@
         <v>196</v>
       </c>
       <c r="I32" s="1">
-        <v>87280</v>
+        <v>166559</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
@@ -27854,7 +27938,7 @@
         <v>228</v>
       </c>
       <c r="I33" s="1">
-        <v>95200</v>
+        <v>182637</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="20" customHeight="1">
@@ -27883,7 +27967,7 @@
         <v>292</v>
       </c>
       <c r="I34" s="1">
-        <v>103120</v>
+        <v>198873</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
@@ -27912,7 +27996,7 @@
         <v>356</v>
       </c>
       <c r="I35" s="1">
-        <v>111040</v>
+        <v>215267</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1">
@@ -27941,7 +28025,7 @@
         <v>420</v>
       </c>
       <c r="I36" s="1">
-        <v>118960</v>
+        <v>231820</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
@@ -27970,7 +28054,7 @@
         <v>484</v>
       </c>
       <c r="I37" s="1">
-        <v>126880</v>
+        <v>248531</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
@@ -27999,7 +28083,7 @@
         <v>612</v>
       </c>
       <c r="I38" s="1">
-        <v>134800</v>
+        <v>265401</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1">
@@ -28028,7 +28112,7 @@
         <v>740</v>
       </c>
       <c r="I39" s="1">
-        <v>142720</v>
+        <v>282429</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1">
@@ -28057,7 +28141,7 @@
         <v>868</v>
       </c>
       <c r="I40" s="1">
-        <v>150640</v>
+        <v>299615</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20" customHeight="1">
@@ -28086,7 +28170,7 @@
         <v>996</v>
       </c>
       <c r="I41" s="1">
-        <v>158560</v>
+        <v>316960</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="20" customHeight="1">
